--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,218 +662,231 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1698000</v>
+        <v>1946800</v>
       </c>
       <c r="E8" s="3">
-        <v>1320400</v>
+        <v>1735400</v>
       </c>
       <c r="F8" s="3">
-        <v>1399900</v>
+        <v>1349500</v>
       </c>
       <c r="G8" s="3">
-        <v>1596000</v>
+        <v>1430700</v>
       </c>
       <c r="H8" s="3">
-        <v>1428300</v>
+        <v>1631100</v>
       </c>
       <c r="I8" s="3">
-        <v>1425500</v>
+        <v>1459700</v>
       </c>
       <c r="J8" s="3">
+        <v>1456900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1393500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1447400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1294700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1282400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1152000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1235800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400000</v>
+        <v>450600</v>
       </c>
       <c r="E9" s="3">
-        <v>366300</v>
+        <v>408800</v>
       </c>
       <c r="F9" s="3">
-        <v>389900</v>
+        <v>374300</v>
       </c>
       <c r="G9" s="3">
-        <v>388700</v>
+        <v>398400</v>
       </c>
       <c r="H9" s="3">
-        <v>451900</v>
+        <v>397200</v>
       </c>
       <c r="I9" s="3">
-        <v>399800</v>
+        <v>461800</v>
       </c>
       <c r="J9" s="3">
+        <v>408600</v>
+      </c>
+      <c r="K9" s="3">
         <v>436700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>407400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>488500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>476900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>446600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>426100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>440600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1298100</v>
+        <v>1496100</v>
       </c>
       <c r="E10" s="3">
-        <v>954200</v>
+        <v>1326600</v>
       </c>
       <c r="F10" s="3">
-        <v>1010000</v>
+        <v>975200</v>
       </c>
       <c r="G10" s="3">
-        <v>1207400</v>
+        <v>1032200</v>
       </c>
       <c r="H10" s="3">
-        <v>976400</v>
+        <v>1233900</v>
       </c>
       <c r="I10" s="3">
-        <v>1025700</v>
+        <v>997900</v>
       </c>
       <c r="J10" s="3">
+        <v>1048300</v>
+      </c>
+      <c r="K10" s="3">
         <v>956800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1040100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>911500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>817800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>835800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>725900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>795200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,55 +904,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>318400</v>
+        <v>344400</v>
       </c>
       <c r="E12" s="3">
-        <v>350800</v>
+        <v>325400</v>
       </c>
       <c r="F12" s="3">
-        <v>267500</v>
+        <v>358500</v>
       </c>
       <c r="G12" s="3">
-        <v>393800</v>
+        <v>273400</v>
       </c>
       <c r="H12" s="3">
-        <v>332000</v>
+        <v>402500</v>
       </c>
       <c r="I12" s="3">
-        <v>280600</v>
+        <v>339300</v>
       </c>
       <c r="J12" s="3">
+        <v>286800</v>
+      </c>
+      <c r="K12" s="3">
         <v>310200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>339700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>324400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>297600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>292300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>217900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1322400</v>
+        <v>1462200</v>
       </c>
       <c r="E17" s="3">
-        <v>1264200</v>
+        <v>1351500</v>
       </c>
       <c r="F17" s="3">
-        <v>1165100</v>
+        <v>1292000</v>
       </c>
       <c r="G17" s="3">
-        <v>1332000</v>
+        <v>1190700</v>
       </c>
       <c r="H17" s="3">
-        <v>1348800</v>
+        <v>1361300</v>
       </c>
       <c r="I17" s="3">
-        <v>1172900</v>
+        <v>1378500</v>
       </c>
       <c r="J17" s="3">
+        <v>1198700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1206500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1171600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1228500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1180800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1145600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1139300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1066900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>375600</v>
+        <v>484600</v>
       </c>
       <c r="E18" s="3">
-        <v>56300</v>
+        <v>383900</v>
       </c>
       <c r="F18" s="3">
-        <v>234800</v>
+        <v>57500</v>
       </c>
       <c r="G18" s="3">
-        <v>264000</v>
+        <v>239900</v>
       </c>
       <c r="H18" s="3">
-        <v>79500</v>
+        <v>269800</v>
       </c>
       <c r="I18" s="3">
-        <v>252600</v>
+        <v>81200</v>
       </c>
       <c r="J18" s="3">
+        <v>258200</v>
+      </c>
+      <c r="K18" s="3">
         <v>187100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>275800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>136800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>168900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,102 +1241,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6700</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="F20" s="3">
-        <v>10300</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>8600</v>
+        <v>10600</v>
       </c>
       <c r="H20" s="3">
-        <v>9700</v>
+        <v>8800</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>9900</v>
       </c>
       <c r="J20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>460800</v>
+        <v>565000</v>
       </c>
       <c r="E21" s="3">
-        <v>136500</v>
+        <v>470900</v>
       </c>
       <c r="F21" s="3">
-        <v>320300</v>
+        <v>139500</v>
       </c>
       <c r="G21" s="3">
-        <v>333800</v>
+        <v>327300</v>
       </c>
       <c r="H21" s="3">
-        <v>147500</v>
+        <v>341100</v>
       </c>
       <c r="I21" s="3">
-        <v>320000</v>
+        <v>150700</v>
       </c>
       <c r="J21" s="3">
+        <v>327000</v>
+      </c>
+      <c r="K21" s="3">
         <v>255900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>335700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>169200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>194900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>222500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,102 +1389,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>382300</v>
+        <v>485400</v>
       </c>
       <c r="E23" s="3">
-        <v>61700</v>
+        <v>390700</v>
       </c>
       <c r="F23" s="3">
-        <v>245100</v>
+        <v>63000</v>
       </c>
       <c r="G23" s="3">
-        <v>272600</v>
+        <v>250500</v>
       </c>
       <c r="H23" s="3">
-        <v>89100</v>
+        <v>278600</v>
       </c>
       <c r="I23" s="3">
-        <v>258000</v>
+        <v>91100</v>
       </c>
       <c r="J23" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K23" s="3">
         <v>193300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>274700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>171600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>168100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-40600</v>
+        <v>34100</v>
       </c>
       <c r="E24" s="3">
-        <v>13800</v>
+        <v>-41500</v>
       </c>
       <c r="F24" s="3">
-        <v>44300</v>
+        <v>14100</v>
       </c>
       <c r="G24" s="3">
-        <v>65900</v>
+        <v>45200</v>
       </c>
       <c r="H24" s="3">
-        <v>21800</v>
+        <v>67300</v>
       </c>
       <c r="I24" s="3">
-        <v>70400</v>
+        <v>22300</v>
       </c>
       <c r="J24" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K24" s="3">
         <v>50700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>78400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1490,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>422900</v>
+        <v>451400</v>
       </c>
       <c r="E26" s="3">
-        <v>47900</v>
+        <v>432200</v>
       </c>
       <c r="F26" s="3">
-        <v>200800</v>
+        <v>48900</v>
       </c>
       <c r="G26" s="3">
-        <v>206800</v>
+        <v>205300</v>
       </c>
       <c r="H26" s="3">
-        <v>67300</v>
+        <v>211300</v>
       </c>
       <c r="I26" s="3">
-        <v>187600</v>
+        <v>68800</v>
       </c>
       <c r="J26" s="3">
+        <v>191700</v>
+      </c>
+      <c r="K26" s="3">
         <v>142600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>214800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>88400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>95600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>420500</v>
+        <v>450700</v>
       </c>
       <c r="E27" s="3">
-        <v>48400</v>
+        <v>429700</v>
       </c>
       <c r="F27" s="3">
-        <v>197000</v>
+        <v>49500</v>
       </c>
       <c r="G27" s="3">
-        <v>212800</v>
+        <v>201300</v>
       </c>
       <c r="H27" s="3">
-        <v>66600</v>
+        <v>217500</v>
       </c>
       <c r="I27" s="3">
-        <v>185000</v>
+        <v>68000</v>
       </c>
       <c r="J27" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K27" s="3">
         <v>111900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>214600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>88600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>93200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1678,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1772,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-6700</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-6900</v>
       </c>
       <c r="F32" s="3">
-        <v>-10300</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>-8600</v>
+        <v>-10600</v>
       </c>
       <c r="H32" s="3">
-        <v>-9700</v>
+        <v>-8800</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-9900</v>
       </c>
       <c r="J32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>420500</v>
+        <v>450700</v>
       </c>
       <c r="E33" s="3">
-        <v>48400</v>
+        <v>429700</v>
       </c>
       <c r="F33" s="3">
-        <v>197000</v>
+        <v>49500</v>
       </c>
       <c r="G33" s="3">
-        <v>212800</v>
+        <v>201300</v>
       </c>
       <c r="H33" s="3">
-        <v>66600</v>
+        <v>217500</v>
       </c>
       <c r="I33" s="3">
-        <v>185000</v>
+        <v>68000</v>
       </c>
       <c r="J33" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K33" s="3">
         <v>111900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>88600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>93200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>420500</v>
+        <v>450700</v>
       </c>
       <c r="E35" s="3">
-        <v>48400</v>
+        <v>429700</v>
       </c>
       <c r="F35" s="3">
-        <v>197000</v>
+        <v>49500</v>
       </c>
       <c r="G35" s="3">
-        <v>212800</v>
+        <v>201300</v>
       </c>
       <c r="H35" s="3">
-        <v>66600</v>
+        <v>217500</v>
       </c>
       <c r="I35" s="3">
-        <v>185000</v>
+        <v>68000</v>
       </c>
       <c r="J35" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K35" s="3">
         <v>111900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>88600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>93200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2050,431 +2136,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1931900</v>
+        <v>2361900</v>
       </c>
       <c r="E41" s="3">
-        <v>1957900</v>
+        <v>1974400</v>
       </c>
       <c r="F41" s="3">
-        <v>2049700</v>
+        <v>2001000</v>
       </c>
       <c r="G41" s="3">
-        <v>2603700</v>
+        <v>2094800</v>
       </c>
       <c r="H41" s="3">
-        <v>2259900</v>
+        <v>2661000</v>
       </c>
       <c r="I41" s="3">
-        <v>2652700</v>
+        <v>2309700</v>
       </c>
       <c r="J41" s="3">
+        <v>2711100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2542800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2445500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1727000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1595400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1466000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1656700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1529400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>22300</v>
+        <v>14400</v>
       </c>
       <c r="E42" s="3">
-        <v>59300</v>
+        <v>22800</v>
       </c>
       <c r="F42" s="3">
-        <v>62300</v>
+        <v>60600</v>
       </c>
       <c r="G42" s="3">
-        <v>68600</v>
+        <v>63700</v>
       </c>
       <c r="H42" s="3">
-        <v>69300</v>
+        <v>70100</v>
       </c>
       <c r="I42" s="3">
-        <v>170200</v>
+        <v>70900</v>
       </c>
       <c r="J42" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K42" s="3">
         <v>169000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>447200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>359400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>399800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>380300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>335200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1787800</v>
+        <v>1672400</v>
       </c>
       <c r="E43" s="3">
-        <v>1491400</v>
+        <v>1827100</v>
       </c>
       <c r="F43" s="3">
-        <v>1532300</v>
+        <v>1524200</v>
       </c>
       <c r="G43" s="3">
-        <v>1423900</v>
+        <v>1566000</v>
       </c>
       <c r="H43" s="3">
-        <v>1507900</v>
+        <v>1455200</v>
       </c>
       <c r="I43" s="3">
-        <v>1356800</v>
+        <v>1541100</v>
       </c>
       <c r="J43" s="3">
+        <v>1386600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1352300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1369300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1608700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1562400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1480200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1370400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1630200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>603900</v>
+        <v>610700</v>
       </c>
       <c r="E44" s="3">
-        <v>592000</v>
+        <v>617200</v>
       </c>
       <c r="F44" s="3">
-        <v>581300</v>
+        <v>605000</v>
       </c>
       <c r="G44" s="3">
-        <v>617100</v>
+        <v>594100</v>
       </c>
       <c r="H44" s="3">
-        <v>601100</v>
+        <v>630700</v>
       </c>
       <c r="I44" s="3">
-        <v>645600</v>
+        <v>614400</v>
       </c>
       <c r="J44" s="3">
+        <v>659800</v>
+      </c>
+      <c r="K44" s="3">
         <v>640100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>731600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>723500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>747100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>763400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>735100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>736700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>200500</v>
+        <v>184400</v>
       </c>
       <c r="E45" s="3">
-        <v>193600</v>
+        <v>204900</v>
       </c>
       <c r="F45" s="3">
-        <v>209400</v>
+        <v>197800</v>
       </c>
       <c r="G45" s="3">
-        <v>392400</v>
+        <v>214000</v>
       </c>
       <c r="H45" s="3">
-        <v>289000</v>
+        <v>401000</v>
       </c>
       <c r="I45" s="3">
-        <v>292000</v>
+        <v>295400</v>
       </c>
       <c r="J45" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K45" s="3">
         <v>291600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>129400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>151900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4546300</v>
+        <v>4843900</v>
       </c>
       <c r="E46" s="3">
-        <v>4294200</v>
+        <v>4646300</v>
       </c>
       <c r="F46" s="3">
-        <v>4435100</v>
+        <v>4388600</v>
       </c>
       <c r="G46" s="3">
-        <v>5105600</v>
+        <v>4532700</v>
       </c>
       <c r="H46" s="3">
-        <v>4727400</v>
+        <v>5218000</v>
       </c>
       <c r="I46" s="3">
-        <v>5117200</v>
+        <v>4831400</v>
       </c>
       <c r="J46" s="3">
+        <v>5229800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4995800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4844600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4634000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4403200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4270500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4294500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4331600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>432900</v>
+        <v>369500</v>
       </c>
       <c r="E47" s="3">
-        <v>452400</v>
+        <v>442400</v>
       </c>
       <c r="F47" s="3">
-        <v>455100</v>
+        <v>462400</v>
       </c>
       <c r="G47" s="3">
-        <v>481800</v>
+        <v>465100</v>
       </c>
       <c r="H47" s="3">
-        <v>440700</v>
+        <v>492400</v>
       </c>
       <c r="I47" s="3">
-        <v>492000</v>
+        <v>450400</v>
       </c>
       <c r="J47" s="3">
+        <v>502800</v>
+      </c>
+      <c r="K47" s="3">
         <v>464700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>432000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>467400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>529000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>514000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>483100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1264100</v>
+        <v>1343700</v>
       </c>
       <c r="E48" s="3">
-        <v>1228700</v>
+        <v>1291900</v>
       </c>
       <c r="F48" s="3">
-        <v>1254700</v>
+        <v>1255800</v>
       </c>
       <c r="G48" s="3">
-        <v>956000</v>
+        <v>1282300</v>
       </c>
       <c r="H48" s="3">
-        <v>858200</v>
+        <v>977000</v>
       </c>
       <c r="I48" s="3">
-        <v>853900</v>
+        <v>877100</v>
       </c>
       <c r="J48" s="3">
+        <v>872700</v>
+      </c>
+      <c r="K48" s="3">
         <v>888800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>931700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>937300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>940900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>938700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>918700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>907000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2616000</v>
+        <v>2552700</v>
       </c>
       <c r="E49" s="3">
-        <v>2567400</v>
+        <v>2673600</v>
       </c>
       <c r="F49" s="3">
-        <v>2553600</v>
+        <v>2623800</v>
       </c>
       <c r="G49" s="3">
-        <v>2457000</v>
+        <v>2609800</v>
       </c>
       <c r="H49" s="3">
-        <v>2495200</v>
+        <v>2511100</v>
       </c>
       <c r="I49" s="3">
-        <v>2556000</v>
+        <v>2550000</v>
       </c>
       <c r="J49" s="3">
+        <v>2612200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2520100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2462500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2589500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2588300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2594700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2541000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2590500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2520,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2567,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>697800</v>
+        <v>757500</v>
       </c>
       <c r="E52" s="3">
-        <v>639600</v>
+        <v>713100</v>
       </c>
       <c r="F52" s="3">
-        <v>629700</v>
+        <v>653700</v>
       </c>
       <c r="G52" s="3">
-        <v>739600</v>
+        <v>643600</v>
       </c>
       <c r="H52" s="3">
-        <v>804600</v>
+        <v>755900</v>
       </c>
       <c r="I52" s="3">
-        <v>799900</v>
+        <v>822300</v>
       </c>
       <c r="J52" s="3">
+        <v>817500</v>
+      </c>
+      <c r="K52" s="3">
         <v>826100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>812500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>847300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>891200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>906900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>905700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>898500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9557100</v>
+        <v>9867300</v>
       </c>
       <c r="E54" s="3">
-        <v>9182300</v>
+        <v>9767300</v>
       </c>
       <c r="F54" s="3">
-        <v>9328200</v>
+        <v>9384300</v>
       </c>
       <c r="G54" s="3">
-        <v>9740100</v>
+        <v>9533500</v>
       </c>
       <c r="H54" s="3">
-        <v>9325900</v>
+        <v>9954400</v>
       </c>
       <c r="I54" s="3">
-        <v>9819000</v>
+        <v>9531100</v>
       </c>
       <c r="J54" s="3">
+        <v>10035000</v>
+      </c>
+      <c r="K54" s="3">
         <v>9695500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9483200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9475500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9352600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9224800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9142900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9228400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2727,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2746,290 +2876,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>547900</v>
+        <v>714200</v>
       </c>
       <c r="E57" s="3">
-        <v>480600</v>
+        <v>560000</v>
       </c>
       <c r="F57" s="3">
-        <v>530200</v>
+        <v>491200</v>
       </c>
       <c r="G57" s="3">
-        <v>704700</v>
+        <v>541800</v>
       </c>
       <c r="H57" s="3">
-        <v>467200</v>
+        <v>720200</v>
       </c>
       <c r="I57" s="3">
-        <v>473700</v>
+        <v>477500</v>
       </c>
       <c r="J57" s="3">
+        <v>484100</v>
+      </c>
+      <c r="K57" s="3">
         <v>478500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>615600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>522700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>509300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>502600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>627600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>586800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>536200</v>
+        <v>325100</v>
       </c>
       <c r="E58" s="3">
-        <v>549800</v>
+        <v>548000</v>
       </c>
       <c r="F58" s="3">
-        <v>363600</v>
+        <v>561900</v>
       </c>
       <c r="G58" s="3">
-        <v>445300</v>
+        <v>371600</v>
       </c>
       <c r="H58" s="3">
-        <v>363500</v>
+        <v>455100</v>
       </c>
       <c r="I58" s="3">
-        <v>363500</v>
+        <v>371500</v>
       </c>
       <c r="J58" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K58" s="3">
         <v>263600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>148300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>627600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>556000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>554900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>443500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>65600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1422000</v>
+        <v>1301500</v>
       </c>
       <c r="E59" s="3">
-        <v>1453200</v>
+        <v>1453300</v>
       </c>
       <c r="F59" s="3">
-        <v>1428200</v>
+        <v>1485200</v>
       </c>
       <c r="G59" s="3">
-        <v>1538200</v>
+        <v>1459600</v>
       </c>
       <c r="H59" s="3">
-        <v>1660300</v>
+        <v>1572000</v>
       </c>
       <c r="I59" s="3">
-        <v>1592200</v>
+        <v>1696800</v>
       </c>
       <c r="J59" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1525800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1420800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1003500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>957600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>954900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>913100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>880900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2506100</v>
+        <v>2340800</v>
       </c>
       <c r="E60" s="3">
-        <v>2483700</v>
+        <v>2561300</v>
       </c>
       <c r="F60" s="3">
-        <v>2321900</v>
+        <v>2538300</v>
       </c>
       <c r="G60" s="3">
-        <v>2688200</v>
+        <v>2373000</v>
       </c>
       <c r="H60" s="3">
-        <v>2491000</v>
+        <v>2747400</v>
       </c>
       <c r="I60" s="3">
-        <v>2429400</v>
+        <v>2545800</v>
       </c>
       <c r="J60" s="3">
+        <v>2482900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2267900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2184700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2153800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2022900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2012400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1984100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1533300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>499400</v>
+        <v>510400</v>
       </c>
       <c r="E61" s="3">
-        <v>499400</v>
+        <v>510400</v>
       </c>
       <c r="F61" s="3">
-        <v>817300</v>
+        <v>510300</v>
       </c>
       <c r="G61" s="3">
-        <v>817200</v>
+        <v>835300</v>
       </c>
       <c r="H61" s="3">
-        <v>817200</v>
+        <v>835200</v>
       </c>
       <c r="I61" s="3">
-        <v>1126800</v>
+        <v>835100</v>
       </c>
       <c r="J61" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1481900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1416900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1435100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1434300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1477400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1450000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1904900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>470200</v>
+        <v>488700</v>
       </c>
       <c r="E62" s="3">
-        <v>437600</v>
+        <v>480500</v>
       </c>
       <c r="F62" s="3">
-        <v>443000</v>
+        <v>447200</v>
       </c>
       <c r="G62" s="3">
-        <v>308100</v>
+        <v>452700</v>
       </c>
       <c r="H62" s="3">
-        <v>343200</v>
+        <v>314900</v>
       </c>
       <c r="I62" s="3">
-        <v>321000</v>
+        <v>350800</v>
       </c>
       <c r="J62" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K62" s="3">
         <v>315200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>330200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>363800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>362100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>356100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>363700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>369600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3122,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3169,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3697900</v>
+        <v>3567500</v>
       </c>
       <c r="E66" s="3">
-        <v>3640400</v>
+        <v>3779200</v>
       </c>
       <c r="F66" s="3">
-        <v>3802900</v>
+        <v>3720500</v>
       </c>
       <c r="G66" s="3">
-        <v>4030500</v>
+        <v>3886600</v>
       </c>
       <c r="H66" s="3">
-        <v>3874500</v>
+        <v>4119200</v>
       </c>
       <c r="I66" s="3">
-        <v>4100100</v>
+        <v>3959700</v>
       </c>
       <c r="J66" s="3">
+        <v>4190300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4285600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4117300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4137900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3995100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4015200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3957200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3964100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3235,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3329,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3376,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3423,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4198100</v>
+        <v>4694800</v>
       </c>
       <c r="E72" s="3">
-        <v>4001400</v>
+        <v>4290400</v>
       </c>
       <c r="F72" s="3">
-        <v>3951900</v>
+        <v>4089400</v>
       </c>
       <c r="G72" s="3">
-        <v>3985900</v>
+        <v>4038900</v>
       </c>
       <c r="H72" s="3">
-        <v>3753200</v>
+        <v>4073600</v>
       </c>
       <c r="I72" s="3">
-        <v>3904200</v>
+        <v>3835800</v>
       </c>
       <c r="J72" s="3">
+        <v>3990100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3700800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3751300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3515100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3565200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3472600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3503500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3467100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3517,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3611,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>5859200</v>
+        <v>6299800</v>
       </c>
       <c r="E76" s="3">
-        <v>5541900</v>
+        <v>5988100</v>
       </c>
       <c r="F76" s="3">
-        <v>5525300</v>
+        <v>5663800</v>
       </c>
       <c r="G76" s="3">
-        <v>5709600</v>
+        <v>5646900</v>
       </c>
       <c r="H76" s="3">
-        <v>5451500</v>
+        <v>5835200</v>
       </c>
       <c r="I76" s="3">
-        <v>5718900</v>
+        <v>5571400</v>
       </c>
       <c r="J76" s="3">
+        <v>5844700</v>
+      </c>
+      <c r="K76" s="3">
         <v>5409900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5366000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5337600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5357500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5209700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5185700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5264400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3705,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>420500</v>
+        <v>450700</v>
       </c>
       <c r="E81" s="3">
-        <v>48400</v>
+        <v>429700</v>
       </c>
       <c r="F81" s="3">
-        <v>197000</v>
+        <v>49500</v>
       </c>
       <c r="G81" s="3">
-        <v>212800</v>
+        <v>201300</v>
       </c>
       <c r="H81" s="3">
-        <v>66600</v>
+        <v>217500</v>
       </c>
       <c r="I81" s="3">
-        <v>185000</v>
+        <v>68000</v>
       </c>
       <c r="J81" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K81" s="3">
         <v>111900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>88600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>93200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3823,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>78500</v>
+        <v>79600</v>
       </c>
       <c r="E83" s="3">
-        <v>74800</v>
+        <v>80200</v>
       </c>
       <c r="F83" s="3">
-        <v>75200</v>
+        <v>76500</v>
       </c>
       <c r="G83" s="3">
-        <v>61200</v>
+        <v>76800</v>
       </c>
       <c r="H83" s="3">
-        <v>58400</v>
+        <v>62500</v>
       </c>
       <c r="I83" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K83" s="3">
         <v>62500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3917,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3964,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4011,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4058,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4105,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>188800</v>
+        <v>683400</v>
       </c>
       <c r="E89" s="3">
-        <v>113800</v>
+        <v>193000</v>
       </c>
       <c r="F89" s="3">
-        <v>-37000</v>
+        <v>116300</v>
       </c>
       <c r="G89" s="3">
-        <v>393100</v>
+        <v>-37800</v>
       </c>
       <c r="H89" s="3">
-        <v>95900</v>
+        <v>401700</v>
       </c>
       <c r="I89" s="3">
-        <v>341500</v>
+        <v>98000</v>
       </c>
       <c r="J89" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K89" s="3">
         <v>112200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1002200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>236800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>147300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>140100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4171,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-23600</v>
+        <v>-51600</v>
       </c>
       <c r="E91" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="F91" s="3">
-        <v>-41300</v>
+        <v>-23900</v>
       </c>
       <c r="G91" s="3">
-        <v>-100200</v>
+        <v>-42200</v>
       </c>
       <c r="H91" s="3">
-        <v>-22400</v>
+        <v>-102400</v>
       </c>
       <c r="I91" s="3">
-        <v>-16600</v>
+        <v>-22900</v>
       </c>
       <c r="J91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-94800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4265,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4312,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-26100</v>
+        <v>-10800</v>
       </c>
       <c r="E94" s="3">
-        <v>-31400</v>
+        <v>-26600</v>
       </c>
       <c r="F94" s="3">
-        <v>-183100</v>
+        <v>-32100</v>
       </c>
       <c r="G94" s="3">
-        <v>-99600</v>
+        <v>-187100</v>
       </c>
       <c r="H94" s="3">
-        <v>68300</v>
+        <v>-101800</v>
       </c>
       <c r="I94" s="3">
-        <v>-25900</v>
+        <v>69800</v>
       </c>
       <c r="J94" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>245700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-94400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-152100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-217000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4378,55 +4611,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-208400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-213000</v>
       </c>
       <c r="F96" s="3">
-        <v>-208400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-212900</v>
       </c>
       <c r="H96" s="3">
-        <v>-182300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-186300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-208200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-181100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-207000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-177600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4519,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4566,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-246000</v>
+        <v>-241300</v>
       </c>
       <c r="E100" s="3">
-        <v>-148000</v>
+        <v>-251400</v>
       </c>
       <c r="F100" s="3">
-        <v>-311000</v>
+        <v>-151300</v>
       </c>
       <c r="G100" s="3">
-        <v>81500</v>
+        <v>-317800</v>
       </c>
       <c r="H100" s="3">
-        <v>-487300</v>
+        <v>83300</v>
       </c>
       <c r="I100" s="3">
-        <v>-264800</v>
+        <v>-498100</v>
       </c>
       <c r="J100" s="3">
+        <v>-270700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-49100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-477900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-111300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-183800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>57200</v>
+        <v>-43800</v>
       </c>
       <c r="E101" s="3">
-        <v>-26200</v>
+        <v>58500</v>
       </c>
       <c r="F101" s="3">
-        <v>-72800</v>
+        <v>-26800</v>
       </c>
       <c r="G101" s="3">
-        <v>18700</v>
+        <v>-74400</v>
       </c>
       <c r="H101" s="3">
-        <v>-69700</v>
+        <v>19100</v>
       </c>
       <c r="I101" s="3">
-        <v>59100</v>
+        <v>-71200</v>
       </c>
       <c r="J101" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K101" s="3">
         <v>35400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-51500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>97700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-26000</v>
+        <v>387500</v>
       </c>
       <c r="E102" s="3">
-        <v>-91800</v>
+        <v>-26600</v>
       </c>
       <c r="F102" s="3">
-        <v>-603900</v>
+        <v>-93800</v>
       </c>
       <c r="G102" s="3">
-        <v>393600</v>
+        <v>-617100</v>
       </c>
       <c r="H102" s="3">
-        <v>-392800</v>
+        <v>402300</v>
       </c>
       <c r="I102" s="3">
-        <v>109900</v>
+        <v>-401400</v>
       </c>
       <c r="J102" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K102" s="3">
         <v>83700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>718500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>129400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-222400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>127300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1946800</v>
+        <v>1563100</v>
       </c>
       <c r="E8" s="3">
-        <v>1735400</v>
+        <v>1978200</v>
       </c>
       <c r="F8" s="3">
-        <v>1349500</v>
+        <v>1763400</v>
       </c>
       <c r="G8" s="3">
-        <v>1430700</v>
+        <v>1371300</v>
       </c>
       <c r="H8" s="3">
-        <v>1631100</v>
+        <v>1453800</v>
       </c>
       <c r="I8" s="3">
-        <v>1459700</v>
+        <v>1657500</v>
       </c>
       <c r="J8" s="3">
+        <v>1483300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1456900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1393500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1447400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1294700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1282400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1235800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>450600</v>
+        <v>361400</v>
       </c>
       <c r="E9" s="3">
-        <v>408800</v>
+        <v>457900</v>
       </c>
       <c r="F9" s="3">
-        <v>374300</v>
+        <v>415400</v>
       </c>
       <c r="G9" s="3">
-        <v>398400</v>
+        <v>380400</v>
       </c>
       <c r="H9" s="3">
-        <v>397200</v>
+        <v>404900</v>
       </c>
       <c r="I9" s="3">
-        <v>461800</v>
+        <v>403600</v>
       </c>
       <c r="J9" s="3">
+        <v>469300</v>
+      </c>
+      <c r="K9" s="3">
         <v>408600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>436700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>407400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>488500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>476900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>446600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>426100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>440600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1496100</v>
+        <v>1201700</v>
       </c>
       <c r="E10" s="3">
-        <v>1326600</v>
+        <v>1520300</v>
       </c>
       <c r="F10" s="3">
-        <v>975200</v>
+        <v>1348000</v>
       </c>
       <c r="G10" s="3">
-        <v>1032200</v>
+        <v>990900</v>
       </c>
       <c r="H10" s="3">
-        <v>1233900</v>
+        <v>1048900</v>
       </c>
       <c r="I10" s="3">
-        <v>997900</v>
+        <v>1253900</v>
       </c>
       <c r="J10" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1048300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>956800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1040100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>911500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>817800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>835800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>725900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>795200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>344400</v>
+        <v>288200</v>
       </c>
       <c r="E12" s="3">
-        <v>325400</v>
+        <v>350000</v>
       </c>
       <c r="F12" s="3">
-        <v>358500</v>
+        <v>330600</v>
       </c>
       <c r="G12" s="3">
-        <v>273400</v>
+        <v>364300</v>
       </c>
       <c r="H12" s="3">
-        <v>402500</v>
+        <v>277800</v>
       </c>
       <c r="I12" s="3">
-        <v>339300</v>
+        <v>409000</v>
       </c>
       <c r="J12" s="3">
+        <v>344700</v>
+      </c>
+      <c r="K12" s="3">
         <v>286800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>310200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>339700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>324400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>297600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>292300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>217900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1462200</v>
+        <v>1259900</v>
       </c>
       <c r="E17" s="3">
-        <v>1351500</v>
+        <v>1485800</v>
       </c>
       <c r="F17" s="3">
-        <v>1292000</v>
+        <v>1373300</v>
       </c>
       <c r="G17" s="3">
-        <v>1190700</v>
+        <v>1312900</v>
       </c>
       <c r="H17" s="3">
-        <v>1361300</v>
+        <v>1210000</v>
       </c>
       <c r="I17" s="3">
-        <v>1378500</v>
+        <v>1383300</v>
       </c>
       <c r="J17" s="3">
+        <v>1400800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1198700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1206500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1171600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1228500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1180800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1145600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1139300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1066900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>484600</v>
+        <v>303200</v>
       </c>
       <c r="E18" s="3">
-        <v>383900</v>
+        <v>492400</v>
       </c>
       <c r="F18" s="3">
-        <v>57500</v>
+        <v>390100</v>
       </c>
       <c r="G18" s="3">
-        <v>239900</v>
+        <v>58400</v>
       </c>
       <c r="H18" s="3">
-        <v>269800</v>
+        <v>243800</v>
       </c>
       <c r="I18" s="3">
-        <v>81200</v>
+        <v>274200</v>
       </c>
       <c r="J18" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K18" s="3">
         <v>258200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>275800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>136800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>168900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,108 +1275,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>6900</v>
-      </c>
       <c r="F20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>565000</v>
+        <v>388300</v>
       </c>
       <c r="E21" s="3">
-        <v>470900</v>
+        <v>574200</v>
       </c>
       <c r="F21" s="3">
-        <v>139500</v>
+        <v>478500</v>
       </c>
       <c r="G21" s="3">
-        <v>327300</v>
+        <v>141800</v>
       </c>
       <c r="H21" s="3">
-        <v>341100</v>
+        <v>332600</v>
       </c>
       <c r="I21" s="3">
-        <v>150700</v>
+        <v>346600</v>
       </c>
       <c r="J21" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K21" s="3">
         <v>327000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>335700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>231200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>169200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>194900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>222500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,108 +1432,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>485400</v>
+        <v>306300</v>
       </c>
       <c r="E23" s="3">
-        <v>390700</v>
+        <v>493300</v>
       </c>
       <c r="F23" s="3">
-        <v>63000</v>
+        <v>397000</v>
       </c>
       <c r="G23" s="3">
-        <v>250500</v>
+        <v>64100</v>
       </c>
       <c r="H23" s="3">
-        <v>278600</v>
+        <v>254500</v>
       </c>
       <c r="I23" s="3">
-        <v>91100</v>
+        <v>283100</v>
       </c>
       <c r="J23" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K23" s="3">
         <v>263700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>193300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>274700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>171600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>111400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>136700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>168100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>34100</v>
+        <v>72600</v>
       </c>
       <c r="E24" s="3">
-        <v>-41500</v>
+        <v>34600</v>
       </c>
       <c r="F24" s="3">
-        <v>14100</v>
+        <v>-42100</v>
       </c>
       <c r="G24" s="3">
-        <v>45200</v>
+        <v>14400</v>
       </c>
       <c r="H24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>68400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>72000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>78400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>41100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="R24" s="3">
         <v>67300</v>
       </c>
-      <c r="I24" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>72000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>50700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>59800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>78400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>22900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>41100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>67300</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>451400</v>
+        <v>233700</v>
       </c>
       <c r="E26" s="3">
-        <v>432200</v>
+        <v>458600</v>
       </c>
       <c r="F26" s="3">
-        <v>48900</v>
+        <v>439200</v>
       </c>
       <c r="G26" s="3">
-        <v>205300</v>
+        <v>49700</v>
       </c>
       <c r="H26" s="3">
-        <v>211300</v>
+        <v>208600</v>
       </c>
       <c r="I26" s="3">
-        <v>68800</v>
+        <v>214700</v>
       </c>
       <c r="J26" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K26" s="3">
         <v>191700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>142600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>214800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>88400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>95600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>450700</v>
+        <v>230600</v>
       </c>
       <c r="E27" s="3">
-        <v>429700</v>
+        <v>458000</v>
       </c>
       <c r="F27" s="3">
-        <v>49500</v>
+        <v>436700</v>
       </c>
       <c r="G27" s="3">
-        <v>201300</v>
+        <v>50200</v>
       </c>
       <c r="H27" s="3">
-        <v>217500</v>
+        <v>204600</v>
       </c>
       <c r="I27" s="3">
-        <v>68000</v>
+        <v>221000</v>
       </c>
       <c r="J27" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K27" s="3">
         <v>189000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>214600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>81500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>88600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>93200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>450700</v>
+        <v>230600</v>
       </c>
       <c r="E33" s="3">
-        <v>429700</v>
+        <v>458000</v>
       </c>
       <c r="F33" s="3">
-        <v>49500</v>
+        <v>436700</v>
       </c>
       <c r="G33" s="3">
-        <v>201300</v>
+        <v>50200</v>
       </c>
       <c r="H33" s="3">
-        <v>217500</v>
+        <v>204600</v>
       </c>
       <c r="I33" s="3">
-        <v>68000</v>
+        <v>221000</v>
       </c>
       <c r="J33" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K33" s="3">
         <v>189000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>84000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>88600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>93200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>450700</v>
+        <v>230600</v>
       </c>
       <c r="E35" s="3">
-        <v>429700</v>
+        <v>458000</v>
       </c>
       <c r="F35" s="3">
-        <v>49500</v>
+        <v>436700</v>
       </c>
       <c r="G35" s="3">
-        <v>201300</v>
+        <v>50200</v>
       </c>
       <c r="H35" s="3">
-        <v>217500</v>
+        <v>204600</v>
       </c>
       <c r="I35" s="3">
-        <v>68000</v>
+        <v>221000</v>
       </c>
       <c r="J35" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K35" s="3">
         <v>189000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>84000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>88600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>93200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,458 +2223,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2361900</v>
+        <v>2136300</v>
       </c>
       <c r="E41" s="3">
-        <v>1974400</v>
+        <v>2400100</v>
       </c>
       <c r="F41" s="3">
-        <v>2001000</v>
+        <v>2006300</v>
       </c>
       <c r="G41" s="3">
-        <v>2094800</v>
+        <v>2033300</v>
       </c>
       <c r="H41" s="3">
-        <v>2661000</v>
+        <v>2128700</v>
       </c>
       <c r="I41" s="3">
-        <v>2309700</v>
+        <v>2703900</v>
       </c>
       <c r="J41" s="3">
+        <v>2347000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2711100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2542800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2445500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1727000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1595400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1466000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1656700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1529400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>14400</v>
+        <v>6300</v>
       </c>
       <c r="E42" s="3">
-        <v>22800</v>
+        <v>14700</v>
       </c>
       <c r="F42" s="3">
-        <v>60600</v>
+        <v>23200</v>
       </c>
       <c r="G42" s="3">
-        <v>63700</v>
+        <v>61500</v>
       </c>
       <c r="H42" s="3">
-        <v>70100</v>
+        <v>64700</v>
       </c>
       <c r="I42" s="3">
-        <v>70900</v>
+        <v>71200</v>
       </c>
       <c r="J42" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K42" s="3">
         <v>173900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>169000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>168700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>447200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>359400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>399800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>380300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>335200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1672400</v>
+        <v>1736900</v>
       </c>
       <c r="E43" s="3">
-        <v>1827100</v>
+        <v>1699400</v>
       </c>
       <c r="F43" s="3">
-        <v>1524200</v>
+        <v>1856600</v>
       </c>
       <c r="G43" s="3">
+        <v>1548800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1591300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1478700</v>
+      </c>
+      <c r="J43" s="3">
         <v>1566000</v>
       </c>
-      <c r="H43" s="3">
-        <v>1455200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1541100</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1386600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1352300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1369300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1608700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1562400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1480200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1370400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1630200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>610700</v>
+        <v>669500</v>
       </c>
       <c r="E44" s="3">
-        <v>617200</v>
+        <v>620500</v>
       </c>
       <c r="F44" s="3">
-        <v>605000</v>
+        <v>627100</v>
       </c>
       <c r="G44" s="3">
-        <v>594100</v>
+        <v>614800</v>
       </c>
       <c r="H44" s="3">
-        <v>630700</v>
+        <v>603700</v>
       </c>
       <c r="I44" s="3">
-        <v>614400</v>
+        <v>640900</v>
       </c>
       <c r="J44" s="3">
+        <v>624300</v>
+      </c>
+      <c r="K44" s="3">
         <v>659800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>640100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>731600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>723500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>747100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>763400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>735100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>736700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>184400</v>
+        <v>182800</v>
       </c>
       <c r="E45" s="3">
-        <v>204900</v>
+        <v>187400</v>
       </c>
       <c r="F45" s="3">
-        <v>197800</v>
+        <v>208200</v>
       </c>
       <c r="G45" s="3">
-        <v>214000</v>
+        <v>201000</v>
       </c>
       <c r="H45" s="3">
-        <v>401000</v>
+        <v>217500</v>
       </c>
       <c r="I45" s="3">
-        <v>295400</v>
+        <v>407500</v>
       </c>
       <c r="J45" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K45" s="3">
         <v>298400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>291600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>129400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>151900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4843900</v>
+        <v>4731800</v>
       </c>
       <c r="E46" s="3">
-        <v>4646300</v>
+        <v>4922100</v>
       </c>
       <c r="F46" s="3">
-        <v>4388600</v>
+        <v>4721400</v>
       </c>
       <c r="G46" s="3">
-        <v>4532700</v>
+        <v>4459500</v>
       </c>
       <c r="H46" s="3">
-        <v>5218000</v>
+        <v>4605900</v>
       </c>
       <c r="I46" s="3">
-        <v>4831400</v>
+        <v>5302200</v>
       </c>
       <c r="J46" s="3">
+        <v>4909400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5229800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4995800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4844600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4634000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4403200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4270500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4294500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4331600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>369500</v>
+        <v>399400</v>
       </c>
       <c r="E47" s="3">
-        <v>442400</v>
+        <v>375500</v>
       </c>
       <c r="F47" s="3">
-        <v>462400</v>
+        <v>449500</v>
       </c>
       <c r="G47" s="3">
-        <v>465100</v>
+        <v>469800</v>
       </c>
       <c r="H47" s="3">
-        <v>492400</v>
+        <v>472600</v>
       </c>
       <c r="I47" s="3">
-        <v>450400</v>
+        <v>500400</v>
       </c>
       <c r="J47" s="3">
+        <v>457600</v>
+      </c>
+      <c r="K47" s="3">
         <v>502800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>464700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>432000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>467400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>529000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>514000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>483100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1343700</v>
+        <v>1362300</v>
       </c>
       <c r="E48" s="3">
-        <v>1291900</v>
+        <v>1365400</v>
       </c>
       <c r="F48" s="3">
-        <v>1255800</v>
+        <v>1312800</v>
       </c>
       <c r="G48" s="3">
-        <v>1282300</v>
+        <v>1276000</v>
       </c>
       <c r="H48" s="3">
-        <v>977000</v>
+        <v>1303000</v>
       </c>
       <c r="I48" s="3">
-        <v>877100</v>
+        <v>992800</v>
       </c>
       <c r="J48" s="3">
+        <v>891200</v>
+      </c>
+      <c r="K48" s="3">
         <v>872700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>888800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>931700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>937300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>940900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>938700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>918700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>907000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2552700</v>
+        <v>2553100</v>
       </c>
       <c r="E49" s="3">
-        <v>2673600</v>
+        <v>2593900</v>
       </c>
       <c r="F49" s="3">
-        <v>2623800</v>
+        <v>2716700</v>
       </c>
       <c r="G49" s="3">
-        <v>2609800</v>
+        <v>2666200</v>
       </c>
       <c r="H49" s="3">
-        <v>2511100</v>
+        <v>2651900</v>
       </c>
       <c r="I49" s="3">
-        <v>2550000</v>
+        <v>2551600</v>
       </c>
       <c r="J49" s="3">
+        <v>2591200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2612200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2520100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2462500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2589500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2588300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2594700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2541000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2590500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>757500</v>
+        <v>773900</v>
       </c>
       <c r="E52" s="3">
-        <v>713100</v>
+        <v>769800</v>
       </c>
       <c r="F52" s="3">
-        <v>653700</v>
+        <v>724600</v>
       </c>
       <c r="G52" s="3">
-        <v>643600</v>
+        <v>664300</v>
       </c>
       <c r="H52" s="3">
-        <v>755900</v>
+        <v>653900</v>
       </c>
       <c r="I52" s="3">
-        <v>822300</v>
+        <v>768100</v>
       </c>
       <c r="J52" s="3">
+        <v>835600</v>
+      </c>
+      <c r="K52" s="3">
         <v>817500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>826100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>812500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>847300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>891200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>906900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>905700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>898500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9867300</v>
+        <v>9820400</v>
       </c>
       <c r="E54" s="3">
-        <v>9767300</v>
+        <v>10026600</v>
       </c>
       <c r="F54" s="3">
-        <v>9384300</v>
+        <v>9925100</v>
       </c>
       <c r="G54" s="3">
-        <v>9533500</v>
+        <v>9535800</v>
       </c>
       <c r="H54" s="3">
-        <v>9954400</v>
+        <v>9687400</v>
       </c>
       <c r="I54" s="3">
-        <v>9531100</v>
+        <v>10115100</v>
       </c>
       <c r="J54" s="3">
+        <v>9685000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10035000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9695500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9483200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9475500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9352600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9224800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9142900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9228400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>714200</v>
+        <v>584000</v>
       </c>
       <c r="E57" s="3">
-        <v>560000</v>
+        <v>725700</v>
       </c>
       <c r="F57" s="3">
-        <v>491200</v>
+        <v>569000</v>
       </c>
       <c r="G57" s="3">
-        <v>541800</v>
+        <v>499100</v>
       </c>
       <c r="H57" s="3">
-        <v>720200</v>
+        <v>550600</v>
       </c>
       <c r="I57" s="3">
-        <v>477500</v>
+        <v>731800</v>
       </c>
       <c r="J57" s="3">
+        <v>485200</v>
+      </c>
+      <c r="K57" s="3">
         <v>484100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>478500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>615600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>522700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>509300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>502600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>627600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>586800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>325100</v>
+        <v>330400</v>
       </c>
       <c r="E58" s="3">
-        <v>548000</v>
+        <v>330300</v>
       </c>
       <c r="F58" s="3">
-        <v>561900</v>
+        <v>556900</v>
       </c>
       <c r="G58" s="3">
-        <v>371600</v>
+        <v>571000</v>
       </c>
       <c r="H58" s="3">
-        <v>455100</v>
+        <v>377600</v>
       </c>
       <c r="I58" s="3">
+        <v>462500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>377500</v>
+      </c>
+      <c r="K58" s="3">
         <v>371500</v>
       </c>
-      <c r="J58" s="3">
-        <v>371500</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>263600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>148300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>627600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>556000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>554900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>443500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>65600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1301500</v>
+        <v>1271100</v>
       </c>
       <c r="E59" s="3">
-        <v>1453300</v>
+        <v>1322500</v>
       </c>
       <c r="F59" s="3">
-        <v>1485200</v>
+        <v>1476700</v>
       </c>
       <c r="G59" s="3">
-        <v>1459600</v>
+        <v>1509200</v>
       </c>
       <c r="H59" s="3">
-        <v>1572000</v>
+        <v>1483200</v>
       </c>
       <c r="I59" s="3">
-        <v>1696800</v>
+        <v>1597400</v>
       </c>
       <c r="J59" s="3">
+        <v>1724200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1627300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1525800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1420800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1003500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>957600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>954900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>913100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>880900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2340800</v>
+        <v>2185500</v>
       </c>
       <c r="E60" s="3">
-        <v>2561300</v>
+        <v>2378500</v>
       </c>
       <c r="F60" s="3">
-        <v>2538300</v>
+        <v>2602600</v>
       </c>
       <c r="G60" s="3">
-        <v>2373000</v>
+        <v>2579300</v>
       </c>
       <c r="H60" s="3">
-        <v>2747400</v>
+        <v>2411300</v>
       </c>
       <c r="I60" s="3">
-        <v>2545800</v>
+        <v>2791700</v>
       </c>
       <c r="J60" s="3">
+        <v>2586900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2482900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2267900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2184700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2153800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2022900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2012400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1984100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1533300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>510400</v>
+        <v>518700</v>
       </c>
       <c r="E61" s="3">
-        <v>510400</v>
+        <v>518700</v>
       </c>
       <c r="F61" s="3">
-        <v>510300</v>
+        <v>518600</v>
       </c>
       <c r="G61" s="3">
-        <v>835300</v>
+        <v>518600</v>
       </c>
       <c r="H61" s="3">
-        <v>835200</v>
+        <v>848800</v>
       </c>
       <c r="I61" s="3">
-        <v>835100</v>
+        <v>848700</v>
       </c>
       <c r="J61" s="3">
+        <v>848600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1151600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1481900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1416900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1435100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1434300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1477400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1450000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1904900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>488700</v>
+        <v>476900</v>
       </c>
       <c r="E62" s="3">
-        <v>480500</v>
+        <v>496500</v>
       </c>
       <c r="F62" s="3">
-        <v>447200</v>
+        <v>488300</v>
       </c>
       <c r="G62" s="3">
-        <v>452700</v>
+        <v>454500</v>
       </c>
       <c r="H62" s="3">
-        <v>314900</v>
+        <v>460000</v>
       </c>
       <c r="I62" s="3">
-        <v>350800</v>
+        <v>320000</v>
       </c>
       <c r="J62" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K62" s="3">
         <v>328000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>315200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>330200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>363800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>362100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>356100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>363700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>369600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3567500</v>
+        <v>3414000</v>
       </c>
       <c r="E66" s="3">
-        <v>3779200</v>
+        <v>3625100</v>
       </c>
       <c r="F66" s="3">
-        <v>3720500</v>
+        <v>3840300</v>
       </c>
       <c r="G66" s="3">
-        <v>3886600</v>
+        <v>3780600</v>
       </c>
       <c r="H66" s="3">
-        <v>4119200</v>
+        <v>3949400</v>
       </c>
       <c r="I66" s="3">
-        <v>3959700</v>
+        <v>4185700</v>
       </c>
       <c r="J66" s="3">
+        <v>4023600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4190300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4285600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4117300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4137900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3995100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4015200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3957200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3964100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4694800</v>
+        <v>4795100</v>
       </c>
       <c r="E72" s="3">
-        <v>4290400</v>
+        <v>4770600</v>
       </c>
       <c r="F72" s="3">
-        <v>4089400</v>
+        <v>4359700</v>
       </c>
       <c r="G72" s="3">
-        <v>4038900</v>
+        <v>4155500</v>
       </c>
       <c r="H72" s="3">
-        <v>4073600</v>
+        <v>4104100</v>
       </c>
       <c r="I72" s="3">
-        <v>3835800</v>
+        <v>4139300</v>
       </c>
       <c r="J72" s="3">
+        <v>3897700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3990100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3700800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3751300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3515100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3565200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3472600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3503500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3467100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6299800</v>
+        <v>6406400</v>
       </c>
       <c r="E76" s="3">
-        <v>5988100</v>
+        <v>6401500</v>
       </c>
       <c r="F76" s="3">
-        <v>5663800</v>
+        <v>6084800</v>
       </c>
       <c r="G76" s="3">
-        <v>5646900</v>
+        <v>5755200</v>
       </c>
       <c r="H76" s="3">
-        <v>5835200</v>
+        <v>5738000</v>
       </c>
       <c r="I76" s="3">
-        <v>5571400</v>
+        <v>5929400</v>
       </c>
       <c r="J76" s="3">
+        <v>5661400</v>
+      </c>
+      <c r="K76" s="3">
         <v>5844700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5409900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5366000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5337600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5357500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5209700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5185700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5264400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>450700</v>
+        <v>230600</v>
       </c>
       <c r="E81" s="3">
-        <v>429700</v>
+        <v>458000</v>
       </c>
       <c r="F81" s="3">
-        <v>49500</v>
+        <v>436700</v>
       </c>
       <c r="G81" s="3">
-        <v>201300</v>
+        <v>50200</v>
       </c>
       <c r="H81" s="3">
-        <v>217500</v>
+        <v>204600</v>
       </c>
       <c r="I81" s="3">
-        <v>68000</v>
+        <v>221000</v>
       </c>
       <c r="J81" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K81" s="3">
         <v>189000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>84000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>88600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>93200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>79600</v>
+        <v>81900</v>
       </c>
       <c r="E83" s="3">
-        <v>80200</v>
+        <v>80900</v>
       </c>
       <c r="F83" s="3">
-        <v>76500</v>
+        <v>81500</v>
       </c>
       <c r="G83" s="3">
-        <v>76800</v>
+        <v>77700</v>
       </c>
       <c r="H83" s="3">
+        <v>78100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>63500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L83" s="3">
         <v>62500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="N83" s="3">
         <v>59700</v>
       </c>
-      <c r="J83" s="3">
-        <v>63300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>62500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>61000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>59700</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>58100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>683400</v>
+        <v>94900</v>
       </c>
       <c r="E89" s="3">
-        <v>193000</v>
+        <v>694500</v>
       </c>
       <c r="F89" s="3">
-        <v>116300</v>
+        <v>196100</v>
       </c>
       <c r="G89" s="3">
-        <v>-37800</v>
+        <v>118200</v>
       </c>
       <c r="H89" s="3">
-        <v>401700</v>
+        <v>-38400</v>
       </c>
       <c r="I89" s="3">
-        <v>98000</v>
+        <v>408200</v>
       </c>
       <c r="J89" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K89" s="3">
         <v>349100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>112200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1002200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>236800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>147300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>295000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>140100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-51600</v>
+        <v>-83500</v>
       </c>
       <c r="E91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-24200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-42200</v>
-      </c>
       <c r="H91" s="3">
-        <v>-102400</v>
+        <v>-42800</v>
       </c>
       <c r="I91" s="3">
-        <v>-22900</v>
+        <v>-104000</v>
       </c>
       <c r="J91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-10800</v>
+        <v>-118000</v>
       </c>
       <c r="E94" s="3">
-        <v>-26600</v>
+        <v>-11000</v>
       </c>
       <c r="F94" s="3">
-        <v>-32100</v>
+        <v>-27100</v>
       </c>
       <c r="G94" s="3">
-        <v>-187100</v>
+        <v>-32600</v>
       </c>
       <c r="H94" s="3">
-        <v>-101800</v>
+        <v>-190100</v>
       </c>
       <c r="I94" s="3">
-        <v>69800</v>
+        <v>-103500</v>
       </c>
       <c r="J94" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>245700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-94400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-152100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-217000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,58 +4845,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-216500</v>
       </c>
       <c r="E96" s="3">
-        <v>-213000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-216400</v>
       </c>
       <c r="G96" s="3">
-        <v>-212900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-216400</v>
       </c>
       <c r="I96" s="3">
-        <v>-186300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-189300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-208200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-181100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-207000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-177600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-241300</v>
+        <v>-239700</v>
       </c>
       <c r="E100" s="3">
-        <v>-251400</v>
+        <v>-245200</v>
       </c>
       <c r="F100" s="3">
-        <v>-151300</v>
+        <v>-255500</v>
       </c>
       <c r="G100" s="3">
-        <v>-317800</v>
+        <v>-153700</v>
       </c>
       <c r="H100" s="3">
-        <v>83300</v>
+        <v>-323000</v>
       </c>
       <c r="I100" s="3">
-        <v>-498100</v>
+        <v>84600</v>
       </c>
       <c r="J100" s="3">
+        <v>-506100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-270700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-477900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-105600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-183800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-43800</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>58500</v>
+        <v>-44500</v>
       </c>
       <c r="F101" s="3">
-        <v>-26800</v>
+        <v>59400</v>
       </c>
       <c r="G101" s="3">
-        <v>-74400</v>
+        <v>-27200</v>
       </c>
       <c r="H101" s="3">
-        <v>19100</v>
+        <v>-75600</v>
       </c>
       <c r="I101" s="3">
-        <v>-71200</v>
+        <v>19400</v>
       </c>
       <c r="J101" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="K101" s="3">
         <v>60400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>35400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-51500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>97700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>387500</v>
+        <v>-263700</v>
       </c>
       <c r="E102" s="3">
-        <v>-26600</v>
+        <v>393800</v>
       </c>
       <c r="F102" s="3">
-        <v>-93800</v>
+        <v>-27000</v>
       </c>
       <c r="G102" s="3">
-        <v>-617100</v>
+        <v>-95300</v>
       </c>
       <c r="H102" s="3">
-        <v>402300</v>
+        <v>-627100</v>
       </c>
       <c r="I102" s="3">
-        <v>-401400</v>
+        <v>408800</v>
       </c>
       <c r="J102" s="3">
+        <v>-407900</v>
+      </c>
+      <c r="K102" s="3">
         <v>112300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>83700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>718500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>129400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-222400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>127300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-162900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1563100</v>
+        <v>1455500</v>
       </c>
       <c r="E8" s="3">
-        <v>1978200</v>
+        <v>1591300</v>
       </c>
       <c r="F8" s="3">
-        <v>1763400</v>
+        <v>2013800</v>
       </c>
       <c r="G8" s="3">
-        <v>1371300</v>
+        <v>1795100</v>
       </c>
       <c r="H8" s="3">
-        <v>1453800</v>
+        <v>1396000</v>
       </c>
       <c r="I8" s="3">
-        <v>1657500</v>
+        <v>1479900</v>
       </c>
       <c r="J8" s="3">
+        <v>1687300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1483300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1456900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1393500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1447400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1294700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1282400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1152000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1235800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>361400</v>
+        <v>398100</v>
       </c>
       <c r="E9" s="3">
-        <v>457900</v>
+        <v>367900</v>
       </c>
       <c r="F9" s="3">
-        <v>415400</v>
+        <v>466200</v>
       </c>
       <c r="G9" s="3">
-        <v>380400</v>
+        <v>422800</v>
       </c>
       <c r="H9" s="3">
-        <v>404900</v>
+        <v>387200</v>
       </c>
       <c r="I9" s="3">
-        <v>403600</v>
+        <v>412200</v>
       </c>
       <c r="J9" s="3">
+        <v>410900</v>
+      </c>
+      <c r="K9" s="3">
         <v>469300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>408600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>436700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>407400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>488500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>476900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>446600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>426100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>440600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1201700</v>
+        <v>1057400</v>
       </c>
       <c r="E10" s="3">
-        <v>1520300</v>
+        <v>1223400</v>
       </c>
       <c r="F10" s="3">
-        <v>1348000</v>
+        <v>1547700</v>
       </c>
       <c r="G10" s="3">
-        <v>990900</v>
+        <v>1372300</v>
       </c>
       <c r="H10" s="3">
-        <v>1048900</v>
+        <v>1008800</v>
       </c>
       <c r="I10" s="3">
-        <v>1253900</v>
+        <v>1067800</v>
       </c>
       <c r="J10" s="3">
+        <v>1276400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1014000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1048300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>956800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1040100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>911500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>817800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>835800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>725900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>795200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>288200</v>
+        <v>355600</v>
       </c>
       <c r="E12" s="3">
-        <v>350000</v>
+        <v>293400</v>
       </c>
       <c r="F12" s="3">
-        <v>330600</v>
+        <v>356300</v>
       </c>
       <c r="G12" s="3">
-        <v>364300</v>
+        <v>336600</v>
       </c>
       <c r="H12" s="3">
-        <v>277800</v>
+        <v>370900</v>
       </c>
       <c r="I12" s="3">
-        <v>409000</v>
+        <v>282800</v>
       </c>
       <c r="J12" s="3">
+        <v>416400</v>
+      </c>
+      <c r="K12" s="3">
         <v>344700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>286800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>310200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>339700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>324400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>297600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>292300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>217900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1078,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1259900</v>
+        <v>1436700</v>
       </c>
       <c r="E17" s="3">
-        <v>1485800</v>
+        <v>1282600</v>
       </c>
       <c r="F17" s="3">
-        <v>1373300</v>
+        <v>1512500</v>
       </c>
       <c r="G17" s="3">
-        <v>1312900</v>
+        <v>1398100</v>
       </c>
       <c r="H17" s="3">
-        <v>1210000</v>
+        <v>1336500</v>
       </c>
       <c r="I17" s="3">
-        <v>1383300</v>
+        <v>1231700</v>
       </c>
       <c r="J17" s="3">
+        <v>1408200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1198700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1206500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1171600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1228500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1180800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1145600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1139300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1066900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>303200</v>
+        <v>18800</v>
       </c>
       <c r="E18" s="3">
-        <v>492400</v>
+        <v>308700</v>
       </c>
       <c r="F18" s="3">
-        <v>390100</v>
+        <v>501300</v>
       </c>
       <c r="G18" s="3">
-        <v>58400</v>
+        <v>397100</v>
       </c>
       <c r="H18" s="3">
-        <v>243800</v>
+        <v>59500</v>
       </c>
       <c r="I18" s="3">
-        <v>274200</v>
+        <v>248200</v>
       </c>
       <c r="J18" s="3">
+        <v>279100</v>
+      </c>
+      <c r="K18" s="3">
         <v>82500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>258200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>187100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>275800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>171500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>113900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>136800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>168900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,114 +1309,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>7100</v>
       </c>
       <c r="H20" s="3">
-        <v>10700</v>
+        <v>5700</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>10900</v>
       </c>
       <c r="J20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>388300</v>
+        <v>105400</v>
       </c>
       <c r="E21" s="3">
-        <v>574200</v>
+        <v>395200</v>
       </c>
       <c r="F21" s="3">
-        <v>478500</v>
+        <v>584500</v>
       </c>
       <c r="G21" s="3">
-        <v>141800</v>
+        <v>487100</v>
       </c>
       <c r="H21" s="3">
-        <v>332600</v>
+        <v>144300</v>
       </c>
       <c r="I21" s="3">
-        <v>346600</v>
+        <v>338600</v>
       </c>
       <c r="J21" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K21" s="3">
         <v>153200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>327000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>255900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>335700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>231200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>169200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>194900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>222500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1435,114 +1475,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>306300</v>
+        <v>19100</v>
       </c>
       <c r="E23" s="3">
-        <v>493300</v>
+        <v>311800</v>
       </c>
       <c r="F23" s="3">
-        <v>397000</v>
+        <v>502200</v>
       </c>
       <c r="G23" s="3">
-        <v>64100</v>
+        <v>404200</v>
       </c>
       <c r="H23" s="3">
-        <v>254500</v>
+        <v>65200</v>
       </c>
       <c r="I23" s="3">
-        <v>283100</v>
+        <v>259100</v>
       </c>
       <c r="J23" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K23" s="3">
         <v>92500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>263700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>193300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>274700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>171600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>111400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>136700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>168100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>72600</v>
+        <v>5900</v>
       </c>
       <c r="E24" s="3">
-        <v>34600</v>
+        <v>73900</v>
       </c>
       <c r="F24" s="3">
-        <v>-42100</v>
+        <v>35300</v>
       </c>
       <c r="G24" s="3">
-        <v>14400</v>
+        <v>-42900</v>
       </c>
       <c r="H24" s="3">
-        <v>46000</v>
+        <v>14600</v>
       </c>
       <c r="I24" s="3">
-        <v>68400</v>
+        <v>46800</v>
       </c>
       <c r="J24" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K24" s="3">
         <v>22600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>72000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>233700</v>
+        <v>13200</v>
       </c>
       <c r="E26" s="3">
-        <v>458600</v>
+        <v>237900</v>
       </c>
       <c r="F26" s="3">
-        <v>439200</v>
+        <v>466900</v>
       </c>
       <c r="G26" s="3">
-        <v>49700</v>
+        <v>447100</v>
       </c>
       <c r="H26" s="3">
-        <v>208600</v>
+        <v>50600</v>
       </c>
       <c r="I26" s="3">
-        <v>214700</v>
+        <v>212300</v>
       </c>
       <c r="J26" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K26" s="3">
         <v>69900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>191700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>142600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>214800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>88400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>95600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>230600</v>
+        <v>13200</v>
       </c>
       <c r="E27" s="3">
-        <v>458000</v>
+        <v>234700</v>
       </c>
       <c r="F27" s="3">
-        <v>436700</v>
+        <v>466200</v>
       </c>
       <c r="G27" s="3">
-        <v>50200</v>
+        <v>444500</v>
       </c>
       <c r="H27" s="3">
-        <v>204600</v>
+        <v>51200</v>
       </c>
       <c r="I27" s="3">
-        <v>221000</v>
+        <v>208200</v>
       </c>
       <c r="J27" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K27" s="3">
         <v>69100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>189000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>214600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>81500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>93200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7000</v>
+        <v>-900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-7100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10700</v>
+        <v>-5700</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>-10900</v>
       </c>
       <c r="J32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>230600</v>
+        <v>13200</v>
       </c>
       <c r="E33" s="3">
-        <v>458000</v>
+        <v>234700</v>
       </c>
       <c r="F33" s="3">
-        <v>436700</v>
+        <v>466200</v>
       </c>
       <c r="G33" s="3">
-        <v>50200</v>
+        <v>444500</v>
       </c>
       <c r="H33" s="3">
-        <v>204600</v>
+        <v>51200</v>
       </c>
       <c r="I33" s="3">
-        <v>221000</v>
+        <v>208200</v>
       </c>
       <c r="J33" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K33" s="3">
         <v>69100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>189000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>84000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>88600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>93200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>230600</v>
+        <v>13200</v>
       </c>
       <c r="E35" s="3">
-        <v>458000</v>
+        <v>234700</v>
       </c>
       <c r="F35" s="3">
-        <v>436700</v>
+        <v>466200</v>
       </c>
       <c r="G35" s="3">
-        <v>50200</v>
+        <v>444500</v>
       </c>
       <c r="H35" s="3">
-        <v>204600</v>
+        <v>51200</v>
       </c>
       <c r="I35" s="3">
-        <v>221000</v>
+        <v>208200</v>
       </c>
       <c r="J35" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K35" s="3">
         <v>69100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>189000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>84000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>88600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>93200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,485 +2310,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2136300</v>
+        <v>2191300</v>
       </c>
       <c r="E41" s="3">
-        <v>2400100</v>
+        <v>2174800</v>
       </c>
       <c r="F41" s="3">
-        <v>2006300</v>
+        <v>2443300</v>
       </c>
       <c r="G41" s="3">
-        <v>2033300</v>
+        <v>2042400</v>
       </c>
       <c r="H41" s="3">
-        <v>2128700</v>
+        <v>2069900</v>
       </c>
       <c r="I41" s="3">
-        <v>2703900</v>
+        <v>2167000</v>
       </c>
       <c r="J41" s="3">
+        <v>2752600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2347000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2711100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2542800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2445500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1727000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1595400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1466000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1656700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1529400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6300</v>
+        <v>9100</v>
       </c>
       <c r="E42" s="3">
-        <v>14700</v>
+        <v>6400</v>
       </c>
       <c r="F42" s="3">
-        <v>23200</v>
+        <v>14900</v>
       </c>
       <c r="G42" s="3">
-        <v>61500</v>
+        <v>23600</v>
       </c>
       <c r="H42" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="I42" s="3">
-        <v>71200</v>
+        <v>65900</v>
       </c>
       <c r="J42" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K42" s="3">
         <v>72000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>173900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>169000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>168700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>447200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>359400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>399800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>380300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>335200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1736900</v>
+        <v>1758900</v>
       </c>
       <c r="E43" s="3">
-        <v>1699400</v>
+        <v>1768200</v>
       </c>
       <c r="F43" s="3">
-        <v>1856600</v>
+        <v>1730000</v>
       </c>
       <c r="G43" s="3">
-        <v>1548800</v>
+        <v>1890000</v>
       </c>
       <c r="H43" s="3">
-        <v>1591300</v>
+        <v>1576700</v>
       </c>
       <c r="I43" s="3">
-        <v>1478700</v>
+        <v>1620000</v>
       </c>
       <c r="J43" s="3">
+        <v>1505300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1566000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1386600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1352300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1369300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1608700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1562400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1480200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1370400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1630200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>669500</v>
+        <v>720100</v>
       </c>
       <c r="E44" s="3">
-        <v>620500</v>
+        <v>681600</v>
       </c>
       <c r="F44" s="3">
-        <v>627100</v>
+        <v>631700</v>
       </c>
       <c r="G44" s="3">
-        <v>614800</v>
+        <v>638400</v>
       </c>
       <c r="H44" s="3">
-        <v>603700</v>
+        <v>625900</v>
       </c>
       <c r="I44" s="3">
-        <v>640900</v>
+        <v>614500</v>
       </c>
       <c r="J44" s="3">
+        <v>652400</v>
+      </c>
+      <c r="K44" s="3">
         <v>624300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>659800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>640100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>731600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>723500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>747100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>763400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>735100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>736700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>182800</v>
+        <v>169100</v>
       </c>
       <c r="E45" s="3">
-        <v>187400</v>
+        <v>186100</v>
       </c>
       <c r="F45" s="3">
-        <v>208200</v>
+        <v>190700</v>
       </c>
       <c r="G45" s="3">
-        <v>201000</v>
+        <v>211900</v>
       </c>
       <c r="H45" s="3">
-        <v>217500</v>
+        <v>204600</v>
       </c>
       <c r="I45" s="3">
-        <v>407500</v>
+        <v>221400</v>
       </c>
       <c r="J45" s="3">
+        <v>414900</v>
+      </c>
+      <c r="K45" s="3">
         <v>300200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>298400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>291600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>129400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>151900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4731800</v>
+        <v>4848400</v>
       </c>
       <c r="E46" s="3">
-        <v>4922100</v>
+        <v>4817000</v>
       </c>
       <c r="F46" s="3">
-        <v>4721400</v>
+        <v>5010700</v>
       </c>
       <c r="G46" s="3">
-        <v>4459500</v>
+        <v>4806400</v>
       </c>
       <c r="H46" s="3">
-        <v>4605900</v>
+        <v>4539800</v>
       </c>
       <c r="I46" s="3">
-        <v>5302200</v>
+        <v>4688800</v>
       </c>
       <c r="J46" s="3">
+        <v>5397700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4909400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5229800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4995800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4844600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4634000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4403200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4270500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4294500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4331600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>399400</v>
+        <v>412500</v>
       </c>
       <c r="E47" s="3">
-        <v>375500</v>
+        <v>406600</v>
       </c>
       <c r="F47" s="3">
-        <v>449500</v>
+        <v>382300</v>
       </c>
       <c r="G47" s="3">
-        <v>469800</v>
+        <v>457600</v>
       </c>
       <c r="H47" s="3">
-        <v>472600</v>
+        <v>478300</v>
       </c>
       <c r="I47" s="3">
-        <v>500400</v>
+        <v>481200</v>
       </c>
       <c r="J47" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K47" s="3">
         <v>457600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>502800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>464700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>432000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>467400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>529000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>514000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>483100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1362300</v>
+        <v>1375200</v>
       </c>
       <c r="E48" s="3">
-        <v>1365400</v>
+        <v>1386800</v>
       </c>
       <c r="F48" s="3">
-        <v>1312800</v>
+        <v>1390000</v>
       </c>
       <c r="G48" s="3">
-        <v>1276000</v>
+        <v>1336400</v>
       </c>
       <c r="H48" s="3">
-        <v>1303000</v>
+        <v>1299000</v>
       </c>
       <c r="I48" s="3">
-        <v>992800</v>
+        <v>1326500</v>
       </c>
       <c r="J48" s="3">
+        <v>1010700</v>
+      </c>
+      <c r="K48" s="3">
         <v>891200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>872700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>888800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>931700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>937300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>940900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>938700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>918700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>907000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2553100</v>
+        <v>2632100</v>
       </c>
       <c r="E49" s="3">
-        <v>2593900</v>
+        <v>2599100</v>
       </c>
       <c r="F49" s="3">
-        <v>2716700</v>
+        <v>2640600</v>
       </c>
       <c r="G49" s="3">
-        <v>2666200</v>
+        <v>2765700</v>
       </c>
       <c r="H49" s="3">
-        <v>2651900</v>
+        <v>2714200</v>
       </c>
       <c r="I49" s="3">
-        <v>2551600</v>
+        <v>2699700</v>
       </c>
       <c r="J49" s="3">
+        <v>2597600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2591200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2612200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2520100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2462500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2589500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2588300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2594700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2541000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2590500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>773900</v>
+        <v>789700</v>
       </c>
       <c r="E52" s="3">
-        <v>769800</v>
+        <v>787800</v>
       </c>
       <c r="F52" s="3">
-        <v>724600</v>
+        <v>783600</v>
       </c>
       <c r="G52" s="3">
-        <v>664300</v>
+        <v>737700</v>
       </c>
       <c r="H52" s="3">
-        <v>653900</v>
+        <v>676200</v>
       </c>
       <c r="I52" s="3">
-        <v>768100</v>
+        <v>665700</v>
       </c>
       <c r="J52" s="3">
+        <v>781900</v>
+      </c>
+      <c r="K52" s="3">
         <v>835600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>817500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>826100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>812500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>847300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>891200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>906900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>905700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>898500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9820400</v>
+        <v>10058000</v>
       </c>
       <c r="E54" s="3">
-        <v>10026600</v>
+        <v>9997200</v>
       </c>
       <c r="F54" s="3">
-        <v>9925100</v>
+        <v>10207200</v>
       </c>
       <c r="G54" s="3">
-        <v>9535800</v>
+        <v>10103800</v>
       </c>
       <c r="H54" s="3">
-        <v>9687400</v>
+        <v>9707600</v>
       </c>
       <c r="I54" s="3">
-        <v>10115100</v>
+        <v>9861900</v>
       </c>
       <c r="J54" s="3">
+        <v>10297300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9685000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10035000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9695500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9483200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9475500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9352600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9224800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9142900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9228400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>584000</v>
+        <v>748600</v>
       </c>
       <c r="E57" s="3">
-        <v>725700</v>
+        <v>594600</v>
       </c>
       <c r="F57" s="3">
-        <v>569000</v>
+        <v>738800</v>
       </c>
       <c r="G57" s="3">
-        <v>499100</v>
+        <v>579300</v>
       </c>
       <c r="H57" s="3">
-        <v>550600</v>
+        <v>508100</v>
       </c>
       <c r="I57" s="3">
-        <v>731800</v>
+        <v>560500</v>
       </c>
       <c r="J57" s="3">
+        <v>745000</v>
+      </c>
+      <c r="K57" s="3">
         <v>485200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>484100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>478500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>615600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>522700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>509300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>502600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>627600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>586800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>330400</v>
+        <v>157300</v>
       </c>
       <c r="E58" s="3">
-        <v>330300</v>
+        <v>336300</v>
       </c>
       <c r="F58" s="3">
-        <v>556900</v>
+        <v>336300</v>
       </c>
       <c r="G58" s="3">
-        <v>571000</v>
+        <v>566900</v>
       </c>
       <c r="H58" s="3">
-        <v>377600</v>
+        <v>581300</v>
       </c>
       <c r="I58" s="3">
-        <v>462500</v>
+        <v>384400</v>
       </c>
       <c r="J58" s="3">
+        <v>470800</v>
+      </c>
+      <c r="K58" s="3">
         <v>377500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>371500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>263600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>148300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>627600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>556000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>554900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>443500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>65600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1271100</v>
+        <v>1047200</v>
       </c>
       <c r="E59" s="3">
-        <v>1322500</v>
+        <v>1294000</v>
       </c>
       <c r="F59" s="3">
-        <v>1476700</v>
+        <v>1346300</v>
       </c>
       <c r="G59" s="3">
-        <v>1509200</v>
+        <v>1503300</v>
       </c>
       <c r="H59" s="3">
-        <v>1483200</v>
+        <v>1536400</v>
       </c>
       <c r="I59" s="3">
-        <v>1597400</v>
+        <v>1509900</v>
       </c>
       <c r="J59" s="3">
+        <v>1626200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1724200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1627300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1525800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1420800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1003500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>957600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>954900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>913100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>880900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2185500</v>
+        <v>1953100</v>
       </c>
       <c r="E60" s="3">
-        <v>2378500</v>
+        <v>2224900</v>
       </c>
       <c r="F60" s="3">
-        <v>2602600</v>
+        <v>2421400</v>
       </c>
       <c r="G60" s="3">
-        <v>2579300</v>
+        <v>2649500</v>
       </c>
       <c r="H60" s="3">
-        <v>2411300</v>
+        <v>2625700</v>
       </c>
       <c r="I60" s="3">
-        <v>2791700</v>
+        <v>2454700</v>
       </c>
       <c r="J60" s="3">
+        <v>2842000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2586900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2482900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2267900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2184700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2153800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2022900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2012400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1984100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1533300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>518700</v>
+        <v>863700</v>
       </c>
       <c r="E61" s="3">
-        <v>518700</v>
+        <v>528100</v>
       </c>
       <c r="F61" s="3">
-        <v>518600</v>
+        <v>528000</v>
       </c>
       <c r="G61" s="3">
-        <v>518600</v>
+        <v>528000</v>
       </c>
       <c r="H61" s="3">
-        <v>848800</v>
+        <v>527900</v>
       </c>
       <c r="I61" s="3">
-        <v>848700</v>
+        <v>864100</v>
       </c>
       <c r="J61" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K61" s="3">
         <v>848600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1151600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1481900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1416900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1435100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1434300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1477400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1450000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1904900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>476900</v>
+        <v>487100</v>
       </c>
       <c r="E62" s="3">
-        <v>496500</v>
+        <v>485400</v>
       </c>
       <c r="F62" s="3">
-        <v>488300</v>
+        <v>505500</v>
       </c>
       <c r="G62" s="3">
-        <v>454500</v>
+        <v>497100</v>
       </c>
       <c r="H62" s="3">
-        <v>460000</v>
+        <v>462600</v>
       </c>
       <c r="I62" s="3">
-        <v>320000</v>
+        <v>468300</v>
       </c>
       <c r="J62" s="3">
+        <v>325800</v>
+      </c>
+      <c r="K62" s="3">
         <v>356500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>328000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>315200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>330200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>363800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>362100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>356100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>363700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>369600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3414000</v>
+        <v>3540500</v>
       </c>
       <c r="E66" s="3">
-        <v>3625100</v>
+        <v>3475400</v>
       </c>
       <c r="F66" s="3">
-        <v>3840300</v>
+        <v>3690400</v>
       </c>
       <c r="G66" s="3">
-        <v>3780600</v>
+        <v>3909400</v>
       </c>
       <c r="H66" s="3">
-        <v>3949400</v>
+        <v>3848700</v>
       </c>
       <c r="I66" s="3">
-        <v>4185700</v>
+        <v>4020500</v>
       </c>
       <c r="J66" s="3">
+        <v>4261100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4023600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4190300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4285600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4117300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4137900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3995100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4015200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3957200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3964100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4795100</v>
+        <v>4897000</v>
       </c>
       <c r="E72" s="3">
-        <v>4770600</v>
+        <v>4881500</v>
       </c>
       <c r="F72" s="3">
-        <v>4359700</v>
+        <v>4856500</v>
       </c>
       <c r="G72" s="3">
-        <v>4155500</v>
+        <v>4438200</v>
       </c>
       <c r="H72" s="3">
-        <v>4104100</v>
+        <v>4230300</v>
       </c>
       <c r="I72" s="3">
-        <v>4139300</v>
+        <v>4178000</v>
       </c>
       <c r="J72" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3897700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3990100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3700800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3751300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3515100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3565200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3472600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3503500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3467100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6406400</v>
+        <v>6517500</v>
       </c>
       <c r="E76" s="3">
-        <v>6401500</v>
+        <v>6521800</v>
       </c>
       <c r="F76" s="3">
-        <v>6084800</v>
+        <v>6516800</v>
       </c>
       <c r="G76" s="3">
-        <v>5755200</v>
+        <v>6194400</v>
       </c>
       <c r="H76" s="3">
-        <v>5738000</v>
+        <v>5858900</v>
       </c>
       <c r="I76" s="3">
-        <v>5929400</v>
+        <v>5841400</v>
       </c>
       <c r="J76" s="3">
+        <v>6036200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5661400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5844700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5409900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5366000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5337600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5357500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5209700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5185700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5264400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>230600</v>
+        <v>13200</v>
       </c>
       <c r="E81" s="3">
-        <v>458000</v>
+        <v>234700</v>
       </c>
       <c r="F81" s="3">
-        <v>436700</v>
+        <v>466200</v>
       </c>
       <c r="G81" s="3">
-        <v>50200</v>
+        <v>444500</v>
       </c>
       <c r="H81" s="3">
-        <v>204600</v>
+        <v>51200</v>
       </c>
       <c r="I81" s="3">
-        <v>221000</v>
+        <v>208200</v>
       </c>
       <c r="J81" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K81" s="3">
         <v>69100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>189000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>84000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>88600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>93200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>81900</v>
+        <v>86300</v>
       </c>
       <c r="E83" s="3">
-        <v>80900</v>
+        <v>83400</v>
       </c>
       <c r="F83" s="3">
-        <v>81500</v>
+        <v>82300</v>
       </c>
       <c r="G83" s="3">
-        <v>77700</v>
+        <v>82900</v>
       </c>
       <c r="H83" s="3">
-        <v>78100</v>
+        <v>79100</v>
       </c>
       <c r="I83" s="3">
-        <v>63500</v>
+        <v>79500</v>
       </c>
       <c r="J83" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K83" s="3">
         <v>60600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>61000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>94900</v>
+        <v>82600</v>
       </c>
       <c r="E89" s="3">
-        <v>694500</v>
+        <v>96600</v>
       </c>
       <c r="F89" s="3">
-        <v>196100</v>
+        <v>707000</v>
       </c>
       <c r="G89" s="3">
-        <v>118200</v>
+        <v>199600</v>
       </c>
       <c r="H89" s="3">
-        <v>-38400</v>
+        <v>120300</v>
       </c>
       <c r="I89" s="3">
-        <v>408200</v>
+        <v>-39100</v>
       </c>
       <c r="J89" s="3">
+        <v>415600</v>
+      </c>
+      <c r="K89" s="3">
         <v>99600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>349100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>112200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1002200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>236800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>147300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>295000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>140100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-83500</v>
+        <v>-38300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52500</v>
+        <v>-85000</v>
       </c>
       <c r="F91" s="3">
-        <v>-24500</v>
+        <v>-53400</v>
       </c>
       <c r="G91" s="3">
-        <v>-24200</v>
+        <v>-25000</v>
       </c>
       <c r="H91" s="3">
-        <v>-42800</v>
+        <v>-24700</v>
       </c>
       <c r="I91" s="3">
-        <v>-104000</v>
+        <v>-43600</v>
       </c>
       <c r="J91" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-94800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-118000</v>
+        <v>-47200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11000</v>
+        <v>-120100</v>
       </c>
       <c r="F94" s="3">
-        <v>-27100</v>
+        <v>-11200</v>
       </c>
       <c r="G94" s="3">
-        <v>-32600</v>
+        <v>-27600</v>
       </c>
       <c r="H94" s="3">
-        <v>-190100</v>
+        <v>-33200</v>
       </c>
       <c r="I94" s="3">
-        <v>-103500</v>
+        <v>-193500</v>
       </c>
       <c r="J94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K94" s="3">
         <v>71000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>245700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-94400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-152100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-217000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,61 +5079,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-216500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-220400</v>
       </c>
       <c r="F96" s="3">
-        <v>-216400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-220300</v>
       </c>
       <c r="H96" s="3">
-        <v>-216400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-220300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-189300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-208200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-181100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-207000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-177600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-239700</v>
+        <v>-27500</v>
       </c>
       <c r="E100" s="3">
-        <v>-245200</v>
+        <v>-244000</v>
       </c>
       <c r="F100" s="3">
-        <v>-255500</v>
+        <v>-249600</v>
       </c>
       <c r="G100" s="3">
-        <v>-153700</v>
+        <v>-260100</v>
       </c>
       <c r="H100" s="3">
-        <v>-323000</v>
+        <v>-156500</v>
       </c>
       <c r="I100" s="3">
-        <v>84600</v>
+        <v>-328800</v>
       </c>
       <c r="J100" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-506100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-270700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-477900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-105600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-183800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-44500</v>
-      </c>
       <c r="F101" s="3">
-        <v>59400</v>
+        <v>-45300</v>
       </c>
       <c r="G101" s="3">
-        <v>-27200</v>
+        <v>60500</v>
       </c>
       <c r="H101" s="3">
-        <v>-75600</v>
+        <v>-27700</v>
       </c>
       <c r="I101" s="3">
-        <v>19400</v>
+        <v>-76900</v>
       </c>
       <c r="J101" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-72400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>60400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>35400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-51500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>97700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-263700</v>
+        <v>16400</v>
       </c>
       <c r="E102" s="3">
-        <v>393800</v>
+        <v>-268500</v>
       </c>
       <c r="F102" s="3">
-        <v>-27000</v>
+        <v>400900</v>
       </c>
       <c r="G102" s="3">
-        <v>-95300</v>
+        <v>-27500</v>
       </c>
       <c r="H102" s="3">
-        <v>-627100</v>
+        <v>-97000</v>
       </c>
       <c r="I102" s="3">
-        <v>408800</v>
+        <v>-638400</v>
       </c>
       <c r="J102" s="3">
+        <v>416200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-407900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>83700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>718500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>131700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>129400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-222400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>127300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-162900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1455500</v>
+        <v>1660600</v>
       </c>
       <c r="E8" s="3">
-        <v>1591300</v>
+        <v>1387400</v>
       </c>
       <c r="F8" s="3">
-        <v>2013800</v>
+        <v>1516700</v>
       </c>
       <c r="G8" s="3">
-        <v>1795100</v>
+        <v>1919500</v>
       </c>
       <c r="H8" s="3">
-        <v>1396000</v>
+        <v>1711100</v>
       </c>
       <c r="I8" s="3">
-        <v>1479900</v>
+        <v>1330600</v>
       </c>
       <c r="J8" s="3">
+        <v>1410600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1687300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1483300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1456900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1393500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1447400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1294700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1282400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1152000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1235800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>398100</v>
+        <v>370500</v>
       </c>
       <c r="E9" s="3">
-        <v>367900</v>
+        <v>379500</v>
       </c>
       <c r="F9" s="3">
-        <v>466200</v>
+        <v>350700</v>
       </c>
       <c r="G9" s="3">
-        <v>422800</v>
+        <v>444300</v>
       </c>
       <c r="H9" s="3">
-        <v>387200</v>
+        <v>403000</v>
       </c>
       <c r="I9" s="3">
-        <v>412200</v>
+        <v>369100</v>
       </c>
       <c r="J9" s="3">
+        <v>392900</v>
+      </c>
+      <c r="K9" s="3">
         <v>410900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>469300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>408600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>436700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>407400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>488500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>476900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>446600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>426100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>440600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1057400</v>
+        <v>1290100</v>
       </c>
       <c r="E10" s="3">
-        <v>1223400</v>
+        <v>1007900</v>
       </c>
       <c r="F10" s="3">
-        <v>1547700</v>
+        <v>1166100</v>
       </c>
       <c r="G10" s="3">
-        <v>1372300</v>
+        <v>1475200</v>
       </c>
       <c r="H10" s="3">
-        <v>1008800</v>
+        <v>1308000</v>
       </c>
       <c r="I10" s="3">
-        <v>1067800</v>
+        <v>961500</v>
       </c>
       <c r="J10" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1276400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1014000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1048300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>956800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1040100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>911500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>817800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>835800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>725900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>795200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>355600</v>
+        <v>372300</v>
       </c>
       <c r="E12" s="3">
-        <v>293400</v>
+        <v>338900</v>
       </c>
       <c r="F12" s="3">
-        <v>356300</v>
+        <v>279700</v>
       </c>
       <c r="G12" s="3">
-        <v>336600</v>
+        <v>339600</v>
       </c>
       <c r="H12" s="3">
-        <v>370900</v>
+        <v>320800</v>
       </c>
       <c r="I12" s="3">
-        <v>282800</v>
+        <v>353500</v>
       </c>
       <c r="J12" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K12" s="3">
         <v>416400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>344700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>286800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>310200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>339700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>324400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>297600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>292300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>217900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1061,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1101,8 +1120,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1436700</v>
+        <v>1444300</v>
       </c>
       <c r="E17" s="3">
-        <v>1282600</v>
+        <v>1369400</v>
       </c>
       <c r="F17" s="3">
-        <v>1512500</v>
+        <v>1222500</v>
       </c>
       <c r="G17" s="3">
-        <v>1398100</v>
+        <v>1441700</v>
       </c>
       <c r="H17" s="3">
-        <v>1336500</v>
+        <v>1332600</v>
       </c>
       <c r="I17" s="3">
-        <v>1231700</v>
+        <v>1273900</v>
       </c>
       <c r="J17" s="3">
+        <v>1174100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1408200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1198700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1206500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1171600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1228500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1180800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1145600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1139300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1066900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18800</v>
+        <v>216300</v>
       </c>
       <c r="E18" s="3">
-        <v>308700</v>
+        <v>17900</v>
       </c>
       <c r="F18" s="3">
-        <v>501300</v>
+        <v>294200</v>
       </c>
       <c r="G18" s="3">
-        <v>397100</v>
+        <v>477800</v>
       </c>
       <c r="H18" s="3">
-        <v>59500</v>
+        <v>378500</v>
       </c>
       <c r="I18" s="3">
-        <v>248200</v>
+        <v>56700</v>
       </c>
       <c r="J18" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K18" s="3">
         <v>279100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>258200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>187100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>275800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>171500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>113900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>136800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>168900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,120 +1342,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>3200</v>
-      </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="3">
-        <v>7100</v>
+        <v>800</v>
       </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
-        <v>10900</v>
+        <v>5500</v>
       </c>
       <c r="J20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>105400</v>
+        <v>303100</v>
       </c>
       <c r="E21" s="3">
-        <v>395200</v>
+        <v>100400</v>
       </c>
       <c r="F21" s="3">
-        <v>584500</v>
+        <v>376700</v>
       </c>
       <c r="G21" s="3">
-        <v>487100</v>
+        <v>557100</v>
       </c>
       <c r="H21" s="3">
-        <v>144300</v>
+        <v>464300</v>
       </c>
       <c r="I21" s="3">
-        <v>338600</v>
+        <v>137600</v>
       </c>
       <c r="J21" s="3">
+        <v>322700</v>
+      </c>
+      <c r="K21" s="3">
         <v>352900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>327000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>255900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>335700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>231200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>169200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>194900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>222500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,120 +1517,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>19100</v>
+        <v>219100</v>
       </c>
       <c r="E23" s="3">
-        <v>311800</v>
+        <v>18200</v>
       </c>
       <c r="F23" s="3">
-        <v>502200</v>
+        <v>297200</v>
       </c>
       <c r="G23" s="3">
-        <v>404200</v>
+        <v>478600</v>
       </c>
       <c r="H23" s="3">
-        <v>65200</v>
+        <v>385300</v>
       </c>
       <c r="I23" s="3">
-        <v>259100</v>
+        <v>62200</v>
       </c>
       <c r="J23" s="3">
+        <v>247000</v>
+      </c>
+      <c r="K23" s="3">
         <v>288200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>263700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>193300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>274700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>171600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>111400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>136700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>168100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>5900</v>
+        <v>38400</v>
       </c>
       <c r="E24" s="3">
-        <v>73900</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>35300</v>
+        <v>70500</v>
       </c>
       <c r="G24" s="3">
-        <v>-42900</v>
+        <v>33600</v>
       </c>
       <c r="H24" s="3">
-        <v>14600</v>
+        <v>-40900</v>
       </c>
       <c r="I24" s="3">
-        <v>46800</v>
+        <v>13900</v>
       </c>
       <c r="J24" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K24" s="3">
         <v>69600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>72000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>13200</v>
+        <v>180700</v>
       </c>
       <c r="E26" s="3">
-        <v>237900</v>
+        <v>12600</v>
       </c>
       <c r="F26" s="3">
-        <v>466900</v>
+        <v>226700</v>
       </c>
       <c r="G26" s="3">
-        <v>447100</v>
+        <v>445000</v>
       </c>
       <c r="H26" s="3">
-        <v>50600</v>
+        <v>426200</v>
       </c>
       <c r="I26" s="3">
-        <v>212300</v>
+        <v>48200</v>
       </c>
       <c r="J26" s="3">
+        <v>202400</v>
+      </c>
+      <c r="K26" s="3">
         <v>218600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>191700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>142600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>88400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>95600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>13200</v>
+        <v>177400</v>
       </c>
       <c r="E27" s="3">
-        <v>234700</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>466200</v>
+        <v>223700</v>
       </c>
       <c r="G27" s="3">
-        <v>444500</v>
+        <v>444400</v>
       </c>
       <c r="H27" s="3">
-        <v>51200</v>
+        <v>423700</v>
       </c>
       <c r="I27" s="3">
-        <v>208200</v>
+        <v>48800</v>
       </c>
       <c r="J27" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K27" s="3">
         <v>225000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>189000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>214600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>93200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-3000</v>
       </c>
       <c r="G32" s="3">
-        <v>-7100</v>
+        <v>-800</v>
       </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
-        <v>-10900</v>
+        <v>-5500</v>
       </c>
       <c r="J32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>13200</v>
+        <v>177400</v>
       </c>
       <c r="E33" s="3">
-        <v>234700</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>466200</v>
+        <v>223700</v>
       </c>
       <c r="G33" s="3">
-        <v>444500</v>
+        <v>444400</v>
       </c>
       <c r="H33" s="3">
-        <v>51200</v>
+        <v>423700</v>
       </c>
       <c r="I33" s="3">
-        <v>208200</v>
+        <v>48800</v>
       </c>
       <c r="J33" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K33" s="3">
         <v>225000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>189000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>84000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>93200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>13200</v>
+        <v>177400</v>
       </c>
       <c r="E35" s="3">
-        <v>234700</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>466200</v>
+        <v>223700</v>
       </c>
       <c r="G35" s="3">
-        <v>444500</v>
+        <v>444400</v>
       </c>
       <c r="H35" s="3">
-        <v>51200</v>
+        <v>423700</v>
       </c>
       <c r="I35" s="3">
-        <v>208200</v>
+        <v>48800</v>
       </c>
       <c r="J35" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K35" s="3">
         <v>225000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>189000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>84000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>93200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,512 +2396,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2191300</v>
+        <v>1775000</v>
       </c>
       <c r="E41" s="3">
-        <v>2174800</v>
+        <v>2088600</v>
       </c>
       <c r="F41" s="3">
-        <v>2443300</v>
+        <v>2073000</v>
       </c>
       <c r="G41" s="3">
-        <v>2042400</v>
+        <v>2328900</v>
       </c>
       <c r="H41" s="3">
-        <v>2069900</v>
+        <v>1946800</v>
       </c>
       <c r="I41" s="3">
-        <v>2167000</v>
+        <v>1973000</v>
       </c>
       <c r="J41" s="3">
+        <v>2065500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2752600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2347000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2711100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2542800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2445500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1727000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1595400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1466000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1656700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1529400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9100</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="3">
-        <v>6400</v>
+        <v>8700</v>
       </c>
       <c r="F42" s="3">
-        <v>14900</v>
+        <v>6100</v>
       </c>
       <c r="G42" s="3">
-        <v>23600</v>
+        <v>14200</v>
       </c>
       <c r="H42" s="3">
-        <v>62700</v>
+        <v>22500</v>
       </c>
       <c r="I42" s="3">
-        <v>65900</v>
+        <v>59700</v>
       </c>
       <c r="J42" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K42" s="3">
         <v>72500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>173900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>169000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>168700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>447200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>359400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>399800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>380300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>335200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1758900</v>
+        <v>1850100</v>
       </c>
       <c r="E43" s="3">
-        <v>1768200</v>
+        <v>1676500</v>
       </c>
       <c r="F43" s="3">
-        <v>1730000</v>
+        <v>1685400</v>
       </c>
       <c r="G43" s="3">
-        <v>1890000</v>
+        <v>1649000</v>
       </c>
       <c r="H43" s="3">
-        <v>1576700</v>
+        <v>1801500</v>
       </c>
       <c r="I43" s="3">
-        <v>1620000</v>
+        <v>1502900</v>
       </c>
       <c r="J43" s="3">
+        <v>1544100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1505300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1566000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1386600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1352300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1369300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1608700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1562400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1480200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1370400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1630200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>720100</v>
+        <v>723100</v>
       </c>
       <c r="E44" s="3">
-        <v>681600</v>
+        <v>686400</v>
       </c>
       <c r="F44" s="3">
-        <v>631700</v>
+        <v>649600</v>
       </c>
       <c r="G44" s="3">
-        <v>638400</v>
+        <v>602100</v>
       </c>
       <c r="H44" s="3">
-        <v>625900</v>
+        <v>608500</v>
       </c>
       <c r="I44" s="3">
-        <v>614500</v>
+        <v>596600</v>
       </c>
       <c r="J44" s="3">
+        <v>585800</v>
+      </c>
+      <c r="K44" s="3">
         <v>652400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>624300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>659800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>640100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>731600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>723500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>747100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>763400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>735100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>736700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>169100</v>
+        <v>185600</v>
       </c>
       <c r="E45" s="3">
-        <v>186100</v>
+        <v>161200</v>
       </c>
       <c r="F45" s="3">
-        <v>190700</v>
+        <v>177300</v>
       </c>
       <c r="G45" s="3">
-        <v>211900</v>
+        <v>181800</v>
       </c>
       <c r="H45" s="3">
-        <v>204600</v>
+        <v>202000</v>
       </c>
       <c r="I45" s="3">
-        <v>221400</v>
+        <v>195000</v>
       </c>
       <c r="J45" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K45" s="3">
         <v>414900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>298400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>291600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>129400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>161000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>151900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4848400</v>
+        <v>4539900</v>
       </c>
       <c r="E46" s="3">
-        <v>4817000</v>
+        <v>4621400</v>
       </c>
       <c r="F46" s="3">
-        <v>5010700</v>
+        <v>4591400</v>
       </c>
       <c r="G46" s="3">
-        <v>4806400</v>
+        <v>4776100</v>
       </c>
       <c r="H46" s="3">
-        <v>4539800</v>
+        <v>4581300</v>
       </c>
       <c r="I46" s="3">
-        <v>4688800</v>
+        <v>4327200</v>
       </c>
       <c r="J46" s="3">
+        <v>4469300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5397700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4909400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5229800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4995800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4844600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4634000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4403200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4270500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4294500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4331600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>412500</v>
+        <v>382900</v>
       </c>
       <c r="E47" s="3">
-        <v>406600</v>
+        <v>393200</v>
       </c>
       <c r="F47" s="3">
-        <v>382300</v>
+        <v>387500</v>
       </c>
       <c r="G47" s="3">
+        <v>364400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>436200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>455900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>458600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>509400</v>
+      </c>
+      <c r="L47" s="3">
         <v>457600</v>
       </c>
-      <c r="H47" s="3">
-        <v>478300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>481200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>509400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>457600</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>502800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>464700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>432000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>467400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>529000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>514000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>483100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1375200</v>
+        <v>1314300</v>
       </c>
       <c r="E48" s="3">
-        <v>1386800</v>
+        <v>1310800</v>
       </c>
       <c r="F48" s="3">
-        <v>1390000</v>
+        <v>1321900</v>
       </c>
       <c r="G48" s="3">
-        <v>1336400</v>
+        <v>1324900</v>
       </c>
       <c r="H48" s="3">
-        <v>1299000</v>
+        <v>1273800</v>
       </c>
       <c r="I48" s="3">
-        <v>1326500</v>
+        <v>1238200</v>
       </c>
       <c r="J48" s="3">
+        <v>1264400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1010700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>891200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>872700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>888800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>931700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>937300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>940900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>938700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>918700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>907000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2632100</v>
+        <v>2455900</v>
       </c>
       <c r="E49" s="3">
-        <v>2599100</v>
+        <v>2508900</v>
       </c>
       <c r="F49" s="3">
-        <v>2640600</v>
+        <v>2477400</v>
       </c>
       <c r="G49" s="3">
-        <v>2765700</v>
+        <v>2516900</v>
       </c>
       <c r="H49" s="3">
-        <v>2714200</v>
+        <v>2636200</v>
       </c>
       <c r="I49" s="3">
-        <v>2699700</v>
+        <v>2587100</v>
       </c>
       <c r="J49" s="3">
+        <v>2573300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2597600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2591200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2612200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2520100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2462500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2589500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2588300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2594700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2541000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2590500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>789700</v>
+        <v>728500</v>
       </c>
       <c r="E52" s="3">
-        <v>787800</v>
+        <v>752700</v>
       </c>
       <c r="F52" s="3">
-        <v>783600</v>
+        <v>750900</v>
       </c>
       <c r="G52" s="3">
-        <v>737700</v>
+        <v>746900</v>
       </c>
       <c r="H52" s="3">
-        <v>676200</v>
+        <v>703100</v>
       </c>
       <c r="I52" s="3">
-        <v>665700</v>
+        <v>644600</v>
       </c>
       <c r="J52" s="3">
+        <v>634500</v>
+      </c>
+      <c r="K52" s="3">
         <v>781900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>835600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>817500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>826100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>812500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>847300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>891200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>906900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>905700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>898500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10058000</v>
+        <v>9421600</v>
       </c>
       <c r="E54" s="3">
-        <v>9997200</v>
+        <v>9587000</v>
       </c>
       <c r="F54" s="3">
-        <v>10207200</v>
+        <v>9529100</v>
       </c>
       <c r="G54" s="3">
-        <v>10103800</v>
+        <v>9729200</v>
       </c>
       <c r="H54" s="3">
-        <v>9707600</v>
+        <v>9630700</v>
       </c>
       <c r="I54" s="3">
-        <v>9861900</v>
+        <v>9253000</v>
       </c>
       <c r="J54" s="3">
+        <v>9400100</v>
+      </c>
+      <c r="K54" s="3">
         <v>10297300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9685000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10035000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9695500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9483200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9475500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9352600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9224800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9142900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9228400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,344 +3268,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>748600</v>
+        <v>642900</v>
       </c>
       <c r="E57" s="3">
-        <v>594600</v>
+        <v>713600</v>
       </c>
       <c r="F57" s="3">
-        <v>738800</v>
+        <v>566700</v>
       </c>
       <c r="G57" s="3">
-        <v>579300</v>
+        <v>704200</v>
       </c>
       <c r="H57" s="3">
-        <v>508100</v>
+        <v>552100</v>
       </c>
       <c r="I57" s="3">
-        <v>560500</v>
+        <v>484300</v>
       </c>
       <c r="J57" s="3">
+        <v>534200</v>
+      </c>
+      <c r="K57" s="3">
         <v>745000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>485200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>484100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>478500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>615600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>522700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>509300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>502600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>627600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>586800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>157300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>336300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>336300</v>
+        <v>320600</v>
       </c>
       <c r="G58" s="3">
-        <v>566900</v>
+        <v>320500</v>
       </c>
       <c r="H58" s="3">
-        <v>581300</v>
+        <v>540400</v>
       </c>
       <c r="I58" s="3">
-        <v>384400</v>
+        <v>554100</v>
       </c>
       <c r="J58" s="3">
+        <v>366400</v>
+      </c>
+      <c r="K58" s="3">
         <v>470800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>377500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>371500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>263600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>148300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>627600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>556000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>554900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>443500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>65600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1047200</v>
+        <v>1110600</v>
       </c>
       <c r="E59" s="3">
-        <v>1294000</v>
+        <v>1148000</v>
       </c>
       <c r="F59" s="3">
-        <v>1346300</v>
+        <v>1233400</v>
       </c>
       <c r="G59" s="3">
-        <v>1503300</v>
+        <v>1283200</v>
       </c>
       <c r="H59" s="3">
-        <v>1536400</v>
+        <v>1432900</v>
       </c>
       <c r="I59" s="3">
-        <v>1509900</v>
+        <v>1464400</v>
       </c>
       <c r="J59" s="3">
+        <v>1439200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1626200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1724200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1627300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1525800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1420800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1003500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>957600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>954900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>913100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>880900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1953100</v>
+        <v>1753500</v>
       </c>
       <c r="E60" s="3">
-        <v>2224900</v>
+        <v>1861600</v>
       </c>
       <c r="F60" s="3">
-        <v>2421400</v>
+        <v>2120700</v>
       </c>
       <c r="G60" s="3">
-        <v>2649500</v>
+        <v>2308000</v>
       </c>
       <c r="H60" s="3">
-        <v>2625700</v>
+        <v>2525400</v>
       </c>
       <c r="I60" s="3">
-        <v>2454700</v>
+        <v>2502800</v>
       </c>
       <c r="J60" s="3">
+        <v>2339800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2842000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2586900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2482900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2267900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2184700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2153800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2022900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2012400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1984100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1533300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>863700</v>
+        <v>823300</v>
       </c>
       <c r="E61" s="3">
-        <v>528100</v>
+        <v>823300</v>
       </c>
       <c r="F61" s="3">
-        <v>528000</v>
+        <v>503400</v>
       </c>
       <c r="G61" s="3">
-        <v>528000</v>
+        <v>503300</v>
       </c>
       <c r="H61" s="3">
-        <v>527900</v>
+        <v>503300</v>
       </c>
       <c r="I61" s="3">
-        <v>864100</v>
+        <v>503200</v>
       </c>
       <c r="J61" s="3">
+        <v>823600</v>
+      </c>
+      <c r="K61" s="3">
         <v>864000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>848600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1151600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1481900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1416900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1435100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1434300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1477400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1450000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1904900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>487100</v>
+        <v>458400</v>
       </c>
       <c r="E62" s="3">
-        <v>485400</v>
+        <v>464300</v>
       </c>
       <c r="F62" s="3">
-        <v>505500</v>
+        <v>462700</v>
       </c>
       <c r="G62" s="3">
-        <v>497100</v>
+        <v>481800</v>
       </c>
       <c r="H62" s="3">
-        <v>462600</v>
+        <v>473800</v>
       </c>
       <c r="I62" s="3">
-        <v>468300</v>
+        <v>441000</v>
       </c>
       <c r="J62" s="3">
+        <v>446400</v>
+      </c>
+      <c r="K62" s="3">
         <v>325800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>356500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>328000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>315200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>330200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>363800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>362100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>356100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>363700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>369600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3540500</v>
+        <v>3264400</v>
       </c>
       <c r="E66" s="3">
-        <v>3475400</v>
+        <v>3374700</v>
       </c>
       <c r="F66" s="3">
-        <v>3690400</v>
+        <v>3312700</v>
       </c>
       <c r="G66" s="3">
-        <v>3909400</v>
+        <v>3517600</v>
       </c>
       <c r="H66" s="3">
-        <v>3848700</v>
+        <v>3726400</v>
       </c>
       <c r="I66" s="3">
-        <v>4020500</v>
+        <v>3668400</v>
       </c>
       <c r="J66" s="3">
+        <v>3832200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4261100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4023600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4190300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4285600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4117300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4137900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3995100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4015200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3957200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3964100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4897000</v>
+        <v>4631700</v>
       </c>
       <c r="E72" s="3">
-        <v>4881500</v>
+        <v>4667700</v>
       </c>
       <c r="F72" s="3">
-        <v>4856500</v>
+        <v>4652900</v>
       </c>
       <c r="G72" s="3">
-        <v>4438200</v>
+        <v>4629100</v>
       </c>
       <c r="H72" s="3">
-        <v>4230300</v>
+        <v>4230400</v>
       </c>
       <c r="I72" s="3">
-        <v>4178000</v>
+        <v>4032200</v>
       </c>
       <c r="J72" s="3">
+        <v>3982400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4213900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3897700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3990100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3700800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3751300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3515100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3565200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3472600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3503500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3467100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6517500</v>
+        <v>6157200</v>
       </c>
       <c r="E76" s="3">
-        <v>6521800</v>
+        <v>6212300</v>
       </c>
       <c r="F76" s="3">
-        <v>6516800</v>
+        <v>6216400</v>
       </c>
       <c r="G76" s="3">
-        <v>6194400</v>
+        <v>6211600</v>
       </c>
       <c r="H76" s="3">
-        <v>5858900</v>
+        <v>5904300</v>
       </c>
       <c r="I76" s="3">
-        <v>5841400</v>
+        <v>5584500</v>
       </c>
       <c r="J76" s="3">
+        <v>5567900</v>
+      </c>
+      <c r="K76" s="3">
         <v>6036200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5661400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5844700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5409900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5366000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5337600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5357500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5209700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5185700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5264400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>13200</v>
+        <v>177400</v>
       </c>
       <c r="E81" s="3">
-        <v>234700</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>466200</v>
+        <v>223700</v>
       </c>
       <c r="G81" s="3">
-        <v>444500</v>
+        <v>444400</v>
       </c>
       <c r="H81" s="3">
-        <v>51200</v>
+        <v>423700</v>
       </c>
       <c r="I81" s="3">
-        <v>208200</v>
+        <v>48800</v>
       </c>
       <c r="J81" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K81" s="3">
         <v>225000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>189000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>84000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>93200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>86300</v>
+        <v>84000</v>
       </c>
       <c r="E83" s="3">
-        <v>83400</v>
+        <v>82300</v>
       </c>
       <c r="F83" s="3">
-        <v>82300</v>
+        <v>79500</v>
       </c>
       <c r="G83" s="3">
-        <v>82900</v>
+        <v>78500</v>
       </c>
       <c r="H83" s="3">
         <v>79100</v>
       </c>
       <c r="I83" s="3">
-        <v>79500</v>
+        <v>75400</v>
       </c>
       <c r="J83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K83" s="3">
         <v>64700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>62500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>61000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>58100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>82600</v>
+        <v>31700</v>
       </c>
       <c r="E89" s="3">
-        <v>96600</v>
+        <v>78800</v>
       </c>
       <c r="F89" s="3">
-        <v>707000</v>
+        <v>92100</v>
       </c>
       <c r="G89" s="3">
-        <v>199600</v>
+        <v>673900</v>
       </c>
       <c r="H89" s="3">
-        <v>120300</v>
+        <v>190300</v>
       </c>
       <c r="I89" s="3">
-        <v>-39100</v>
+        <v>114600</v>
       </c>
       <c r="J89" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="K89" s="3">
         <v>415600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>99600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>349100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1002200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>236800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>147300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>295000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>140100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-38300</v>
+        <v>-15000</v>
       </c>
       <c r="E91" s="3">
-        <v>-85000</v>
+        <v>-36500</v>
       </c>
       <c r="F91" s="3">
-        <v>-53400</v>
+        <v>-81000</v>
       </c>
       <c r="G91" s="3">
-        <v>-25000</v>
+        <v>-50900</v>
       </c>
       <c r="H91" s="3">
-        <v>-24700</v>
+        <v>-23800</v>
       </c>
       <c r="I91" s="3">
-        <v>-43600</v>
+        <v>-23500</v>
       </c>
       <c r="J91" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-105900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-94800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-47200</v>
+        <v>-125100</v>
       </c>
       <c r="E94" s="3">
-        <v>-120100</v>
+        <v>-45000</v>
       </c>
       <c r="F94" s="3">
-        <v>-11200</v>
+        <v>-114500</v>
       </c>
       <c r="G94" s="3">
-        <v>-27600</v>
+        <v>-10700</v>
       </c>
       <c r="H94" s="3">
-        <v>-33200</v>
+        <v>-26300</v>
       </c>
       <c r="I94" s="3">
-        <v>-193500</v>
+        <v>-31600</v>
       </c>
       <c r="J94" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-105300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>71000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>245700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-94400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-152100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-217000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-210100</v>
       </c>
       <c r="E96" s="3">
-        <v>-220400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-210100</v>
       </c>
       <c r="G96" s="3">
-        <v>-220300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-210000</v>
       </c>
       <c r="I96" s="3">
-        <v>-220300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-210000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-189300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-208200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-181100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-207000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-177600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-27500</v>
+        <v>-232500</v>
       </c>
       <c r="E100" s="3">
-        <v>-244000</v>
+        <v>-26200</v>
       </c>
       <c r="F100" s="3">
-        <v>-249600</v>
+        <v>-232600</v>
       </c>
       <c r="G100" s="3">
-        <v>-260100</v>
+        <v>-237900</v>
       </c>
       <c r="H100" s="3">
-        <v>-156500</v>
+        <v>-247900</v>
       </c>
       <c r="I100" s="3">
-        <v>-328800</v>
+        <v>-149100</v>
       </c>
       <c r="J100" s="3">
+        <v>-313400</v>
+      </c>
+      <c r="K100" s="3">
         <v>86200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-506100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-270700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-477900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-111300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-105600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-183800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>8500</v>
+        <v>12300</v>
       </c>
       <c r="E101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-45300</v>
-      </c>
       <c r="G101" s="3">
-        <v>60500</v>
+        <v>-43200</v>
       </c>
       <c r="H101" s="3">
-        <v>-27700</v>
+        <v>57600</v>
       </c>
       <c r="I101" s="3">
-        <v>-76900</v>
+        <v>-26400</v>
       </c>
       <c r="J101" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="K101" s="3">
         <v>19700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-72400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>60400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>35400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-51500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>97700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>16400</v>
+        <v>-313600</v>
       </c>
       <c r="E102" s="3">
-        <v>-268500</v>
+        <v>15700</v>
       </c>
       <c r="F102" s="3">
-        <v>400900</v>
+        <v>-255900</v>
       </c>
       <c r="G102" s="3">
-        <v>-27500</v>
+        <v>382100</v>
       </c>
       <c r="H102" s="3">
-        <v>-97000</v>
+        <v>-26200</v>
       </c>
       <c r="I102" s="3">
-        <v>-638400</v>
+        <v>-92500</v>
       </c>
       <c r="J102" s="3">
+        <v>-608500</v>
+      </c>
+      <c r="K102" s="3">
         <v>416200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-407900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>112300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>83700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>718500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>131700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>129400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-222400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>127300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-162900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1660600</v>
+        <v>1356500</v>
       </c>
       <c r="E8" s="3">
-        <v>1387400</v>
+        <v>1666000</v>
       </c>
       <c r="F8" s="3">
-        <v>1516700</v>
+        <v>1391900</v>
       </c>
       <c r="G8" s="3">
-        <v>1919500</v>
+        <v>1521700</v>
       </c>
       <c r="H8" s="3">
-        <v>1711100</v>
+        <v>1925800</v>
       </c>
       <c r="I8" s="3">
-        <v>1330600</v>
+        <v>1716700</v>
       </c>
       <c r="J8" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1410600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1687300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1483300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1456900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1393500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1447400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1294700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1282400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1152000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1235800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>370500</v>
+        <v>378200</v>
       </c>
       <c r="E9" s="3">
-        <v>379500</v>
+        <v>371700</v>
       </c>
       <c r="F9" s="3">
-        <v>350700</v>
+        <v>380700</v>
       </c>
       <c r="G9" s="3">
-        <v>444300</v>
+        <v>351800</v>
       </c>
       <c r="H9" s="3">
-        <v>403000</v>
+        <v>445800</v>
       </c>
       <c r="I9" s="3">
-        <v>369100</v>
+        <v>404400</v>
       </c>
       <c r="J9" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K9" s="3">
         <v>392900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>410900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>469300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>408600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>436700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>407400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>488500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>476900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>446600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>426100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>440600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1290100</v>
+        <v>978400</v>
       </c>
       <c r="E10" s="3">
-        <v>1007900</v>
+        <v>1294300</v>
       </c>
       <c r="F10" s="3">
-        <v>1166100</v>
+        <v>1011200</v>
       </c>
       <c r="G10" s="3">
-        <v>1475200</v>
+        <v>1169900</v>
       </c>
       <c r="H10" s="3">
-        <v>1308000</v>
+        <v>1480000</v>
       </c>
       <c r="I10" s="3">
-        <v>961500</v>
+        <v>1312300</v>
       </c>
       <c r="J10" s="3">
+        <v>964700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1017800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1276400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1014000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1048300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>956800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1040100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>911500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>817800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>835800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>725900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>795200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +959,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>372300</v>
+        <v>387100</v>
       </c>
       <c r="E12" s="3">
-        <v>338900</v>
+        <v>373500</v>
       </c>
       <c r="F12" s="3">
-        <v>279700</v>
+        <v>340000</v>
       </c>
       <c r="G12" s="3">
-        <v>339600</v>
+        <v>280600</v>
       </c>
       <c r="H12" s="3">
-        <v>320800</v>
+        <v>340700</v>
       </c>
       <c r="I12" s="3">
-        <v>353500</v>
+        <v>321900</v>
       </c>
       <c r="J12" s="3">
+        <v>354700</v>
+      </c>
+      <c r="K12" s="3">
         <v>269600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>416400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>344700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>286800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>310200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>339700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>324400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>297600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>292300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>217900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,8 +1081,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,8 +1143,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1444300</v>
+        <v>1411000</v>
       </c>
       <c r="E17" s="3">
-        <v>1369400</v>
+        <v>1449000</v>
       </c>
       <c r="F17" s="3">
-        <v>1222500</v>
+        <v>1373900</v>
       </c>
       <c r="G17" s="3">
-        <v>1441700</v>
+        <v>1226500</v>
       </c>
       <c r="H17" s="3">
-        <v>1332600</v>
+        <v>1446400</v>
       </c>
       <c r="I17" s="3">
-        <v>1273900</v>
+        <v>1337000</v>
       </c>
       <c r="J17" s="3">
+        <v>1278100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1174100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1408200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1198700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1206500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1171600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1228500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1180800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1145600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1139300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1066900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>216300</v>
+        <v>-54500</v>
       </c>
       <c r="E18" s="3">
-        <v>17900</v>
+        <v>217000</v>
       </c>
       <c r="F18" s="3">
-        <v>294200</v>
+        <v>18000</v>
       </c>
       <c r="G18" s="3">
-        <v>477800</v>
+        <v>295200</v>
       </c>
       <c r="H18" s="3">
-        <v>378500</v>
+        <v>479400</v>
       </c>
       <c r="I18" s="3">
-        <v>56700</v>
+        <v>379700</v>
       </c>
       <c r="J18" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K18" s="3">
         <v>236600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>279100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>258200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>275800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>171500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>136800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,126 +1376,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>303100</v>
+        <v>33700</v>
       </c>
       <c r="E21" s="3">
-        <v>100400</v>
+        <v>304100</v>
       </c>
       <c r="F21" s="3">
-        <v>376700</v>
+        <v>100800</v>
       </c>
       <c r="G21" s="3">
-        <v>557100</v>
+        <v>378000</v>
       </c>
       <c r="H21" s="3">
-        <v>464300</v>
+        <v>559000</v>
       </c>
       <c r="I21" s="3">
-        <v>137600</v>
+        <v>465800</v>
       </c>
       <c r="J21" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K21" s="3">
         <v>322700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>352900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>153200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>327000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>255900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>335700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>231200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>169200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>194900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>222500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,126 +1560,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>219100</v>
+        <v>-53300</v>
       </c>
       <c r="E23" s="3">
+        <v>219900</v>
+      </c>
+      <c r="F23" s="3">
         <v>18200</v>
       </c>
-      <c r="F23" s="3">
-        <v>297200</v>
-      </c>
       <c r="G23" s="3">
-        <v>478600</v>
+        <v>298200</v>
       </c>
       <c r="H23" s="3">
-        <v>385300</v>
+        <v>480200</v>
       </c>
       <c r="I23" s="3">
-        <v>62200</v>
+        <v>386500</v>
       </c>
       <c r="J23" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K23" s="3">
         <v>247000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>288200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>263700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>193300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>274700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>171600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>136700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>168100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>38400</v>
+        <v>-22400</v>
       </c>
       <c r="E24" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
-        <v>70500</v>
-      </c>
       <c r="G24" s="3">
-        <v>33600</v>
+        <v>70700</v>
       </c>
       <c r="H24" s="3">
-        <v>-40900</v>
+        <v>33700</v>
       </c>
       <c r="I24" s="3">
-        <v>13900</v>
+        <v>-41000</v>
       </c>
       <c r="J24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K24" s="3">
         <v>44600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>180700</v>
+        <v>-31000</v>
       </c>
       <c r="E26" s="3">
+        <v>181300</v>
+      </c>
+      <c r="F26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
-        <v>226700</v>
-      </c>
       <c r="G26" s="3">
-        <v>445000</v>
+        <v>227500</v>
       </c>
       <c r="H26" s="3">
-        <v>426200</v>
+        <v>446500</v>
       </c>
       <c r="I26" s="3">
-        <v>48200</v>
+        <v>427500</v>
       </c>
       <c r="J26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K26" s="3">
         <v>202400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>218600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>191700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>142600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>88400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>95600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>177400</v>
+        <v>-28000</v>
       </c>
       <c r="E27" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F27" s="3">
         <v>12600</v>
       </c>
-      <c r="F27" s="3">
-        <v>223700</v>
-      </c>
       <c r="G27" s="3">
-        <v>444400</v>
+        <v>224500</v>
       </c>
       <c r="H27" s="3">
-        <v>423700</v>
+        <v>445900</v>
       </c>
       <c r="I27" s="3">
-        <v>48800</v>
+        <v>425100</v>
       </c>
       <c r="J27" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K27" s="3">
         <v>198500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>225000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>189000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>214600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>81500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>93200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>177400</v>
+        <v>-28000</v>
       </c>
       <c r="E33" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F33" s="3">
         <v>12600</v>
       </c>
-      <c r="F33" s="3">
-        <v>223700</v>
-      </c>
       <c r="G33" s="3">
-        <v>444400</v>
+        <v>224500</v>
       </c>
       <c r="H33" s="3">
-        <v>423700</v>
+        <v>445900</v>
       </c>
       <c r="I33" s="3">
-        <v>48800</v>
+        <v>425100</v>
       </c>
       <c r="J33" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K33" s="3">
         <v>198500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>225000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>189000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>111900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>84000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>88600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>93200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>177400</v>
+        <v>-28000</v>
       </c>
       <c r="E35" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F35" s="3">
         <v>12600</v>
       </c>
-      <c r="F35" s="3">
-        <v>223700</v>
-      </c>
       <c r="G35" s="3">
-        <v>444400</v>
+        <v>224500</v>
       </c>
       <c r="H35" s="3">
-        <v>423700</v>
+        <v>445900</v>
       </c>
       <c r="I35" s="3">
-        <v>48800</v>
+        <v>425100</v>
       </c>
       <c r="J35" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K35" s="3">
         <v>198500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>225000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>189000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>111900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>84000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>88600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>93200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,539 +2483,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1775000</v>
+        <v>2285900</v>
       </c>
       <c r="E41" s="3">
-        <v>2088600</v>
+        <v>1780800</v>
       </c>
       <c r="F41" s="3">
-        <v>2073000</v>
+        <v>2095500</v>
       </c>
       <c r="G41" s="3">
-        <v>2328900</v>
+        <v>2079800</v>
       </c>
       <c r="H41" s="3">
-        <v>1946800</v>
+        <v>2336500</v>
       </c>
       <c r="I41" s="3">
-        <v>1973000</v>
+        <v>1953200</v>
       </c>
       <c r="J41" s="3">
+        <v>1979500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2065500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2752600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2347000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2711100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2542800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2445500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1727000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1595400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1466000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1656700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1529400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6100</v>
       </c>
-      <c r="G42" s="3">
-        <v>14200</v>
-      </c>
       <c r="H42" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I42" s="3">
         <v>22500</v>
       </c>
-      <c r="I42" s="3">
-        <v>59700</v>
-      </c>
       <c r="J42" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K42" s="3">
         <v>62800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>173900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>169000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>168700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>447200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>359400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>399800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>380300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>335200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1850100</v>
+        <v>1473200</v>
       </c>
       <c r="E43" s="3">
-        <v>1676500</v>
+        <v>1856200</v>
       </c>
       <c r="F43" s="3">
-        <v>1685400</v>
+        <v>1682000</v>
       </c>
       <c r="G43" s="3">
-        <v>1649000</v>
+        <v>1690900</v>
       </c>
       <c r="H43" s="3">
-        <v>1801500</v>
+        <v>1654400</v>
       </c>
       <c r="I43" s="3">
-        <v>1502900</v>
+        <v>1807400</v>
       </c>
       <c r="J43" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1544100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1505300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1566000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1386600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1352300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1369300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1608700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1562400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1480200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1370400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1630200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>723100</v>
+        <v>782200</v>
       </c>
       <c r="E44" s="3">
-        <v>686400</v>
+        <v>725500</v>
       </c>
       <c r="F44" s="3">
-        <v>649600</v>
+        <v>688600</v>
       </c>
       <c r="G44" s="3">
-        <v>602100</v>
+        <v>651800</v>
       </c>
       <c r="H44" s="3">
-        <v>608500</v>
+        <v>604100</v>
       </c>
       <c r="I44" s="3">
-        <v>596600</v>
+        <v>610500</v>
       </c>
       <c r="J44" s="3">
+        <v>598500</v>
+      </c>
+      <c r="K44" s="3">
         <v>585800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>652400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>624300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>659800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>640100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>731600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>723500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>747100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>763400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>735100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>736700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>185600</v>
+        <v>219700</v>
       </c>
       <c r="E45" s="3">
-        <v>161200</v>
+        <v>186200</v>
       </c>
       <c r="F45" s="3">
-        <v>177300</v>
+        <v>161700</v>
       </c>
       <c r="G45" s="3">
-        <v>181800</v>
+        <v>177900</v>
       </c>
       <c r="H45" s="3">
-        <v>202000</v>
+        <v>182400</v>
       </c>
       <c r="I45" s="3">
-        <v>195000</v>
+        <v>202700</v>
       </c>
       <c r="J45" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K45" s="3">
         <v>211000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>414900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>298400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>291600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>129400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>161000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>151900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4539900</v>
+        <v>4763600</v>
       </c>
       <c r="E46" s="3">
-        <v>4621400</v>
+        <v>4554700</v>
       </c>
       <c r="F46" s="3">
-        <v>4591400</v>
+        <v>4636500</v>
       </c>
       <c r="G46" s="3">
-        <v>4776100</v>
+        <v>4606500</v>
       </c>
       <c r="H46" s="3">
-        <v>4581300</v>
+        <v>4791700</v>
       </c>
       <c r="I46" s="3">
-        <v>4327200</v>
+        <v>4596300</v>
       </c>
       <c r="J46" s="3">
+        <v>4341400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4469300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5397700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4909400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5229800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4995800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4844600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4634000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4403200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4270500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4294500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4331600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>382900</v>
+        <v>402700</v>
       </c>
       <c r="E47" s="3">
-        <v>393200</v>
+        <v>384200</v>
       </c>
       <c r="F47" s="3">
-        <v>387500</v>
+        <v>394500</v>
       </c>
       <c r="G47" s="3">
-        <v>364400</v>
+        <v>388800</v>
       </c>
       <c r="H47" s="3">
-        <v>436200</v>
+        <v>365600</v>
       </c>
       <c r="I47" s="3">
-        <v>455900</v>
+        <v>437600</v>
       </c>
       <c r="J47" s="3">
+        <v>457400</v>
+      </c>
+      <c r="K47" s="3">
         <v>458600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>509400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>457600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>502800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>464700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>432000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>467400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>529000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>514000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>483100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1314300</v>
+        <v>1479000</v>
       </c>
       <c r="E48" s="3">
-        <v>1310800</v>
+        <v>1318600</v>
       </c>
       <c r="F48" s="3">
-        <v>1321900</v>
+        <v>1315100</v>
       </c>
       <c r="G48" s="3">
-        <v>1324900</v>
+        <v>1326200</v>
       </c>
       <c r="H48" s="3">
-        <v>1273800</v>
+        <v>1329200</v>
       </c>
       <c r="I48" s="3">
-        <v>1238200</v>
+        <v>1278000</v>
       </c>
       <c r="J48" s="3">
+        <v>1242200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1264400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1010700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>891200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>872700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>888800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>931700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>937300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>940900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>938700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>918700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>907000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2455900</v>
+        <v>2577100</v>
       </c>
       <c r="E49" s="3">
-        <v>2508900</v>
+        <v>2464000</v>
       </c>
       <c r="F49" s="3">
-        <v>2477400</v>
+        <v>2517100</v>
       </c>
       <c r="G49" s="3">
-        <v>2516900</v>
+        <v>2485500</v>
       </c>
       <c r="H49" s="3">
-        <v>2636200</v>
+        <v>2525200</v>
       </c>
       <c r="I49" s="3">
-        <v>2587100</v>
+        <v>2644800</v>
       </c>
       <c r="J49" s="3">
+        <v>2595600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2573300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2597600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2591200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2612200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2520100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2462500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2589500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2588300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2594700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2541000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2590500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>728500</v>
+        <v>794900</v>
       </c>
       <c r="E52" s="3">
-        <v>752700</v>
+        <v>730900</v>
       </c>
       <c r="F52" s="3">
-        <v>750900</v>
+        <v>755200</v>
       </c>
       <c r="G52" s="3">
-        <v>746900</v>
+        <v>753400</v>
       </c>
       <c r="H52" s="3">
-        <v>703100</v>
+        <v>749400</v>
       </c>
       <c r="I52" s="3">
-        <v>644600</v>
+        <v>705400</v>
       </c>
       <c r="J52" s="3">
+        <v>646700</v>
+      </c>
+      <c r="K52" s="3">
         <v>634500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>781900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>835600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>817500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>826100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>812500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>847300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>891200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>906900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>905700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>898500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9421600</v>
+        <v>10017200</v>
       </c>
       <c r="E54" s="3">
-        <v>9587000</v>
+        <v>9452400</v>
       </c>
       <c r="F54" s="3">
-        <v>9529100</v>
+        <v>9618400</v>
       </c>
       <c r="G54" s="3">
-        <v>9729200</v>
+        <v>9560300</v>
       </c>
       <c r="H54" s="3">
-        <v>9630700</v>
+        <v>9761100</v>
       </c>
       <c r="I54" s="3">
-        <v>9253000</v>
+        <v>9662200</v>
       </c>
       <c r="J54" s="3">
+        <v>9283300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9400100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10297300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9685000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10035000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9695500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9483200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9475500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9352600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9224800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9142900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9228400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>642900</v>
+        <v>868900</v>
       </c>
       <c r="E57" s="3">
-        <v>713600</v>
+        <v>645000</v>
       </c>
       <c r="F57" s="3">
-        <v>566700</v>
+        <v>715900</v>
       </c>
       <c r="G57" s="3">
-        <v>704200</v>
+        <v>568600</v>
       </c>
       <c r="H57" s="3">
-        <v>552100</v>
+        <v>706500</v>
       </c>
       <c r="I57" s="3">
-        <v>484300</v>
+        <v>554000</v>
       </c>
       <c r="J57" s="3">
+        <v>485900</v>
+      </c>
+      <c r="K57" s="3">
         <v>534200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>745000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>485200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>484100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>478500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>615600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>522700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>509300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>502600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>627600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>586800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>367500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>320600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>320500</v>
+        <v>321600</v>
       </c>
       <c r="H58" s="3">
-        <v>540400</v>
+        <v>321600</v>
       </c>
       <c r="I58" s="3">
-        <v>554100</v>
+        <v>542100</v>
       </c>
       <c r="J58" s="3">
+        <v>555900</v>
+      </c>
+      <c r="K58" s="3">
         <v>366400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>470800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>377500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>371500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>263600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>148300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>627600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>556000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>554900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>443500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>65600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1110600</v>
+        <v>1116400</v>
       </c>
       <c r="E59" s="3">
-        <v>1148000</v>
+        <v>1114200</v>
       </c>
       <c r="F59" s="3">
-        <v>1233400</v>
+        <v>1151800</v>
       </c>
       <c r="G59" s="3">
-        <v>1283200</v>
+        <v>1237500</v>
       </c>
       <c r="H59" s="3">
-        <v>1432900</v>
+        <v>1287400</v>
       </c>
       <c r="I59" s="3">
-        <v>1464400</v>
+        <v>1437600</v>
       </c>
       <c r="J59" s="3">
+        <v>1469200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1439200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1626200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1724200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1627300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1525800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1420800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1003500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>957600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>954900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>913100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>880900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1753500</v>
+        <v>2352800</v>
       </c>
       <c r="E60" s="3">
-        <v>1861600</v>
+        <v>1759200</v>
       </c>
       <c r="F60" s="3">
-        <v>2120700</v>
+        <v>1867700</v>
       </c>
       <c r="G60" s="3">
-        <v>2308000</v>
+        <v>2127700</v>
       </c>
       <c r="H60" s="3">
-        <v>2525400</v>
+        <v>2315600</v>
       </c>
       <c r="I60" s="3">
-        <v>2502800</v>
+        <v>2533700</v>
       </c>
       <c r="J60" s="3">
+        <v>2511000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2339800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2842000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2586900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2482900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2267900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2184700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2153800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2022900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2012400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1984100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1533300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>823300</v>
+        <v>458700</v>
       </c>
       <c r="E61" s="3">
-        <v>823300</v>
+        <v>826000</v>
       </c>
       <c r="F61" s="3">
-        <v>503400</v>
+        <v>826000</v>
       </c>
       <c r="G61" s="3">
-        <v>503300</v>
+        <v>505000</v>
       </c>
       <c r="H61" s="3">
-        <v>503300</v>
+        <v>504900</v>
       </c>
       <c r="I61" s="3">
-        <v>503200</v>
+        <v>504900</v>
       </c>
       <c r="J61" s="3">
+        <v>504900</v>
+      </c>
+      <c r="K61" s="3">
         <v>823600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>864000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>848600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1151600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1481900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1416900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1435100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1434300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1477400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1450000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1904900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>458400</v>
+        <v>515900</v>
       </c>
       <c r="E62" s="3">
-        <v>464300</v>
+        <v>459900</v>
       </c>
       <c r="F62" s="3">
-        <v>462700</v>
+        <v>465800</v>
       </c>
       <c r="G62" s="3">
-        <v>481800</v>
+        <v>464200</v>
       </c>
       <c r="H62" s="3">
-        <v>473800</v>
+        <v>483400</v>
       </c>
       <c r="I62" s="3">
-        <v>441000</v>
+        <v>475400</v>
       </c>
       <c r="J62" s="3">
+        <v>442400</v>
+      </c>
+      <c r="K62" s="3">
         <v>446400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>325800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>356500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>328000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>315200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>330200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>363800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>362100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>356100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>363700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>369600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3264400</v>
+        <v>3554900</v>
       </c>
       <c r="E66" s="3">
-        <v>3374700</v>
+        <v>3275100</v>
       </c>
       <c r="F66" s="3">
-        <v>3312700</v>
+        <v>3385700</v>
       </c>
       <c r="G66" s="3">
-        <v>3517600</v>
+        <v>3323500</v>
       </c>
       <c r="H66" s="3">
-        <v>3726400</v>
+        <v>3529100</v>
       </c>
       <c r="I66" s="3">
-        <v>3668400</v>
+        <v>3738600</v>
       </c>
       <c r="J66" s="3">
+        <v>3680500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3832200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4261100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4023600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4190300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4285600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4117300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4137900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3995100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4015200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3957200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3964100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4631700</v>
+        <v>4668300</v>
       </c>
       <c r="E72" s="3">
-        <v>4667700</v>
+        <v>4646800</v>
       </c>
       <c r="F72" s="3">
-        <v>4652900</v>
+        <v>4683000</v>
       </c>
       <c r="G72" s="3">
-        <v>4629100</v>
+        <v>4668100</v>
       </c>
       <c r="H72" s="3">
-        <v>4230400</v>
+        <v>4644200</v>
       </c>
       <c r="I72" s="3">
-        <v>4032200</v>
+        <v>4244300</v>
       </c>
       <c r="J72" s="3">
+        <v>4045400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3982400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4213900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3897700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3990100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3700800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3751300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3515100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3565200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3472600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3503500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3467100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6157200</v>
+        <v>6462300</v>
       </c>
       <c r="E76" s="3">
-        <v>6212300</v>
+        <v>6177300</v>
       </c>
       <c r="F76" s="3">
-        <v>6216400</v>
+        <v>6232700</v>
       </c>
       <c r="G76" s="3">
-        <v>6211600</v>
+        <v>6236800</v>
       </c>
       <c r="H76" s="3">
-        <v>5904300</v>
+        <v>6232000</v>
       </c>
       <c r="I76" s="3">
-        <v>5584500</v>
+        <v>5923700</v>
       </c>
       <c r="J76" s="3">
+        <v>5602800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5567900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6036200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5661400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5844700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5409900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5366000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5337600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5357500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5209700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5185700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5264400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>177400</v>
+        <v>-28000</v>
       </c>
       <c r="E81" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F81" s="3">
         <v>12600</v>
       </c>
-      <c r="F81" s="3">
-        <v>223700</v>
-      </c>
       <c r="G81" s="3">
-        <v>444400</v>
+        <v>224500</v>
       </c>
       <c r="H81" s="3">
-        <v>423700</v>
+        <v>445900</v>
       </c>
       <c r="I81" s="3">
-        <v>48800</v>
+        <v>425100</v>
       </c>
       <c r="J81" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K81" s="3">
         <v>198500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>225000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>189000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>111900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>84000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>88600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>93200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>84000</v>
+        <v>87000</v>
       </c>
       <c r="E83" s="3">
-        <v>82300</v>
+        <v>84300</v>
       </c>
       <c r="F83" s="3">
-        <v>79500</v>
+        <v>82500</v>
       </c>
       <c r="G83" s="3">
-        <v>78500</v>
+        <v>79800</v>
       </c>
       <c r="H83" s="3">
-        <v>79100</v>
+        <v>78700</v>
       </c>
       <c r="I83" s="3">
-        <v>75400</v>
+        <v>79300</v>
       </c>
       <c r="J83" s="3">
         <v>75700</v>
       </c>
       <c r="K83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="L83" s="3">
         <v>64700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>62500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>59700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>58100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>31700</v>
+        <v>475600</v>
       </c>
       <c r="E89" s="3">
-        <v>78800</v>
+        <v>31800</v>
       </c>
       <c r="F89" s="3">
-        <v>92100</v>
+        <v>79000</v>
       </c>
       <c r="G89" s="3">
-        <v>673900</v>
+        <v>92400</v>
       </c>
       <c r="H89" s="3">
-        <v>190300</v>
+        <v>676100</v>
       </c>
       <c r="I89" s="3">
-        <v>114600</v>
+        <v>190900</v>
       </c>
       <c r="J89" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-37300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>415600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>99600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>349100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>112200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1002200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>236800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>147300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>295000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>140100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-15000</v>
+        <v>-43000</v>
       </c>
       <c r="E91" s="3">
-        <v>-36500</v>
+        <v>-15100</v>
       </c>
       <c r="F91" s="3">
-        <v>-81000</v>
+        <v>-36600</v>
       </c>
       <c r="G91" s="3">
-        <v>-50900</v>
+        <v>-81200</v>
       </c>
       <c r="H91" s="3">
-        <v>-23800</v>
+        <v>-51100</v>
       </c>
       <c r="I91" s="3">
-        <v>-23500</v>
+        <v>-23900</v>
       </c>
       <c r="J91" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-41600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-105900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-94800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-125100</v>
+        <v>-53400</v>
       </c>
       <c r="E94" s="3">
-        <v>-45000</v>
+        <v>-125500</v>
       </c>
       <c r="F94" s="3">
-        <v>-114500</v>
+        <v>-45200</v>
       </c>
       <c r="G94" s="3">
+        <v>-114800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-26300</v>
-      </c>
       <c r="I94" s="3">
-        <v>-31600</v>
+        <v>-26400</v>
       </c>
       <c r="J94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-184500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>71000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>245700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-94400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-152100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-217000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,67 +5546,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-210100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-210800</v>
       </c>
       <c r="F96" s="3">
-        <v>-210100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-210800</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-210000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-210000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-189300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-208200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-181100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-207000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-177600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-232500</v>
+        <v>-20900</v>
       </c>
       <c r="E100" s="3">
-        <v>-26200</v>
+        <v>-233300</v>
       </c>
       <c r="F100" s="3">
-        <v>-232600</v>
+        <v>-26300</v>
       </c>
       <c r="G100" s="3">
-        <v>-237900</v>
+        <v>-233300</v>
       </c>
       <c r="H100" s="3">
-        <v>-247900</v>
+        <v>-238700</v>
       </c>
       <c r="I100" s="3">
-        <v>-149100</v>
+        <v>-248700</v>
       </c>
       <c r="J100" s="3">
+        <v>-149600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-313400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>86200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-506100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-270700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-477900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-183800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>12300</v>
+        <v>103800</v>
       </c>
       <c r="E101" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F101" s="3">
         <v>8100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-43200</v>
-      </c>
       <c r="H101" s="3">
-        <v>57600</v>
+        <v>-43300</v>
       </c>
       <c r="I101" s="3">
-        <v>-26400</v>
+        <v>57800</v>
       </c>
       <c r="J101" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-73300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-72400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>60400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>35400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>97700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-313600</v>
+        <v>505100</v>
       </c>
       <c r="E102" s="3">
+        <v>-314700</v>
+      </c>
+      <c r="F102" s="3">
         <v>15700</v>
       </c>
-      <c r="F102" s="3">
-        <v>-255900</v>
-      </c>
       <c r="G102" s="3">
-        <v>382100</v>
+        <v>-256700</v>
       </c>
       <c r="H102" s="3">
-        <v>-26200</v>
+        <v>383300</v>
       </c>
       <c r="I102" s="3">
-        <v>-92500</v>
+        <v>-26300</v>
       </c>
       <c r="J102" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-608500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>416200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-407900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>83700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>718500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>131700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>129400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-222400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>127300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-162900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1356500</v>
+        <v>1811900</v>
       </c>
       <c r="E8" s="3">
-        <v>1666000</v>
+        <v>1344700</v>
       </c>
       <c r="F8" s="3">
-        <v>1391900</v>
+        <v>1651500</v>
       </c>
       <c r="G8" s="3">
-        <v>1521700</v>
+        <v>1379800</v>
       </c>
       <c r="H8" s="3">
-        <v>1925800</v>
+        <v>1508500</v>
       </c>
       <c r="I8" s="3">
-        <v>1716700</v>
+        <v>1909100</v>
       </c>
       <c r="J8" s="3">
+        <v>1701700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1335000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1410600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1687300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1483300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1456900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1393500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1447400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1294700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1282400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1152000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1235800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>378200</v>
+        <v>357600</v>
       </c>
       <c r="E9" s="3">
-        <v>371700</v>
+        <v>374900</v>
       </c>
       <c r="F9" s="3">
-        <v>380700</v>
+        <v>368500</v>
       </c>
       <c r="G9" s="3">
-        <v>351800</v>
+        <v>377400</v>
       </c>
       <c r="H9" s="3">
-        <v>445800</v>
+        <v>348700</v>
       </c>
       <c r="I9" s="3">
-        <v>404400</v>
+        <v>441900</v>
       </c>
       <c r="J9" s="3">
+        <v>400800</v>
+      </c>
+      <c r="K9" s="3">
         <v>370300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>392900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>410900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>469300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>408600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>436700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>407400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>488500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>476900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>446600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>426100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>440600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>978400</v>
+        <v>1454400</v>
       </c>
       <c r="E10" s="3">
-        <v>1294300</v>
+        <v>969900</v>
       </c>
       <c r="F10" s="3">
-        <v>1011200</v>
+        <v>1283000</v>
       </c>
       <c r="G10" s="3">
-        <v>1169900</v>
+        <v>1002400</v>
       </c>
       <c r="H10" s="3">
-        <v>1480000</v>
+        <v>1159700</v>
       </c>
       <c r="I10" s="3">
-        <v>1312300</v>
+        <v>1467100</v>
       </c>
       <c r="J10" s="3">
+        <v>1300900</v>
+      </c>
+      <c r="K10" s="3">
         <v>964700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1017800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1276400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1014000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1048300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>956800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1040100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>911500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>817800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>835800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>725900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>795200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +973,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>387100</v>
+        <v>380900</v>
       </c>
       <c r="E12" s="3">
-        <v>373500</v>
+        <v>383800</v>
       </c>
       <c r="F12" s="3">
-        <v>340000</v>
+        <v>370300</v>
       </c>
       <c r="G12" s="3">
-        <v>280600</v>
+        <v>337100</v>
       </c>
       <c r="H12" s="3">
-        <v>340700</v>
+        <v>278100</v>
       </c>
       <c r="I12" s="3">
-        <v>321900</v>
+        <v>337700</v>
       </c>
       <c r="J12" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K12" s="3">
         <v>354700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>269600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>416400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>344700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>286800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>310200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>339700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>324400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>297600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>292300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>217900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1101,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1166,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1231,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1411000</v>
+        <v>1307200</v>
       </c>
       <c r="E17" s="3">
-        <v>1449000</v>
+        <v>1398700</v>
       </c>
       <c r="F17" s="3">
-        <v>1373900</v>
+        <v>1436400</v>
       </c>
       <c r="G17" s="3">
-        <v>1226500</v>
+        <v>1362000</v>
       </c>
       <c r="H17" s="3">
-        <v>1446400</v>
+        <v>1215800</v>
       </c>
       <c r="I17" s="3">
-        <v>1337000</v>
+        <v>1433800</v>
       </c>
       <c r="J17" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1278100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1174100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1408200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1198700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1206500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1171600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1228500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1180800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1145600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1139300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1066900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-54500</v>
+        <v>504800</v>
       </c>
       <c r="E18" s="3">
-        <v>217000</v>
+        <v>-54000</v>
       </c>
       <c r="F18" s="3">
-        <v>18000</v>
+        <v>215100</v>
       </c>
       <c r="G18" s="3">
-        <v>295200</v>
+        <v>17800</v>
       </c>
       <c r="H18" s="3">
-        <v>479400</v>
+        <v>292600</v>
       </c>
       <c r="I18" s="3">
-        <v>379700</v>
+        <v>475200</v>
       </c>
       <c r="J18" s="3">
+        <v>376400</v>
+      </c>
+      <c r="K18" s="3">
         <v>56900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>236600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>279100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>258200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>187100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>275800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>171500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>136800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,132 +1410,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>2900</v>
-      </c>
       <c r="F20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>6800</v>
-      </c>
       <c r="J20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>33700</v>
+        <v>594300</v>
       </c>
       <c r="E21" s="3">
-        <v>304100</v>
+        <v>33400</v>
       </c>
       <c r="F21" s="3">
-        <v>100800</v>
+        <v>301500</v>
       </c>
       <c r="G21" s="3">
-        <v>378000</v>
+        <v>99900</v>
       </c>
       <c r="H21" s="3">
-        <v>559000</v>
+        <v>374700</v>
       </c>
       <c r="I21" s="3">
-        <v>465800</v>
+        <v>554100</v>
       </c>
       <c r="J21" s="3">
+        <v>461800</v>
+      </c>
+      <c r="K21" s="3">
         <v>138000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>322700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>352900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>153200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>327000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>255900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>335700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>231200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>169200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>194900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>222500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,132 +1603,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-53300</v>
+        <v>508200</v>
       </c>
       <c r="E23" s="3">
-        <v>219900</v>
+        <v>-52900</v>
       </c>
       <c r="F23" s="3">
-        <v>18200</v>
+        <v>217900</v>
       </c>
       <c r="G23" s="3">
-        <v>298200</v>
+        <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>480200</v>
+        <v>295600</v>
       </c>
       <c r="I23" s="3">
-        <v>386500</v>
+        <v>476000</v>
       </c>
       <c r="J23" s="3">
+        <v>383200</v>
+      </c>
+      <c r="K23" s="3">
         <v>62400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>247000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>288200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>263700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>193300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>274700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>171600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>136700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>168100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-22400</v>
+        <v>122800</v>
       </c>
       <c r="E24" s="3">
-        <v>38500</v>
+        <v>-22200</v>
       </c>
       <c r="F24" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
-        <v>70700</v>
-      </c>
       <c r="H24" s="3">
-        <v>33700</v>
+        <v>70100</v>
       </c>
       <c r="I24" s="3">
-        <v>-41000</v>
+        <v>33400</v>
       </c>
       <c r="J24" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>78400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-6200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-31000</v>
+        <v>385400</v>
       </c>
       <c r="E26" s="3">
-        <v>181300</v>
+        <v>-30700</v>
       </c>
       <c r="F26" s="3">
-        <v>12600</v>
+        <v>179700</v>
       </c>
       <c r="G26" s="3">
-        <v>227500</v>
+        <v>12500</v>
       </c>
       <c r="H26" s="3">
-        <v>446500</v>
+        <v>225500</v>
       </c>
       <c r="I26" s="3">
-        <v>427500</v>
+        <v>442600</v>
       </c>
       <c r="J26" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K26" s="3">
         <v>48400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>202400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>218600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>191700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>142600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>88400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>95600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-28000</v>
+        <v>384100</v>
       </c>
       <c r="E27" s="3">
-        <v>178000</v>
+        <v>-27800</v>
       </c>
       <c r="F27" s="3">
-        <v>12600</v>
+        <v>176500</v>
       </c>
       <c r="G27" s="3">
-        <v>224500</v>
+        <v>12500</v>
       </c>
       <c r="H27" s="3">
-        <v>445900</v>
+        <v>222500</v>
       </c>
       <c r="I27" s="3">
-        <v>425100</v>
+        <v>442000</v>
       </c>
       <c r="J27" s="3">
+        <v>421400</v>
+      </c>
+      <c r="K27" s="3">
         <v>48900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>225000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>189000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>214600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>84000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>81500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>93200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-28000</v>
+        <v>384100</v>
       </c>
       <c r="E33" s="3">
-        <v>178000</v>
+        <v>-27800</v>
       </c>
       <c r="F33" s="3">
-        <v>12600</v>
+        <v>176500</v>
       </c>
       <c r="G33" s="3">
-        <v>224500</v>
+        <v>12500</v>
       </c>
       <c r="H33" s="3">
-        <v>445900</v>
+        <v>222500</v>
       </c>
       <c r="I33" s="3">
-        <v>425100</v>
+        <v>442000</v>
       </c>
       <c r="J33" s="3">
+        <v>421400</v>
+      </c>
+      <c r="K33" s="3">
         <v>48900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>225000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>189000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>111900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>84000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>93200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-28000</v>
+        <v>384100</v>
       </c>
       <c r="E35" s="3">
-        <v>178000</v>
+        <v>-27800</v>
       </c>
       <c r="F35" s="3">
-        <v>12600</v>
+        <v>176500</v>
       </c>
       <c r="G35" s="3">
-        <v>224500</v>
+        <v>12500</v>
       </c>
       <c r="H35" s="3">
-        <v>445900</v>
+        <v>222500</v>
       </c>
       <c r="I35" s="3">
-        <v>425100</v>
+        <v>442000</v>
       </c>
       <c r="J35" s="3">
+        <v>421400</v>
+      </c>
+      <c r="K35" s="3">
         <v>48900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>225000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>189000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>111900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>84000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>93200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,566 +2570,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2285900</v>
+        <v>1941200</v>
       </c>
       <c r="E41" s="3">
-        <v>1780800</v>
+        <v>1885600</v>
       </c>
       <c r="F41" s="3">
-        <v>2095500</v>
+        <v>1765300</v>
       </c>
       <c r="G41" s="3">
-        <v>2079800</v>
+        <v>2077200</v>
       </c>
       <c r="H41" s="3">
-        <v>2336500</v>
+        <v>2061700</v>
       </c>
       <c r="I41" s="3">
-        <v>1953200</v>
+        <v>2316200</v>
       </c>
       <c r="J41" s="3">
+        <v>1936200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1979500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2065500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2752600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2347000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2711100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2542800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2445500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1727000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1595400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1466000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1656700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1529400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="3">
+        <v>382800</v>
+      </c>
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
-        <v>8700</v>
-      </c>
       <c r="G42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H42" s="3">
         <v>6100</v>
       </c>
-      <c r="H42" s="3">
-        <v>14300</v>
-      </c>
       <c r="I42" s="3">
-        <v>22500</v>
+        <v>14200</v>
       </c>
       <c r="J42" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K42" s="3">
         <v>59900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>62800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>173900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>169000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>168700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>447200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>359400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>399800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>380300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>335200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1473200</v>
+        <v>2153000</v>
       </c>
       <c r="E43" s="3">
-        <v>1856200</v>
+        <v>1460400</v>
       </c>
       <c r="F43" s="3">
-        <v>1682000</v>
+        <v>1840000</v>
       </c>
       <c r="G43" s="3">
-        <v>1690900</v>
+        <v>1667400</v>
       </c>
       <c r="H43" s="3">
-        <v>1654400</v>
+        <v>1676200</v>
       </c>
       <c r="I43" s="3">
-        <v>1807400</v>
+        <v>1640000</v>
       </c>
       <c r="J43" s="3">
+        <v>1791700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1507800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1544100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1505300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1566000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1386600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1352300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1369300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1608700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1562400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1480200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1370400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1630200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>782200</v>
+        <v>818600</v>
       </c>
       <c r="E44" s="3">
-        <v>725500</v>
+        <v>775400</v>
       </c>
       <c r="F44" s="3">
-        <v>688600</v>
+        <v>719200</v>
       </c>
       <c r="G44" s="3">
-        <v>651800</v>
+        <v>682600</v>
       </c>
       <c r="H44" s="3">
-        <v>604100</v>
+        <v>646100</v>
       </c>
       <c r="I44" s="3">
-        <v>610500</v>
+        <v>598800</v>
       </c>
       <c r="J44" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K44" s="3">
         <v>598500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>585800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>652400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>624300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>659800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>640100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>731600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>723500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>747100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>763400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>735100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>736700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>219700</v>
+        <v>207200</v>
       </c>
       <c r="E45" s="3">
-        <v>186200</v>
+        <v>217800</v>
       </c>
       <c r="F45" s="3">
-        <v>161700</v>
+        <v>184500</v>
       </c>
       <c r="G45" s="3">
-        <v>177900</v>
+        <v>160300</v>
       </c>
       <c r="H45" s="3">
-        <v>182400</v>
+        <v>176400</v>
       </c>
       <c r="I45" s="3">
-        <v>202700</v>
+        <v>180800</v>
       </c>
       <c r="J45" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K45" s="3">
         <v>195700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>211000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>414900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>298400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>291600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>129400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>127600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>161000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>151900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4763600</v>
+        <v>5124400</v>
       </c>
       <c r="E46" s="3">
-        <v>4554700</v>
+        <v>4722100</v>
       </c>
       <c r="F46" s="3">
-        <v>4636500</v>
+        <v>4515100</v>
       </c>
       <c r="G46" s="3">
-        <v>4606500</v>
+        <v>4596200</v>
       </c>
       <c r="H46" s="3">
-        <v>4791700</v>
+        <v>4566400</v>
       </c>
       <c r="I46" s="3">
-        <v>4596300</v>
+        <v>4750000</v>
       </c>
       <c r="J46" s="3">
+        <v>4556300</v>
+      </c>
+      <c r="K46" s="3">
         <v>4341400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4469300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5397700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4909400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5229800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4995800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4844600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4634000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4403200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4270500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4294500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4331600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>402700</v>
+        <v>368700</v>
       </c>
       <c r="E47" s="3">
-        <v>384200</v>
+        <v>399200</v>
       </c>
       <c r="F47" s="3">
-        <v>394500</v>
+        <v>380800</v>
       </c>
       <c r="G47" s="3">
-        <v>388800</v>
+        <v>391100</v>
       </c>
       <c r="H47" s="3">
-        <v>365600</v>
+        <v>385400</v>
       </c>
       <c r="I47" s="3">
-        <v>437600</v>
+        <v>362400</v>
       </c>
       <c r="J47" s="3">
+        <v>433800</v>
+      </c>
+      <c r="K47" s="3">
         <v>457400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>458600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>509400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>457600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>502800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>464700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>432000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>467400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>529000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>514000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>483100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>500900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1479000</v>
+        <v>1449200</v>
       </c>
       <c r="E48" s="3">
-        <v>1318600</v>
+        <v>1466100</v>
       </c>
       <c r="F48" s="3">
-        <v>1315100</v>
+        <v>1307100</v>
       </c>
       <c r="G48" s="3">
-        <v>1326200</v>
+        <v>1303700</v>
       </c>
       <c r="H48" s="3">
-        <v>1329200</v>
+        <v>1314700</v>
       </c>
       <c r="I48" s="3">
-        <v>1278000</v>
+        <v>1317700</v>
       </c>
       <c r="J48" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1242200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1264400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1010700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>891200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>872700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>888800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>931700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>937300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>940900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>938700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>918700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>907000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2577100</v>
+        <v>2573700</v>
       </c>
       <c r="E49" s="3">
-        <v>2464000</v>
+        <v>2554700</v>
       </c>
       <c r="F49" s="3">
-        <v>2517100</v>
+        <v>2442500</v>
       </c>
       <c r="G49" s="3">
-        <v>2485500</v>
+        <v>2495200</v>
       </c>
       <c r="H49" s="3">
-        <v>2525200</v>
+        <v>2463900</v>
       </c>
       <c r="I49" s="3">
-        <v>2644800</v>
+        <v>2503200</v>
       </c>
       <c r="J49" s="3">
+        <v>2621800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2595600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2573300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2597600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2591200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2612200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2520100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2462500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2589500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2588300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2594700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2541000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2590500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>794900</v>
+        <v>772300</v>
       </c>
       <c r="E52" s="3">
-        <v>730900</v>
+        <v>787900</v>
       </c>
       <c r="F52" s="3">
-        <v>755200</v>
+        <v>724600</v>
       </c>
       <c r="G52" s="3">
-        <v>753400</v>
+        <v>748600</v>
       </c>
       <c r="H52" s="3">
-        <v>749400</v>
+        <v>746800</v>
       </c>
       <c r="I52" s="3">
-        <v>705400</v>
+        <v>742800</v>
       </c>
       <c r="J52" s="3">
+        <v>699300</v>
+      </c>
+      <c r="K52" s="3">
         <v>646700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>634500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>781900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>835600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>817500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>826100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>812500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>847300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>891200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>906900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>905700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>898500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10017200</v>
+        <v>10288300</v>
       </c>
       <c r="E54" s="3">
-        <v>9452400</v>
+        <v>9930000</v>
       </c>
       <c r="F54" s="3">
-        <v>9618400</v>
+        <v>9370100</v>
       </c>
       <c r="G54" s="3">
-        <v>9560300</v>
+        <v>9534700</v>
       </c>
       <c r="H54" s="3">
-        <v>9761100</v>
+        <v>9477100</v>
       </c>
       <c r="I54" s="3">
-        <v>9662200</v>
+        <v>9676100</v>
       </c>
       <c r="J54" s="3">
+        <v>9578100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9283300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9400100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10297300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9685000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10035000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9695500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9483200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9475500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9352600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9224800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9142900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9228400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>868900</v>
+        <v>735900</v>
       </c>
       <c r="E57" s="3">
-        <v>645000</v>
+        <v>257800</v>
       </c>
       <c r="F57" s="3">
-        <v>715900</v>
+        <v>639400</v>
       </c>
       <c r="G57" s="3">
-        <v>568600</v>
+        <v>709700</v>
       </c>
       <c r="H57" s="3">
-        <v>706500</v>
+        <v>563600</v>
       </c>
       <c r="I57" s="3">
-        <v>554000</v>
+        <v>700400</v>
       </c>
       <c r="J57" s="3">
+        <v>549100</v>
+      </c>
+      <c r="K57" s="3">
         <v>485900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>745000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>485200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>484100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>478500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>615600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>522700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>509300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>502600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>627600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>586800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>367500</v>
+        <v>389600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>364300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>321600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>321600</v>
+        <v>318800</v>
       </c>
       <c r="I58" s="3">
-        <v>542100</v>
+        <v>318800</v>
       </c>
       <c r="J58" s="3">
+        <v>537400</v>
+      </c>
+      <c r="K58" s="3">
         <v>555900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>366400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>470800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>377500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>371500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>263600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>148300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>627600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>556000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>554900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>443500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>65600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1116400</v>
+        <v>1406500</v>
       </c>
       <c r="E59" s="3">
-        <v>1114200</v>
+        <v>1710200</v>
       </c>
       <c r="F59" s="3">
-        <v>1151800</v>
+        <v>1104500</v>
       </c>
       <c r="G59" s="3">
-        <v>1237500</v>
+        <v>1141800</v>
       </c>
       <c r="H59" s="3">
-        <v>1287400</v>
+        <v>1226700</v>
       </c>
       <c r="I59" s="3">
-        <v>1437600</v>
+        <v>1276200</v>
       </c>
       <c r="J59" s="3">
+        <v>1425100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1469200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1439200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1626200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1724200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1627300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1525800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1420800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1003500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>957600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>954900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>913100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>880900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2352800</v>
+        <v>2532000</v>
       </c>
       <c r="E60" s="3">
-        <v>1759200</v>
+        <v>2332300</v>
       </c>
       <c r="F60" s="3">
-        <v>1867700</v>
+        <v>1743900</v>
       </c>
       <c r="G60" s="3">
-        <v>2127700</v>
+        <v>1851400</v>
       </c>
       <c r="H60" s="3">
-        <v>2315600</v>
+        <v>2109100</v>
       </c>
       <c r="I60" s="3">
-        <v>2533700</v>
+        <v>2295400</v>
       </c>
       <c r="J60" s="3">
+        <v>2511700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2511000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2339800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2842000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2586900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2482900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2267900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2184700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2153800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2022900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2012400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1984100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1533300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>458700</v>
+        <v>454700</v>
       </c>
       <c r="E61" s="3">
-        <v>826000</v>
+        <v>454700</v>
       </c>
       <c r="F61" s="3">
-        <v>826000</v>
+        <v>818800</v>
       </c>
       <c r="G61" s="3">
-        <v>505000</v>
+        <v>818800</v>
       </c>
       <c r="H61" s="3">
+        <v>500600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>500500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>500500</v>
+      </c>
+      <c r="K61" s="3">
         <v>504900</v>
       </c>
-      <c r="I61" s="3">
-        <v>504900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>504900</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>823600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>864000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>848600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1151600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1481900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1416900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1435100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1434300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1477400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1450000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1904900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>515900</v>
+        <v>493200</v>
       </c>
       <c r="E62" s="3">
-        <v>459900</v>
+        <v>511500</v>
       </c>
       <c r="F62" s="3">
-        <v>465800</v>
+        <v>455900</v>
       </c>
       <c r="G62" s="3">
-        <v>464200</v>
+        <v>461700</v>
       </c>
       <c r="H62" s="3">
-        <v>483400</v>
+        <v>460200</v>
       </c>
       <c r="I62" s="3">
-        <v>475400</v>
+        <v>479200</v>
       </c>
       <c r="J62" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K62" s="3">
         <v>442400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>446400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>325800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>356500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>328000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>315200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>330200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>363800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>362100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>356100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>363700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>369600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3554900</v>
+        <v>3705800</v>
       </c>
       <c r="E66" s="3">
-        <v>3275100</v>
+        <v>3524000</v>
       </c>
       <c r="F66" s="3">
-        <v>3385700</v>
+        <v>3246600</v>
       </c>
       <c r="G66" s="3">
-        <v>3323500</v>
+        <v>3356300</v>
       </c>
       <c r="H66" s="3">
-        <v>3529100</v>
+        <v>3294600</v>
       </c>
       <c r="I66" s="3">
-        <v>3738600</v>
+        <v>3498400</v>
       </c>
       <c r="J66" s="3">
+        <v>3706000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3680500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3832200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4261100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4023600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4190300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4285600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4117300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4137900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3995100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4015200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3957200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3964100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4668300</v>
+        <v>4792100</v>
       </c>
       <c r="E72" s="3">
-        <v>4646800</v>
+        <v>4627700</v>
       </c>
       <c r="F72" s="3">
-        <v>4683000</v>
+        <v>4606400</v>
       </c>
       <c r="G72" s="3">
-        <v>4668100</v>
+        <v>4642300</v>
       </c>
       <c r="H72" s="3">
-        <v>4644200</v>
+        <v>4627500</v>
       </c>
       <c r="I72" s="3">
-        <v>4244300</v>
+        <v>4603800</v>
       </c>
       <c r="J72" s="3">
+        <v>4207300</v>
+      </c>
+      <c r="K72" s="3">
         <v>4045400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3982400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4213900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3897700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3990100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3700800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3751300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3515100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3565200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3472600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3503500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3467100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6462300</v>
+        <v>6582400</v>
       </c>
       <c r="E76" s="3">
-        <v>6177300</v>
+        <v>6406000</v>
       </c>
       <c r="F76" s="3">
-        <v>6232700</v>
+        <v>6123500</v>
       </c>
       <c r="G76" s="3">
-        <v>6236800</v>
+        <v>6178400</v>
       </c>
       <c r="H76" s="3">
-        <v>6232000</v>
+        <v>6182500</v>
       </c>
       <c r="I76" s="3">
-        <v>5923700</v>
+        <v>6177700</v>
       </c>
       <c r="J76" s="3">
+        <v>5872100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5602800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5567900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6036200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5661400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5844700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5409900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5366000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5337600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5357500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5209700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5185700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5264400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-28000</v>
+        <v>384100</v>
       </c>
       <c r="E81" s="3">
-        <v>178000</v>
+        <v>-27800</v>
       </c>
       <c r="F81" s="3">
-        <v>12600</v>
+        <v>176500</v>
       </c>
       <c r="G81" s="3">
-        <v>224500</v>
+        <v>12500</v>
       </c>
       <c r="H81" s="3">
-        <v>445900</v>
+        <v>222500</v>
       </c>
       <c r="I81" s="3">
-        <v>425100</v>
+        <v>442000</v>
       </c>
       <c r="J81" s="3">
+        <v>421400</v>
+      </c>
+      <c r="K81" s="3">
         <v>48900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>225000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>189000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>111900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>84000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>93200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>87000</v>
+        <v>86100</v>
       </c>
       <c r="E83" s="3">
-        <v>84300</v>
+        <v>86300</v>
       </c>
       <c r="F83" s="3">
-        <v>82500</v>
+        <v>83500</v>
       </c>
       <c r="G83" s="3">
-        <v>79800</v>
+        <v>81800</v>
       </c>
       <c r="H83" s="3">
-        <v>78700</v>
+        <v>79100</v>
       </c>
       <c r="I83" s="3">
-        <v>79300</v>
+        <v>78100</v>
       </c>
       <c r="J83" s="3">
-        <v>75700</v>
+        <v>78600</v>
       </c>
       <c r="K83" s="3">
         <v>75700</v>
       </c>
       <c r="L83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="M83" s="3">
         <v>64700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>62500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>58100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>54400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>475600</v>
+        <v>-130000</v>
       </c>
       <c r="E89" s="3">
-        <v>31800</v>
+        <v>471400</v>
       </c>
       <c r="F89" s="3">
-        <v>79000</v>
+        <v>31500</v>
       </c>
       <c r="G89" s="3">
-        <v>92400</v>
+        <v>78300</v>
       </c>
       <c r="H89" s="3">
-        <v>676100</v>
+        <v>91600</v>
       </c>
       <c r="I89" s="3">
-        <v>190900</v>
+        <v>670200</v>
       </c>
       <c r="J89" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K89" s="3">
         <v>115000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>415600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>99600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>349100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>112200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1002200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>236800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>147300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>295000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>140100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-43000</v>
+        <v>-110400</v>
       </c>
       <c r="E91" s="3">
-        <v>-15100</v>
+        <v>-42700</v>
       </c>
       <c r="F91" s="3">
-        <v>-36600</v>
+        <v>-14900</v>
       </c>
       <c r="G91" s="3">
-        <v>-81200</v>
+        <v>-36300</v>
       </c>
       <c r="H91" s="3">
-        <v>-51100</v>
+        <v>-80500</v>
       </c>
       <c r="I91" s="3">
-        <v>-23900</v>
+        <v>-50600</v>
       </c>
       <c r="J91" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-105900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-94800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-53400</v>
+        <v>1100</v>
       </c>
       <c r="E94" s="3">
-        <v>-125500</v>
+        <v>-52900</v>
       </c>
       <c r="F94" s="3">
-        <v>-45200</v>
+        <v>-124400</v>
       </c>
       <c r="G94" s="3">
-        <v>-114800</v>
+        <v>-44800</v>
       </c>
       <c r="H94" s="3">
-        <v>-10700</v>
+        <v>-113800</v>
       </c>
       <c r="I94" s="3">
-        <v>-26400</v>
+        <v>-10600</v>
       </c>
       <c r="J94" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-184500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-105300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>71000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>245700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-94400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-152100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-217000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,70 +5780,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-209000</v>
       </c>
       <c r="E96" s="3">
-        <v>-210800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-208900</v>
       </c>
       <c r="G96" s="3">
-        <v>-210800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-208900</v>
       </c>
       <c r="I96" s="3">
-        <v>-210700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-208900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-210000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-189300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-208200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-181100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-207000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-177600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-20900</v>
+        <v>-205300</v>
       </c>
       <c r="E100" s="3">
-        <v>-233300</v>
+        <v>-20700</v>
       </c>
       <c r="F100" s="3">
-        <v>-26300</v>
+        <v>-231300</v>
       </c>
       <c r="G100" s="3">
-        <v>-233300</v>
+        <v>-26100</v>
       </c>
       <c r="H100" s="3">
-        <v>-238700</v>
+        <v>-231300</v>
       </c>
       <c r="I100" s="3">
-        <v>-248700</v>
+        <v>-236600</v>
       </c>
       <c r="J100" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-149600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-313400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-506100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-270700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-477900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-111300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-183800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>103800</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>102900</v>
       </c>
       <c r="F101" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G101" s="3">
         <v>8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
-        <v>-43300</v>
-      </c>
       <c r="I101" s="3">
-        <v>57800</v>
+        <v>-42900</v>
       </c>
       <c r="J101" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-73300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-72400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>60400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>35400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-51500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>97700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>505100</v>
+        <v>-324800</v>
       </c>
       <c r="E102" s="3">
-        <v>-314700</v>
+        <v>500700</v>
       </c>
       <c r="F102" s="3">
-        <v>15700</v>
+        <v>-311900</v>
       </c>
       <c r="G102" s="3">
-        <v>-256700</v>
+        <v>15600</v>
       </c>
       <c r="H102" s="3">
-        <v>383300</v>
+        <v>-254500</v>
       </c>
       <c r="I102" s="3">
-        <v>-26300</v>
+        <v>380000</v>
       </c>
       <c r="J102" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-92800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-608500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>416200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-407900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>112300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>83700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>718500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>131700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>129400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-222400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>127300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-162900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1811900</v>
+        <v>1440100</v>
       </c>
       <c r="E8" s="3">
-        <v>1344700</v>
+        <v>1752300</v>
       </c>
       <c r="F8" s="3">
-        <v>1651500</v>
+        <v>1300400</v>
       </c>
       <c r="G8" s="3">
-        <v>1379800</v>
+        <v>1597100</v>
       </c>
       <c r="H8" s="3">
-        <v>1508500</v>
+        <v>1334400</v>
       </c>
       <c r="I8" s="3">
-        <v>1909100</v>
+        <v>1458800</v>
       </c>
       <c r="J8" s="3">
+        <v>1846200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1701700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1335000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1410600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1687300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1483300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1456900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1393500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1447400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1294700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1282400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1152000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1235800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357600</v>
+        <v>357900</v>
       </c>
       <c r="E9" s="3">
-        <v>374900</v>
+        <v>345800</v>
       </c>
       <c r="F9" s="3">
-        <v>368500</v>
+        <v>362500</v>
       </c>
       <c r="G9" s="3">
-        <v>377400</v>
+        <v>356400</v>
       </c>
       <c r="H9" s="3">
-        <v>348700</v>
+        <v>365000</v>
       </c>
       <c r="I9" s="3">
-        <v>441900</v>
+        <v>337300</v>
       </c>
       <c r="J9" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K9" s="3">
         <v>400800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>370300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>392900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>410900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>469300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>408600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>436700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>407400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>488500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>476900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>446600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>426100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>440600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1454400</v>
+        <v>1082200</v>
       </c>
       <c r="E10" s="3">
-        <v>969900</v>
+        <v>1406500</v>
       </c>
       <c r="F10" s="3">
-        <v>1283000</v>
+        <v>937900</v>
       </c>
       <c r="G10" s="3">
-        <v>1002400</v>
+        <v>1240800</v>
       </c>
       <c r="H10" s="3">
-        <v>1159700</v>
+        <v>969400</v>
       </c>
       <c r="I10" s="3">
-        <v>1467100</v>
+        <v>1121500</v>
       </c>
       <c r="J10" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1300900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>964700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1017800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1276400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1014000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1048300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>956800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1040100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>911500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>817800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>835800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>725900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>795200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>380900</v>
+        <v>335800</v>
       </c>
       <c r="E12" s="3">
-        <v>383800</v>
+        <v>368400</v>
       </c>
       <c r="F12" s="3">
-        <v>370300</v>
+        <v>371100</v>
       </c>
       <c r="G12" s="3">
-        <v>337100</v>
+        <v>358100</v>
       </c>
       <c r="H12" s="3">
-        <v>278100</v>
+        <v>326000</v>
       </c>
       <c r="I12" s="3">
-        <v>337700</v>
+        <v>269000</v>
       </c>
       <c r="J12" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K12" s="3">
         <v>319100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>354700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>269600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>416400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>344700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>286800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>310200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>339700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>324400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>297600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>292300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>217900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,8 +1121,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1189,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1307200</v>
+        <v>1391600</v>
       </c>
       <c r="E17" s="3">
-        <v>1398700</v>
+        <v>1264100</v>
       </c>
       <c r="F17" s="3">
-        <v>1436400</v>
+        <v>1352600</v>
       </c>
       <c r="G17" s="3">
-        <v>1362000</v>
+        <v>1389100</v>
       </c>
       <c r="H17" s="3">
-        <v>1215800</v>
+        <v>1317100</v>
       </c>
       <c r="I17" s="3">
-        <v>1433800</v>
+        <v>1175800</v>
       </c>
       <c r="J17" s="3">
+        <v>1386600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1325300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1278100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1174100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1408200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1198700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1206500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1171600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1228500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1180800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1145600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1139300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1066900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>504800</v>
+        <v>48400</v>
       </c>
       <c r="E18" s="3">
-        <v>-54000</v>
+        <v>488100</v>
       </c>
       <c r="F18" s="3">
-        <v>215100</v>
+        <v>-52200</v>
       </c>
       <c r="G18" s="3">
-        <v>17800</v>
+        <v>208000</v>
       </c>
       <c r="H18" s="3">
-        <v>292600</v>
+        <v>17300</v>
       </c>
       <c r="I18" s="3">
-        <v>475200</v>
+        <v>283000</v>
       </c>
       <c r="J18" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K18" s="3">
         <v>376400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>236600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>279100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>258200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>187100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>275800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>171500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>113900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>136800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>168900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,138 +1444,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>2800</v>
-      </c>
       <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>3000</v>
-      </c>
       <c r="I20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>594300</v>
+        <v>135800</v>
       </c>
       <c r="E21" s="3">
-        <v>33400</v>
+        <v>574700</v>
       </c>
       <c r="F21" s="3">
-        <v>301500</v>
+        <v>32300</v>
       </c>
       <c r="G21" s="3">
-        <v>99900</v>
+        <v>291500</v>
       </c>
       <c r="H21" s="3">
-        <v>374700</v>
+        <v>96600</v>
       </c>
       <c r="I21" s="3">
-        <v>554100</v>
+        <v>362300</v>
       </c>
       <c r="J21" s="3">
+        <v>535800</v>
+      </c>
+      <c r="K21" s="3">
         <v>461800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>322700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>352900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>153200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>327000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>255900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>335700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>231200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>169200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>194900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>222500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1606,138 +1646,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>508200</v>
+        <v>49000</v>
       </c>
       <c r="E23" s="3">
-        <v>-52900</v>
+        <v>491400</v>
       </c>
       <c r="F23" s="3">
-        <v>217900</v>
+        <v>-51100</v>
       </c>
       <c r="G23" s="3">
-        <v>18100</v>
+        <v>210800</v>
       </c>
       <c r="H23" s="3">
-        <v>295600</v>
+        <v>17500</v>
       </c>
       <c r="I23" s="3">
-        <v>476000</v>
+        <v>285900</v>
       </c>
       <c r="J23" s="3">
+        <v>460400</v>
+      </c>
+      <c r="K23" s="3">
         <v>383200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>247000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>288200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>92500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>263700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>193300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>274700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>171600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>111400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>136700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>168100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>122800</v>
+        <v>11700</v>
       </c>
       <c r="E24" s="3">
-        <v>-22200</v>
+        <v>118700</v>
       </c>
       <c r="F24" s="3">
-        <v>38200</v>
+        <v>-21500</v>
       </c>
       <c r="G24" s="3">
-        <v>5600</v>
+        <v>36900</v>
       </c>
       <c r="H24" s="3">
-        <v>70100</v>
+        <v>5400</v>
       </c>
       <c r="I24" s="3">
-        <v>33400</v>
+        <v>67800</v>
       </c>
       <c r="J24" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-40700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>67300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>385400</v>
+        <v>37300</v>
       </c>
       <c r="E26" s="3">
-        <v>-30700</v>
+        <v>372700</v>
       </c>
       <c r="F26" s="3">
-        <v>179700</v>
+        <v>-29700</v>
       </c>
       <c r="G26" s="3">
-        <v>12500</v>
+        <v>173800</v>
       </c>
       <c r="H26" s="3">
-        <v>225500</v>
+        <v>12100</v>
       </c>
       <c r="I26" s="3">
-        <v>442600</v>
+        <v>218100</v>
       </c>
       <c r="J26" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K26" s="3">
         <v>423800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>202400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>218600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>191700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>142600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>214800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>88400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>95600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>384100</v>
+        <v>35500</v>
       </c>
       <c r="E27" s="3">
-        <v>-27800</v>
+        <v>371400</v>
       </c>
       <c r="F27" s="3">
-        <v>176500</v>
+        <v>-26800</v>
       </c>
       <c r="G27" s="3">
-        <v>12500</v>
+        <v>170600</v>
       </c>
       <c r="H27" s="3">
-        <v>222500</v>
+        <v>12100</v>
       </c>
       <c r="I27" s="3">
-        <v>442000</v>
+        <v>215200</v>
       </c>
       <c r="J27" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K27" s="3">
         <v>421400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>198500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>225000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>69100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>189000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>214600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>84000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>81500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>93200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>384100</v>
+        <v>35500</v>
       </c>
       <c r="E33" s="3">
-        <v>-27800</v>
+        <v>371400</v>
       </c>
       <c r="F33" s="3">
-        <v>176500</v>
+        <v>-26800</v>
       </c>
       <c r="G33" s="3">
-        <v>12500</v>
+        <v>170600</v>
       </c>
       <c r="H33" s="3">
-        <v>222500</v>
+        <v>12100</v>
       </c>
       <c r="I33" s="3">
-        <v>442000</v>
+        <v>215200</v>
       </c>
       <c r="J33" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K33" s="3">
         <v>421400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>198500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>225000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>69100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>189000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>111900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>214600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>84000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>93200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>384100</v>
+        <v>35500</v>
       </c>
       <c r="E35" s="3">
-        <v>-27800</v>
+        <v>371400</v>
       </c>
       <c r="F35" s="3">
-        <v>176500</v>
+        <v>-26800</v>
       </c>
       <c r="G35" s="3">
-        <v>12500</v>
+        <v>170600</v>
       </c>
       <c r="H35" s="3">
-        <v>222500</v>
+        <v>12100</v>
       </c>
       <c r="I35" s="3">
-        <v>442000</v>
+        <v>215200</v>
       </c>
       <c r="J35" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K35" s="3">
         <v>421400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>198500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>225000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>69100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>189000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>111900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>214600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>84000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>93200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,593 +2657,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1941200</v>
+        <v>2493200</v>
       </c>
       <c r="E41" s="3">
-        <v>1885600</v>
+        <v>1877300</v>
       </c>
       <c r="F41" s="3">
-        <v>1765300</v>
+        <v>1823500</v>
       </c>
       <c r="G41" s="3">
-        <v>2077200</v>
+        <v>1707200</v>
       </c>
       <c r="H41" s="3">
-        <v>2061700</v>
+        <v>2008800</v>
       </c>
       <c r="I41" s="3">
-        <v>2316200</v>
+        <v>1993800</v>
       </c>
       <c r="J41" s="3">
+        <v>2239900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1936200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1979500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2065500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2752600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2347000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2711100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2542800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2445500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1727000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1595400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1466000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1656700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1529400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4500</v>
+        <v>6400</v>
       </c>
       <c r="E42" s="3">
-        <v>382800</v>
+        <v>4300</v>
       </c>
       <c r="F42" s="3">
-        <v>6000</v>
+        <v>370200</v>
       </c>
       <c r="G42" s="3">
-        <v>8600</v>
+        <v>5800</v>
       </c>
       <c r="H42" s="3">
-        <v>6100</v>
+        <v>8300</v>
       </c>
       <c r="I42" s="3">
-        <v>14200</v>
+        <v>5900</v>
       </c>
       <c r="J42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K42" s="3">
         <v>22300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>173900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>169000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>168700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>447200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>359400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>399800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>380300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>335200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2153000</v>
+        <v>1538300</v>
       </c>
       <c r="E43" s="3">
-        <v>1460400</v>
+        <v>2082100</v>
       </c>
       <c r="F43" s="3">
-        <v>1840000</v>
+        <v>1412300</v>
       </c>
       <c r="G43" s="3">
-        <v>1667400</v>
+        <v>1779400</v>
       </c>
       <c r="H43" s="3">
-        <v>1676200</v>
+        <v>1612500</v>
       </c>
       <c r="I43" s="3">
-        <v>1640000</v>
+        <v>1621000</v>
       </c>
       <c r="J43" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1791700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1507800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1544100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1505300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1566000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1386600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1352300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1369300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1608700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1562400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1480200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1370400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1630200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>818600</v>
+        <v>793300</v>
       </c>
       <c r="E44" s="3">
-        <v>775400</v>
+        <v>791600</v>
       </c>
       <c r="F44" s="3">
-        <v>719200</v>
+        <v>749900</v>
       </c>
       <c r="G44" s="3">
-        <v>682600</v>
+        <v>695500</v>
       </c>
       <c r="H44" s="3">
-        <v>646100</v>
+        <v>660100</v>
       </c>
       <c r="I44" s="3">
-        <v>598800</v>
+        <v>624800</v>
       </c>
       <c r="J44" s="3">
+        <v>579100</v>
+      </c>
+      <c r="K44" s="3">
         <v>605200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>598500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>585800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>652400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>624300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>659800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>640100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>731600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>723500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>747100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>763400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>735100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>736700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>207200</v>
+        <v>196900</v>
       </c>
       <c r="E45" s="3">
-        <v>217800</v>
+        <v>200400</v>
       </c>
       <c r="F45" s="3">
-        <v>184500</v>
+        <v>210600</v>
       </c>
       <c r="G45" s="3">
-        <v>160300</v>
+        <v>178500</v>
       </c>
       <c r="H45" s="3">
-        <v>176400</v>
+        <v>155000</v>
       </c>
       <c r="I45" s="3">
-        <v>180800</v>
+        <v>170600</v>
       </c>
       <c r="J45" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K45" s="3">
         <v>200900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>195700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>211000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>414900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>298400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>291600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>129400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>138900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>161000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>151900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5124400</v>
+        <v>5028000</v>
       </c>
       <c r="E46" s="3">
-        <v>4722100</v>
+        <v>4955700</v>
       </c>
       <c r="F46" s="3">
-        <v>4515100</v>
+        <v>4566600</v>
       </c>
       <c r="G46" s="3">
-        <v>4596200</v>
+        <v>4366400</v>
       </c>
       <c r="H46" s="3">
-        <v>4566400</v>
+        <v>4444800</v>
       </c>
       <c r="I46" s="3">
-        <v>4750000</v>
+        <v>4416000</v>
       </c>
       <c r="J46" s="3">
+        <v>4593600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4556300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4341400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4469300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5397700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4909400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5229800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4995800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4844600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4634000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4403200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4270500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4294500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4331600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>368700</v>
+        <v>379700</v>
       </c>
       <c r="E47" s="3">
-        <v>399200</v>
+        <v>356500</v>
       </c>
       <c r="F47" s="3">
-        <v>380800</v>
+        <v>386000</v>
       </c>
       <c r="G47" s="3">
-        <v>391100</v>
+        <v>368300</v>
       </c>
       <c r="H47" s="3">
-        <v>385400</v>
+        <v>378200</v>
       </c>
       <c r="I47" s="3">
-        <v>362400</v>
+        <v>372700</v>
       </c>
       <c r="J47" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K47" s="3">
         <v>433800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>457400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>458600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>509400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>457600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>502800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>464700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>432000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>467400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>529000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>514000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>483100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>500900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1449200</v>
+        <v>1403800</v>
       </c>
       <c r="E48" s="3">
-        <v>1466100</v>
+        <v>1401400</v>
       </c>
       <c r="F48" s="3">
-        <v>1307100</v>
+        <v>1417800</v>
       </c>
       <c r="G48" s="3">
-        <v>1303700</v>
+        <v>1264100</v>
       </c>
       <c r="H48" s="3">
-        <v>1314700</v>
+        <v>1260700</v>
       </c>
       <c r="I48" s="3">
-        <v>1317700</v>
+        <v>1271400</v>
       </c>
       <c r="J48" s="3">
+        <v>1274300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1266900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1242200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1264400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1010700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>891200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>872700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>888800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>931700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>937300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>940900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>938700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>918700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>907000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2573700</v>
+        <v>2479900</v>
       </c>
       <c r="E49" s="3">
-        <v>2554700</v>
+        <v>2488900</v>
       </c>
       <c r="F49" s="3">
-        <v>2442500</v>
+        <v>2470500</v>
       </c>
       <c r="G49" s="3">
-        <v>2495200</v>
+        <v>2362100</v>
       </c>
       <c r="H49" s="3">
-        <v>2463900</v>
+        <v>2413000</v>
       </c>
       <c r="I49" s="3">
-        <v>2503200</v>
+        <v>2382700</v>
       </c>
       <c r="J49" s="3">
+        <v>2420800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2621800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2595600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2573300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2597600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2591200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2612200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2520100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2462500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2589500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2588300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2594700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2541000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2590500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>772300</v>
+        <v>752900</v>
       </c>
       <c r="E52" s="3">
-        <v>787900</v>
+        <v>746900</v>
       </c>
       <c r="F52" s="3">
-        <v>724600</v>
+        <v>762000</v>
       </c>
       <c r="G52" s="3">
-        <v>748600</v>
+        <v>700700</v>
       </c>
       <c r="H52" s="3">
-        <v>746800</v>
+        <v>724000</v>
       </c>
       <c r="I52" s="3">
-        <v>742800</v>
+        <v>722200</v>
       </c>
       <c r="J52" s="3">
+        <v>718400</v>
+      </c>
+      <c r="K52" s="3">
         <v>699300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>646700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>634500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>781900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>835600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>817500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>826100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>812500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>847300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>891200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>906900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>905700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>898500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10288300</v>
+        <v>10044400</v>
       </c>
       <c r="E54" s="3">
-        <v>9930000</v>
+        <v>9949500</v>
       </c>
       <c r="F54" s="3">
-        <v>9370100</v>
+        <v>9603000</v>
       </c>
       <c r="G54" s="3">
-        <v>9534700</v>
+        <v>9061600</v>
       </c>
       <c r="H54" s="3">
-        <v>9477100</v>
+        <v>9220700</v>
       </c>
       <c r="I54" s="3">
-        <v>9676100</v>
+        <v>9165000</v>
       </c>
       <c r="J54" s="3">
+        <v>9357500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9578100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9283300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9400100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10297300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9685000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10035000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9695500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9483200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9475500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9352600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9224800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9142900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9228400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,398 +3661,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>735900</v>
+        <v>672000</v>
       </c>
       <c r="E57" s="3">
-        <v>257800</v>
+        <v>711600</v>
       </c>
       <c r="F57" s="3">
-        <v>639400</v>
+        <v>249300</v>
       </c>
       <c r="G57" s="3">
-        <v>709700</v>
+        <v>618400</v>
       </c>
       <c r="H57" s="3">
-        <v>563600</v>
+        <v>686300</v>
       </c>
       <c r="I57" s="3">
-        <v>700400</v>
+        <v>545100</v>
       </c>
       <c r="J57" s="3">
+        <v>677300</v>
+      </c>
+      <c r="K57" s="3">
         <v>549100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>485900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>534200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>745000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>485200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>484100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>478500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>615600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>522700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>509300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>502600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>627600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>586800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>389600</v>
+        <v>352300</v>
       </c>
       <c r="E58" s="3">
-        <v>364300</v>
+        <v>376800</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>352300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>318800</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>318800</v>
+        <v>308300</v>
       </c>
       <c r="J58" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K58" s="3">
         <v>537400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>555900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>366400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>470800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>377500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>371500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>263600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>148300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>627600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>556000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>554900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>443500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>65600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1406500</v>
+        <v>1449800</v>
       </c>
       <c r="E59" s="3">
-        <v>1710200</v>
+        <v>1360200</v>
       </c>
       <c r="F59" s="3">
-        <v>1104500</v>
+        <v>1653900</v>
       </c>
       <c r="G59" s="3">
-        <v>1141800</v>
+        <v>1068100</v>
       </c>
       <c r="H59" s="3">
-        <v>1226700</v>
+        <v>1104200</v>
       </c>
       <c r="I59" s="3">
-        <v>1276200</v>
+        <v>1186300</v>
       </c>
       <c r="J59" s="3">
+        <v>1234200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1425100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1469200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1439200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1626200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1724200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1627300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1525800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1420800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1003500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>957600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>954900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>913100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>880900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2532000</v>
+        <v>2474100</v>
       </c>
       <c r="E60" s="3">
-        <v>2332300</v>
+        <v>2448600</v>
       </c>
       <c r="F60" s="3">
-        <v>1743900</v>
+        <v>2255500</v>
       </c>
       <c r="G60" s="3">
-        <v>1851400</v>
+        <v>1686500</v>
       </c>
       <c r="H60" s="3">
-        <v>2109100</v>
+        <v>1790500</v>
       </c>
       <c r="I60" s="3">
-        <v>2295400</v>
+        <v>2039700</v>
       </c>
       <c r="J60" s="3">
+        <v>2219800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2511700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2511000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2339800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2842000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2586900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2482900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2267900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2184700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2153800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2022900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2012400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1984100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1533300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>454700</v>
+        <v>439800</v>
       </c>
       <c r="E61" s="3">
-        <v>454700</v>
+        <v>439700</v>
       </c>
       <c r="F61" s="3">
-        <v>818800</v>
+        <v>439700</v>
       </c>
       <c r="G61" s="3">
-        <v>818800</v>
+        <v>791900</v>
       </c>
       <c r="H61" s="3">
-        <v>500600</v>
+        <v>791800</v>
       </c>
       <c r="I61" s="3">
+        <v>484100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>484100</v>
+      </c>
+      <c r="K61" s="3">
         <v>500500</v>
       </c>
-      <c r="J61" s="3">
-        <v>500500</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>504900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>823600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>864000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>848600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1151600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1481900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1416900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1435100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1434300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1477400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1450000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1904900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>493200</v>
+        <v>476000</v>
       </c>
       <c r="E62" s="3">
-        <v>511500</v>
+        <v>477000</v>
       </c>
       <c r="F62" s="3">
-        <v>455900</v>
+        <v>494600</v>
       </c>
       <c r="G62" s="3">
-        <v>461700</v>
+        <v>440900</v>
       </c>
       <c r="H62" s="3">
-        <v>460200</v>
+        <v>446500</v>
       </c>
       <c r="I62" s="3">
-        <v>479200</v>
+        <v>445000</v>
       </c>
       <c r="J62" s="3">
+        <v>463400</v>
+      </c>
+      <c r="K62" s="3">
         <v>471200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>442400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>446400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>325800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>356500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>328000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>315200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>330200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>363800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>362100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>356100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>363700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>369600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3705800</v>
+        <v>3610100</v>
       </c>
       <c r="E66" s="3">
-        <v>3524000</v>
+        <v>3583800</v>
       </c>
       <c r="F66" s="3">
-        <v>3246600</v>
+        <v>3407900</v>
       </c>
       <c r="G66" s="3">
-        <v>3356300</v>
+        <v>3139700</v>
       </c>
       <c r="H66" s="3">
-        <v>3294600</v>
+        <v>3245700</v>
       </c>
       <c r="I66" s="3">
-        <v>3498400</v>
+        <v>3186100</v>
       </c>
       <c r="J66" s="3">
+        <v>3383200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3706000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3680500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3832200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4261100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4023600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4190300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4285600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4117300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4137900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3995100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4015200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3957200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3964100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4792100</v>
+        <v>4680000</v>
       </c>
       <c r="E72" s="3">
-        <v>4627700</v>
+        <v>4634300</v>
       </c>
       <c r="F72" s="3">
-        <v>4606400</v>
+        <v>4475300</v>
       </c>
       <c r="G72" s="3">
-        <v>4642300</v>
+        <v>4454700</v>
       </c>
       <c r="H72" s="3">
-        <v>4627500</v>
+        <v>4489400</v>
       </c>
       <c r="I72" s="3">
-        <v>4603800</v>
+        <v>4475100</v>
       </c>
       <c r="J72" s="3">
+        <v>4452200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4207300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4045400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3982400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4213900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3897700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3990100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3700800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3751300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3515100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3565200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3472600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3503500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3467100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6582400</v>
+        <v>6434300</v>
       </c>
       <c r="E76" s="3">
-        <v>6406000</v>
+        <v>6365700</v>
       </c>
       <c r="F76" s="3">
-        <v>6123500</v>
+        <v>6195000</v>
       </c>
       <c r="G76" s="3">
-        <v>6178400</v>
+        <v>5921900</v>
       </c>
       <c r="H76" s="3">
-        <v>6182500</v>
+        <v>5975000</v>
       </c>
       <c r="I76" s="3">
-        <v>6177700</v>
+        <v>5978900</v>
       </c>
       <c r="J76" s="3">
+        <v>5974300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5872100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5602800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5567900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6036200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5661400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5844700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5409900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5366000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5337600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5357500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5209700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5185700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5264400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>384100</v>
+        <v>35500</v>
       </c>
       <c r="E81" s="3">
-        <v>-27800</v>
+        <v>371400</v>
       </c>
       <c r="F81" s="3">
-        <v>176500</v>
+        <v>-26800</v>
       </c>
       <c r="G81" s="3">
-        <v>12500</v>
+        <v>170600</v>
       </c>
       <c r="H81" s="3">
-        <v>222500</v>
+        <v>12100</v>
       </c>
       <c r="I81" s="3">
-        <v>442000</v>
+        <v>215200</v>
       </c>
       <c r="J81" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K81" s="3">
         <v>421400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>198500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>225000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>69100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>189000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>111900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>214600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>84000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>93200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>86100</v>
+        <v>86800</v>
       </c>
       <c r="E83" s="3">
-        <v>86300</v>
+        <v>83300</v>
       </c>
       <c r="F83" s="3">
-        <v>83500</v>
+        <v>83400</v>
       </c>
       <c r="G83" s="3">
-        <v>81800</v>
+        <v>80800</v>
       </c>
       <c r="H83" s="3">
         <v>79100</v>
       </c>
       <c r="I83" s="3">
-        <v>78100</v>
+        <v>76500</v>
       </c>
       <c r="J83" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K83" s="3">
         <v>78600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>75700</v>
       </c>
       <c r="L83" s="3">
         <v>75700</v>
       </c>
       <c r="M83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="N83" s="3">
         <v>64700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>63300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>62500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>61000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>57900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>58100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>54400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-130000</v>
+        <v>728500</v>
       </c>
       <c r="E89" s="3">
-        <v>471400</v>
+        <v>-125700</v>
       </c>
       <c r="F89" s="3">
-        <v>31500</v>
+        <v>455900</v>
       </c>
       <c r="G89" s="3">
-        <v>78300</v>
+        <v>30400</v>
       </c>
       <c r="H89" s="3">
-        <v>91600</v>
+        <v>75800</v>
       </c>
       <c r="I89" s="3">
-        <v>670200</v>
+        <v>88500</v>
       </c>
       <c r="J89" s="3">
+        <v>648100</v>
+      </c>
+      <c r="K89" s="3">
         <v>189300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>115000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>415600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>99600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>349100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>112200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1002200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>236800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>147300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>295000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>140100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-110400</v>
+        <v>-54100</v>
       </c>
       <c r="E91" s="3">
-        <v>-42700</v>
+        <v>-106800</v>
       </c>
       <c r="F91" s="3">
-        <v>-14900</v>
+        <v>-41300</v>
       </c>
       <c r="G91" s="3">
-        <v>-36300</v>
+        <v>-14400</v>
       </c>
       <c r="H91" s="3">
-        <v>-80500</v>
+        <v>-35100</v>
       </c>
       <c r="I91" s="3">
-        <v>-50600</v>
+        <v>-77900</v>
       </c>
       <c r="J91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-105900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-94800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-52900</v>
-      </c>
       <c r="F94" s="3">
-        <v>-124400</v>
+        <v>-51200</v>
       </c>
       <c r="G94" s="3">
-        <v>-44800</v>
+        <v>-120300</v>
       </c>
       <c r="H94" s="3">
-        <v>-113800</v>
+        <v>-43300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10600</v>
+        <v>-110100</v>
       </c>
       <c r="J94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-184500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-105300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>71000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>245700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-94400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-152100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-217000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,73 +6014,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-209000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-202100</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-208900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-208900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-208900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-210000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-189300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-208200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-181100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-207000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-177600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-205300</v>
+        <v>-47700</v>
       </c>
       <c r="E100" s="3">
-        <v>-20700</v>
+        <v>-198500</v>
       </c>
       <c r="F100" s="3">
-        <v>-231300</v>
+        <v>-20000</v>
       </c>
       <c r="G100" s="3">
-        <v>-26100</v>
+        <v>-223700</v>
       </c>
       <c r="H100" s="3">
-        <v>-231300</v>
+        <v>-25200</v>
       </c>
       <c r="I100" s="3">
-        <v>-236600</v>
+        <v>-223700</v>
       </c>
       <c r="J100" s="3">
+        <v>-228800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-246500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-149600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-313400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>86200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-506100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-270700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-477900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-111300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-183800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>102900</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>12200</v>
+        <v>99500</v>
       </c>
       <c r="G101" s="3">
-        <v>8100</v>
+        <v>11800</v>
       </c>
       <c r="H101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
-        <v>-42900</v>
-      </c>
       <c r="J101" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K101" s="3">
         <v>57300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-73300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-72400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>60400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>35400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-51500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>97700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-324800</v>
+        <v>616000</v>
       </c>
       <c r="E102" s="3">
-        <v>500700</v>
+        <v>-314100</v>
       </c>
       <c r="F102" s="3">
-        <v>-311900</v>
+        <v>484200</v>
       </c>
       <c r="G102" s="3">
-        <v>15600</v>
+        <v>-301600</v>
       </c>
       <c r="H102" s="3">
-        <v>-254500</v>
+        <v>15100</v>
       </c>
       <c r="I102" s="3">
-        <v>380000</v>
+        <v>-246100</v>
       </c>
       <c r="J102" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-26100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-92800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-608500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>416200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-407900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>83700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>718500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>131700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>129400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-222400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>127300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-162900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +662,320 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1440100</v>
+        <v>1731400</v>
       </c>
       <c r="E8" s="3">
-        <v>1752300</v>
+        <v>1394300</v>
       </c>
       <c r="F8" s="3">
-        <v>1300400</v>
+        <v>1696600</v>
       </c>
       <c r="G8" s="3">
-        <v>1597100</v>
+        <v>1259100</v>
       </c>
       <c r="H8" s="3">
-        <v>1334400</v>
+        <v>1546400</v>
       </c>
       <c r="I8" s="3">
-        <v>1458800</v>
+        <v>1292000</v>
       </c>
       <c r="J8" s="3">
+        <v>1412400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1846200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1701700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1335000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1410600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1687300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1483300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1456900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1393500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1447400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1294700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1282400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1152000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1235800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357900</v>
+        <v>377200</v>
       </c>
       <c r="E9" s="3">
-        <v>345800</v>
+        <v>346500</v>
       </c>
       <c r="F9" s="3">
-        <v>362500</v>
+        <v>334800</v>
       </c>
       <c r="G9" s="3">
-        <v>356400</v>
+        <v>351000</v>
       </c>
       <c r="H9" s="3">
-        <v>365000</v>
+        <v>345000</v>
       </c>
       <c r="I9" s="3">
-        <v>337300</v>
+        <v>353400</v>
       </c>
       <c r="J9" s="3">
+        <v>326500</v>
+      </c>
+      <c r="K9" s="3">
         <v>427400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>370300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>392900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>410900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>469300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>408600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>436700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>407400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>488500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>476900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>446600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>426100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>440600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1082200</v>
+        <v>1354100</v>
       </c>
       <c r="E10" s="3">
-        <v>1406500</v>
+        <v>1047800</v>
       </c>
       <c r="F10" s="3">
-        <v>937900</v>
+        <v>1361800</v>
       </c>
       <c r="G10" s="3">
-        <v>1240800</v>
+        <v>908100</v>
       </c>
       <c r="H10" s="3">
-        <v>969400</v>
+        <v>1201400</v>
       </c>
       <c r="I10" s="3">
-        <v>1121500</v>
+        <v>938600</v>
       </c>
       <c r="J10" s="3">
+        <v>1085900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1418800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>964700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1017800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1276400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1014000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1048300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>956800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1040100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>911500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>817800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>835800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>725900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>795200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1000,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>335800</v>
+        <v>369900</v>
       </c>
       <c r="E12" s="3">
-        <v>368400</v>
+        <v>325100</v>
       </c>
       <c r="F12" s="3">
-        <v>371100</v>
+        <v>356700</v>
       </c>
       <c r="G12" s="3">
-        <v>358100</v>
+        <v>359300</v>
       </c>
       <c r="H12" s="3">
-        <v>326000</v>
+        <v>346700</v>
       </c>
       <c r="I12" s="3">
-        <v>269000</v>
+        <v>315600</v>
       </c>
       <c r="J12" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K12" s="3">
         <v>326600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>319100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>354700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>269600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>416400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>344700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>286800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>310200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>339700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>324400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>297600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>292300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>217900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1140,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,8 +1211,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1260,8 +1282,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1391600</v>
+        <v>1614900</v>
       </c>
       <c r="E17" s="3">
-        <v>1264100</v>
+        <v>1347400</v>
       </c>
       <c r="F17" s="3">
-        <v>1352600</v>
+        <v>1223900</v>
       </c>
       <c r="G17" s="3">
-        <v>1389100</v>
+        <v>1309700</v>
       </c>
       <c r="H17" s="3">
-        <v>1317100</v>
+        <v>1345000</v>
       </c>
       <c r="I17" s="3">
-        <v>1175800</v>
+        <v>1275300</v>
       </c>
       <c r="J17" s="3">
+        <v>1138400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1386600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1325300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1278100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1174100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1408200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1198700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1206500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1171600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1228500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1180800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1145600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1139300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1066900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>48400</v>
+        <v>116400</v>
       </c>
       <c r="E18" s="3">
-        <v>488100</v>
+        <v>46900</v>
       </c>
       <c r="F18" s="3">
-        <v>-52200</v>
+        <v>472600</v>
       </c>
       <c r="G18" s="3">
-        <v>208000</v>
+        <v>-50500</v>
       </c>
       <c r="H18" s="3">
-        <v>17300</v>
+        <v>201400</v>
       </c>
       <c r="I18" s="3">
-        <v>283000</v>
+        <v>16700</v>
       </c>
       <c r="J18" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K18" s="3">
         <v>459600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>376400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>236600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>279100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>258200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>187100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>275800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>171500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>136800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>168900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,144 +1477,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>3300</v>
-      </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>2900</v>
-      </c>
       <c r="J20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>135800</v>
+        <v>202900</v>
       </c>
       <c r="E21" s="3">
-        <v>574700</v>
+        <v>131500</v>
       </c>
       <c r="F21" s="3">
-        <v>32300</v>
+        <v>556500</v>
       </c>
       <c r="G21" s="3">
-        <v>291500</v>
+        <v>31200</v>
       </c>
       <c r="H21" s="3">
-        <v>96600</v>
+        <v>282300</v>
       </c>
       <c r="I21" s="3">
-        <v>362300</v>
+        <v>93500</v>
       </c>
       <c r="J21" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K21" s="3">
         <v>535800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>461800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>352900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>153200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>327000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>255900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>335700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>231200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>169200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>194900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>63100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>222500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1649,144 +1688,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>49000</v>
+        <v>118500</v>
       </c>
       <c r="E23" s="3">
-        <v>491400</v>
+        <v>47500</v>
       </c>
       <c r="F23" s="3">
-        <v>-51100</v>
+        <v>475800</v>
       </c>
       <c r="G23" s="3">
-        <v>210800</v>
+        <v>-49500</v>
       </c>
       <c r="H23" s="3">
-        <v>17500</v>
+        <v>204100</v>
       </c>
       <c r="I23" s="3">
-        <v>285900</v>
+        <v>16900</v>
       </c>
       <c r="J23" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K23" s="3">
         <v>460400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>383200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>247000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>288200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>92500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>263700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>193300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>274700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>171600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>111400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>136700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>168100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>11700</v>
+        <v>7200</v>
       </c>
       <c r="E24" s="3">
-        <v>118700</v>
+        <v>11300</v>
       </c>
       <c r="F24" s="3">
-        <v>-21500</v>
+        <v>115000</v>
       </c>
       <c r="G24" s="3">
-        <v>36900</v>
+        <v>-20800</v>
       </c>
       <c r="H24" s="3">
-        <v>5400</v>
+        <v>35800</v>
       </c>
       <c r="I24" s="3">
-        <v>67800</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K24" s="3">
         <v>32300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-40700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-6200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>67300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>37300</v>
+        <v>111300</v>
       </c>
       <c r="E26" s="3">
-        <v>372700</v>
+        <v>36100</v>
       </c>
       <c r="F26" s="3">
-        <v>-29700</v>
+        <v>360900</v>
       </c>
       <c r="G26" s="3">
-        <v>173800</v>
+        <v>-28700</v>
       </c>
       <c r="H26" s="3">
-        <v>12100</v>
+        <v>168300</v>
       </c>
       <c r="I26" s="3">
-        <v>218100</v>
+        <v>11700</v>
       </c>
       <c r="J26" s="3">
+        <v>211100</v>
+      </c>
+      <c r="K26" s="3">
         <v>428000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>423800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>202400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>218600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>191700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>142600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>214800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>88400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>95600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>35500</v>
+        <v>120900</v>
       </c>
       <c r="E27" s="3">
-        <v>371400</v>
+        <v>34300</v>
       </c>
       <c r="F27" s="3">
-        <v>-26800</v>
+        <v>359600</v>
       </c>
       <c r="G27" s="3">
-        <v>170600</v>
+        <v>-26000</v>
       </c>
       <c r="H27" s="3">
-        <v>12100</v>
+        <v>165200</v>
       </c>
       <c r="I27" s="3">
-        <v>215200</v>
+        <v>11700</v>
       </c>
       <c r="J27" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K27" s="3">
         <v>427400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>198500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>225000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>189000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>214600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>93200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3300</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>35500</v>
+        <v>120900</v>
       </c>
       <c r="E33" s="3">
-        <v>371400</v>
+        <v>34300</v>
       </c>
       <c r="F33" s="3">
-        <v>-26800</v>
+        <v>359600</v>
       </c>
       <c r="G33" s="3">
-        <v>170600</v>
+        <v>-26000</v>
       </c>
       <c r="H33" s="3">
-        <v>12100</v>
+        <v>165200</v>
       </c>
       <c r="I33" s="3">
-        <v>215200</v>
+        <v>11700</v>
       </c>
       <c r="J33" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K33" s="3">
         <v>427400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>198500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>225000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>189000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>111900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>88600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>93200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>35500</v>
+        <v>120900</v>
       </c>
       <c r="E35" s="3">
-        <v>371400</v>
+        <v>34300</v>
       </c>
       <c r="F35" s="3">
-        <v>-26800</v>
+        <v>359600</v>
       </c>
       <c r="G35" s="3">
-        <v>170600</v>
+        <v>-26000</v>
       </c>
       <c r="H35" s="3">
-        <v>12100</v>
+        <v>165200</v>
       </c>
       <c r="I35" s="3">
-        <v>215200</v>
+        <v>11700</v>
       </c>
       <c r="J35" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K35" s="3">
         <v>427400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>198500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>225000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>189000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>111900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>88600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>93200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,620 +2743,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2493200</v>
+        <v>2204300</v>
       </c>
       <c r="E41" s="3">
-        <v>1877300</v>
+        <v>2414000</v>
       </c>
       <c r="F41" s="3">
-        <v>1823500</v>
+        <v>1817600</v>
       </c>
       <c r="G41" s="3">
-        <v>1707200</v>
+        <v>1765600</v>
       </c>
       <c r="H41" s="3">
-        <v>2008800</v>
+        <v>1652900</v>
       </c>
       <c r="I41" s="3">
-        <v>1993800</v>
+        <v>1945000</v>
       </c>
       <c r="J41" s="3">
+        <v>1930400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2239900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1936200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1979500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2065500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2752600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2347000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2711100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2542800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2445500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1727000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1595400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1466000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1656700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1529400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>7900</v>
       </c>
       <c r="E42" s="3">
-        <v>4300</v>
+        <v>6200</v>
       </c>
       <c r="F42" s="3">
-        <v>370200</v>
+        <v>4200</v>
       </c>
       <c r="G42" s="3">
-        <v>5800</v>
+        <v>358400</v>
       </c>
       <c r="H42" s="3">
-        <v>8300</v>
+        <v>5600</v>
       </c>
       <c r="I42" s="3">
-        <v>5900</v>
+        <v>8100</v>
       </c>
       <c r="J42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K42" s="3">
         <v>13700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>62800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>173900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>168700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>447200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>359400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>399800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>380300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>335200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1538300</v>
+        <v>1830500</v>
       </c>
       <c r="E43" s="3">
-        <v>2082100</v>
+        <v>1489400</v>
       </c>
       <c r="F43" s="3">
-        <v>1412300</v>
+        <v>2015900</v>
       </c>
       <c r="G43" s="3">
-        <v>1779400</v>
+        <v>1367400</v>
       </c>
       <c r="H43" s="3">
-        <v>1612500</v>
+        <v>1722900</v>
       </c>
       <c r="I43" s="3">
-        <v>1621000</v>
+        <v>1561200</v>
       </c>
       <c r="J43" s="3">
+        <v>1569400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1586000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1791700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1507800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1544100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1505300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1566000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1386600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1352300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1369300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1608700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1562400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1480200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1370400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1630200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>793300</v>
+        <v>789100</v>
       </c>
       <c r="E44" s="3">
-        <v>791600</v>
+        <v>768100</v>
       </c>
       <c r="F44" s="3">
-        <v>749900</v>
+        <v>766400</v>
       </c>
       <c r="G44" s="3">
-        <v>695500</v>
+        <v>726100</v>
       </c>
       <c r="H44" s="3">
-        <v>660100</v>
+        <v>673400</v>
       </c>
       <c r="I44" s="3">
-        <v>624800</v>
+        <v>639200</v>
       </c>
       <c r="J44" s="3">
+        <v>605000</v>
+      </c>
+      <c r="K44" s="3">
         <v>579100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>605200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>598500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>585800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>652400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>624300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>659800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>640100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>731600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>723500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>747100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>763400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>735100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>736700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>196900</v>
+        <v>175800</v>
       </c>
       <c r="E45" s="3">
-        <v>200400</v>
+        <v>190600</v>
       </c>
       <c r="F45" s="3">
-        <v>210600</v>
+        <v>194000</v>
       </c>
       <c r="G45" s="3">
-        <v>178500</v>
+        <v>203900</v>
       </c>
       <c r="H45" s="3">
-        <v>155000</v>
+        <v>172800</v>
       </c>
       <c r="I45" s="3">
-        <v>170600</v>
+        <v>150100</v>
       </c>
       <c r="J45" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K45" s="3">
         <v>174900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>195700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>211000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>414900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>298400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>291600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>129400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>127600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>138900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>161000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>151900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5028000</v>
+        <v>5007600</v>
       </c>
       <c r="E46" s="3">
-        <v>4955700</v>
+        <v>4868200</v>
       </c>
       <c r="F46" s="3">
-        <v>4566600</v>
+        <v>4798200</v>
       </c>
       <c r="G46" s="3">
-        <v>4366400</v>
+        <v>4421500</v>
       </c>
       <c r="H46" s="3">
-        <v>4444800</v>
+        <v>4227600</v>
       </c>
       <c r="I46" s="3">
-        <v>4416000</v>
+        <v>4303500</v>
       </c>
       <c r="J46" s="3">
+        <v>4275600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4593600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4556300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4341400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4469300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5397700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4909400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5229800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4995800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4844600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4634000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4403200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4270500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4294500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4331600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>379700</v>
+        <v>358000</v>
       </c>
       <c r="E47" s="3">
-        <v>356500</v>
+        <v>367700</v>
       </c>
       <c r="F47" s="3">
-        <v>386000</v>
+        <v>345200</v>
       </c>
       <c r="G47" s="3">
-        <v>368300</v>
+        <v>373800</v>
       </c>
       <c r="H47" s="3">
-        <v>378200</v>
+        <v>356600</v>
       </c>
       <c r="I47" s="3">
-        <v>372700</v>
+        <v>366200</v>
       </c>
       <c r="J47" s="3">
+        <v>360900</v>
+      </c>
+      <c r="K47" s="3">
         <v>350500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>433800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>457400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>458600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>509400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>457600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>502800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>464700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>432000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>467400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>529000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>514000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>483100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>500900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1403800</v>
+        <v>1385400</v>
       </c>
       <c r="E48" s="3">
-        <v>1401400</v>
+        <v>1359200</v>
       </c>
       <c r="F48" s="3">
-        <v>1417800</v>
+        <v>1356900</v>
       </c>
       <c r="G48" s="3">
-        <v>1264100</v>
+        <v>1372800</v>
       </c>
       <c r="H48" s="3">
-        <v>1260700</v>
+        <v>1223900</v>
       </c>
       <c r="I48" s="3">
-        <v>1271400</v>
+        <v>1220700</v>
       </c>
       <c r="J48" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1274300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1266900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1242200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1264400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1010700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>891200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>872700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>888800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>931700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>937300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>940900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>938700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>918700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>907000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2479900</v>
+        <v>2421400</v>
       </c>
       <c r="E49" s="3">
-        <v>2488900</v>
+        <v>2401100</v>
       </c>
       <c r="F49" s="3">
-        <v>2470500</v>
+        <v>2409800</v>
       </c>
       <c r="G49" s="3">
-        <v>2362100</v>
+        <v>2392000</v>
       </c>
       <c r="H49" s="3">
-        <v>2413000</v>
+        <v>2287000</v>
       </c>
       <c r="I49" s="3">
-        <v>2382700</v>
+        <v>2336300</v>
       </c>
       <c r="J49" s="3">
+        <v>2307000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2420800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2621800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2595600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2573300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2597600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2591200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2612200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2520100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2462500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2589500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2588300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2594700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2541000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2590500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>752900</v>
+        <v>785200</v>
       </c>
       <c r="E52" s="3">
-        <v>746900</v>
+        <v>729000</v>
       </c>
       <c r="F52" s="3">
-        <v>762000</v>
+        <v>723200</v>
       </c>
       <c r="G52" s="3">
-        <v>700700</v>
+        <v>737800</v>
       </c>
       <c r="H52" s="3">
-        <v>724000</v>
+        <v>678400</v>
       </c>
       <c r="I52" s="3">
-        <v>722200</v>
+        <v>700900</v>
       </c>
       <c r="J52" s="3">
+        <v>699300</v>
+      </c>
+      <c r="K52" s="3">
         <v>718400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>699300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>646700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>634500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>781900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>835600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>817500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>826100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>812500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>847300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>891200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>906900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>905700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>898500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>10044400</v>
+        <v>9957500</v>
       </c>
       <c r="E54" s="3">
-        <v>9949500</v>
+        <v>9725100</v>
       </c>
       <c r="F54" s="3">
-        <v>9603000</v>
+        <v>9633300</v>
       </c>
       <c r="G54" s="3">
-        <v>9061600</v>
+        <v>9297800</v>
       </c>
       <c r="H54" s="3">
-        <v>9220700</v>
+        <v>8773600</v>
       </c>
       <c r="I54" s="3">
-        <v>9165000</v>
+        <v>8927700</v>
       </c>
       <c r="J54" s="3">
+        <v>8873700</v>
+      </c>
+      <c r="K54" s="3">
         <v>9357500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9578100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9283300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9400100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10297300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9685000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10035000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9695500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9483200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9475500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9352600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9224800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9142900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9228400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>672000</v>
+        <v>773200</v>
       </c>
       <c r="E57" s="3">
-        <v>711600</v>
+        <v>650600</v>
       </c>
       <c r="F57" s="3">
-        <v>249300</v>
+        <v>689000</v>
       </c>
       <c r="G57" s="3">
-        <v>618400</v>
+        <v>241400</v>
       </c>
       <c r="H57" s="3">
-        <v>686300</v>
+        <v>598700</v>
       </c>
       <c r="I57" s="3">
-        <v>545100</v>
+        <v>664500</v>
       </c>
       <c r="J57" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K57" s="3">
         <v>677300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>549100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>485900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>534200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>745000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>485200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>484100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>478500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>615600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>522700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>509300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>502600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>627600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>586800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>352300</v>
+        <v>341200</v>
       </c>
       <c r="E58" s="3">
-        <v>376800</v>
+        <v>341100</v>
       </c>
       <c r="F58" s="3">
-        <v>352300</v>
+        <v>364800</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>341100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K58" s="3">
         <v>308300</v>
       </c>
-      <c r="J58" s="3">
-        <v>308300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>537400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>555900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>366400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>470800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>377500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>371500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>263600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>148300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>627600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>556000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>554900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>443500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>65600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1449800</v>
+        <v>1487200</v>
       </c>
       <c r="E59" s="3">
-        <v>1360200</v>
+        <v>1403700</v>
       </c>
       <c r="F59" s="3">
-        <v>1653900</v>
+        <v>1316900</v>
       </c>
       <c r="G59" s="3">
-        <v>1068100</v>
+        <v>1601400</v>
       </c>
       <c r="H59" s="3">
-        <v>1104200</v>
+        <v>1034200</v>
       </c>
       <c r="I59" s="3">
-        <v>1186300</v>
+        <v>1069100</v>
       </c>
       <c r="J59" s="3">
+        <v>1148600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1234200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1425100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1469200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1439200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1626200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1724200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1627300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1525800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1420800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1003500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>957600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>954900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>913100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>880900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2474100</v>
+        <v>2601600</v>
       </c>
       <c r="E60" s="3">
-        <v>2448600</v>
+        <v>2395500</v>
       </c>
       <c r="F60" s="3">
-        <v>2255500</v>
+        <v>2370800</v>
       </c>
       <c r="G60" s="3">
-        <v>1686500</v>
+        <v>2183800</v>
       </c>
       <c r="H60" s="3">
-        <v>1790500</v>
+        <v>1632900</v>
       </c>
       <c r="I60" s="3">
-        <v>2039700</v>
+        <v>1733600</v>
       </c>
       <c r="J60" s="3">
+        <v>1974900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2219800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2511700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2511000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2339800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2842000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2586900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2482900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2267900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2184700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2153800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2022900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2012400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1984100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1533300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>439800</v>
+        <v>425900</v>
       </c>
       <c r="E61" s="3">
-        <v>439700</v>
+        <v>425800</v>
       </c>
       <c r="F61" s="3">
-        <v>439700</v>
+        <v>425800</v>
       </c>
       <c r="G61" s="3">
-        <v>791900</v>
+        <v>425700</v>
       </c>
       <c r="H61" s="3">
-        <v>791800</v>
+        <v>766700</v>
       </c>
       <c r="I61" s="3">
+        <v>766600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>468700</v>
+      </c>
+      <c r="K61" s="3">
         <v>484100</v>
       </c>
-      <c r="J61" s="3">
-        <v>484100</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>504900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>823600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>864000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>848600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1151600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1481900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1416900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1435100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1434300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1477400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1450000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1904900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>476000</v>
+        <v>458700</v>
       </c>
       <c r="E62" s="3">
-        <v>477000</v>
+        <v>460900</v>
       </c>
       <c r="F62" s="3">
-        <v>494600</v>
+        <v>461800</v>
       </c>
       <c r="G62" s="3">
-        <v>440900</v>
+        <v>478900</v>
       </c>
       <c r="H62" s="3">
-        <v>446500</v>
+        <v>426900</v>
       </c>
       <c r="I62" s="3">
-        <v>445000</v>
+        <v>432400</v>
       </c>
       <c r="J62" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K62" s="3">
         <v>463400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>471200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>442400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>446400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>325800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>356500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>328000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>315200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>330200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>363800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>362100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>356100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>363700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>369600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3610100</v>
+        <v>3689800</v>
       </c>
       <c r="E66" s="3">
-        <v>3583800</v>
+        <v>3495400</v>
       </c>
       <c r="F66" s="3">
-        <v>3407900</v>
+        <v>3469900</v>
       </c>
       <c r="G66" s="3">
-        <v>3139700</v>
+        <v>3299600</v>
       </c>
       <c r="H66" s="3">
-        <v>3245700</v>
+        <v>3039900</v>
       </c>
       <c r="I66" s="3">
-        <v>3186100</v>
+        <v>3142600</v>
       </c>
       <c r="J66" s="3">
+        <v>3084900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3383200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3706000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3680500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3832200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4261100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4023600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4190300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4285600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4117300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4137900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3995100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4015200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3957200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3964100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4680000</v>
+        <v>4444700</v>
       </c>
       <c r="E72" s="3">
-        <v>4634300</v>
+        <v>4531300</v>
       </c>
       <c r="F72" s="3">
-        <v>4475300</v>
+        <v>4487000</v>
       </c>
       <c r="G72" s="3">
-        <v>4454700</v>
+        <v>4333000</v>
       </c>
       <c r="H72" s="3">
-        <v>4489400</v>
+        <v>4313100</v>
       </c>
       <c r="I72" s="3">
-        <v>4475100</v>
+        <v>4346700</v>
       </c>
       <c r="J72" s="3">
+        <v>4332900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4452200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4207300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4045400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3982400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4213900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3897700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3990100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3700800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3751300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3515100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3565200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3472600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3503500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3467100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6434300</v>
+        <v>6267700</v>
       </c>
       <c r="E76" s="3">
-        <v>6365700</v>
+        <v>6229800</v>
       </c>
       <c r="F76" s="3">
-        <v>6195000</v>
+        <v>6163400</v>
       </c>
       <c r="G76" s="3">
-        <v>5921900</v>
+        <v>5998200</v>
       </c>
       <c r="H76" s="3">
-        <v>5975000</v>
+        <v>5733700</v>
       </c>
       <c r="I76" s="3">
-        <v>5978900</v>
+        <v>5785100</v>
       </c>
       <c r="J76" s="3">
+        <v>5788900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5974300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5872100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5602800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5567900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6036200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5661400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5844700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5409900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5366000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5337600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5357500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5209700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5185700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5264400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>35500</v>
+        <v>120900</v>
       </c>
       <c r="E81" s="3">
-        <v>371400</v>
+        <v>34300</v>
       </c>
       <c r="F81" s="3">
-        <v>-26800</v>
+        <v>359600</v>
       </c>
       <c r="G81" s="3">
-        <v>170600</v>
+        <v>-26000</v>
       </c>
       <c r="H81" s="3">
-        <v>12100</v>
+        <v>165200</v>
       </c>
       <c r="I81" s="3">
-        <v>215200</v>
+        <v>11700</v>
       </c>
       <c r="J81" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K81" s="3">
         <v>427400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>198500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>225000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>189000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>111900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>88600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>93200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>86800</v>
+        <v>84400</v>
       </c>
       <c r="E83" s="3">
-        <v>83300</v>
+        <v>84000</v>
       </c>
       <c r="F83" s="3">
-        <v>83400</v>
+        <v>80700</v>
       </c>
       <c r="G83" s="3">
         <v>80800</v>
       </c>
       <c r="H83" s="3">
-        <v>79100</v>
+        <v>78200</v>
       </c>
       <c r="I83" s="3">
-        <v>76500</v>
+        <v>76600</v>
       </c>
       <c r="J83" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K83" s="3">
         <v>75500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>75700</v>
       </c>
       <c r="M83" s="3">
         <v>75700</v>
       </c>
       <c r="N83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="O83" s="3">
         <v>64700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>62500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>61000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>59700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>57900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>58100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>728500</v>
+        <v>40600</v>
       </c>
       <c r="E89" s="3">
-        <v>-125700</v>
+        <v>705300</v>
       </c>
       <c r="F89" s="3">
-        <v>455900</v>
+        <v>-121700</v>
       </c>
       <c r="G89" s="3">
-        <v>30400</v>
+        <v>441400</v>
       </c>
       <c r="H89" s="3">
-        <v>75800</v>
+        <v>29500</v>
       </c>
       <c r="I89" s="3">
-        <v>88500</v>
+        <v>73300</v>
       </c>
       <c r="J89" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K89" s="3">
         <v>648100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>189300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>115000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>415600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>99600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>349100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>112200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1002200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>236800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>147300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-33400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>295000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>140100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-54100</v>
+        <v>-32100</v>
       </c>
       <c r="E91" s="3">
-        <v>-106800</v>
+        <v>-52300</v>
       </c>
       <c r="F91" s="3">
-        <v>-41300</v>
+        <v>-103400</v>
       </c>
       <c r="G91" s="3">
-        <v>-14400</v>
+        <v>-39900</v>
       </c>
       <c r="H91" s="3">
-        <v>-35100</v>
+        <v>-14000</v>
       </c>
       <c r="I91" s="3">
-        <v>-77900</v>
+        <v>-34000</v>
       </c>
       <c r="J91" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-49000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-105900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-94800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-71100</v>
+        <v>-91300</v>
       </c>
       <c r="E94" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-51200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-120300</v>
+        <v>-49600</v>
       </c>
       <c r="H94" s="3">
-        <v>-43300</v>
+        <v>-116500</v>
       </c>
       <c r="I94" s="3">
-        <v>-110100</v>
+        <v>-41900</v>
       </c>
       <c r="J94" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-184500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-105300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>71000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>245700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-94400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-152100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-217000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,76 +6247,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-195700</v>
       </c>
       <c r="E96" s="3">
-        <v>-202100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-195700</v>
       </c>
       <c r="G96" s="3">
-        <v>-202100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-195600</v>
       </c>
       <c r="I96" s="3">
-        <v>-202000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-195600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-208900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-210000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-189300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-208200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-181100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-207000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-177600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-47700</v>
+        <v>-217500</v>
       </c>
       <c r="E100" s="3">
-        <v>-198500</v>
+        <v>-46200</v>
       </c>
       <c r="F100" s="3">
-        <v>-20000</v>
+        <v>-192200</v>
       </c>
       <c r="G100" s="3">
-        <v>-223700</v>
+        <v>-19400</v>
       </c>
       <c r="H100" s="3">
-        <v>-25200</v>
+        <v>-216600</v>
       </c>
       <c r="I100" s="3">
-        <v>-223700</v>
+        <v>-24400</v>
       </c>
       <c r="J100" s="3">
+        <v>-216600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-228800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-246500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-149600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-313400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>86200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-506100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-270700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-477900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-111300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-183800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>58500</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>99500</v>
+        <v>8700</v>
       </c>
       <c r="G101" s="3">
-        <v>11800</v>
+        <v>96300</v>
       </c>
       <c r="H101" s="3">
-        <v>7800</v>
+        <v>11500</v>
       </c>
       <c r="I101" s="3">
-        <v>-900</v>
+        <v>7600</v>
       </c>
       <c r="J101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-41500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>57300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-73300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-72400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>60400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>35400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-51500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>19600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>97700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>616000</v>
+        <v>-209700</v>
       </c>
       <c r="E102" s="3">
-        <v>-314100</v>
+        <v>596400</v>
       </c>
       <c r="F102" s="3">
-        <v>484200</v>
+        <v>-304200</v>
       </c>
       <c r="G102" s="3">
-        <v>-301600</v>
+        <v>468800</v>
       </c>
       <c r="H102" s="3">
-        <v>15100</v>
+        <v>-292100</v>
       </c>
       <c r="I102" s="3">
-        <v>-246100</v>
+        <v>14600</v>
       </c>
       <c r="J102" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="K102" s="3">
         <v>367500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-92800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-608500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>416200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-407900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>83700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>718500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>131700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>129400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-222400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>127300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-162900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,320 +662,333 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1731400</v>
+        <v>1487100</v>
       </c>
       <c r="E8" s="3">
-        <v>1394300</v>
+        <v>1581200</v>
       </c>
       <c r="F8" s="3">
-        <v>1696600</v>
+        <v>1273300</v>
       </c>
       <c r="G8" s="3">
-        <v>1259100</v>
+        <v>1549400</v>
       </c>
       <c r="H8" s="3">
-        <v>1546400</v>
+        <v>1149900</v>
       </c>
       <c r="I8" s="3">
-        <v>1292000</v>
+        <v>1412200</v>
       </c>
       <c r="J8" s="3">
+        <v>1179900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1412400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1846200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1701700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1335000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1410600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1687300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1483300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1456900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1393500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1447400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1294700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1282400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1152000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1235800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>377200</v>
+        <v>395200</v>
       </c>
       <c r="E9" s="3">
-        <v>346500</v>
+        <v>344500</v>
       </c>
       <c r="F9" s="3">
-        <v>334800</v>
+        <v>316400</v>
       </c>
       <c r="G9" s="3">
-        <v>351000</v>
+        <v>305800</v>
       </c>
       <c r="H9" s="3">
-        <v>345000</v>
+        <v>320600</v>
       </c>
       <c r="I9" s="3">
-        <v>353400</v>
+        <v>315100</v>
       </c>
       <c r="J9" s="3">
+        <v>322700</v>
+      </c>
+      <c r="K9" s="3">
         <v>326500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>427400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>370300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>392900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>410900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>469300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>408600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>436700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>407400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>488500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>476900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>446600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>426100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>440600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1354100</v>
+        <v>1091900</v>
       </c>
       <c r="E10" s="3">
-        <v>1047800</v>
+        <v>1236700</v>
       </c>
       <c r="F10" s="3">
-        <v>1361800</v>
+        <v>956900</v>
       </c>
       <c r="G10" s="3">
-        <v>908100</v>
+        <v>1243600</v>
       </c>
       <c r="H10" s="3">
-        <v>1201400</v>
+        <v>829300</v>
       </c>
       <c r="I10" s="3">
-        <v>938600</v>
+        <v>1097100</v>
       </c>
       <c r="J10" s="3">
+        <v>857100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1085900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1418800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>964700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1017800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1276400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1014000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1048300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>956800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1040100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>911500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>817800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>835800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>725900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>795200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,79 +1014,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>369900</v>
+        <v>377400</v>
       </c>
       <c r="E12" s="3">
-        <v>325100</v>
+        <v>337800</v>
       </c>
       <c r="F12" s="3">
-        <v>356700</v>
+        <v>296900</v>
       </c>
       <c r="G12" s="3">
-        <v>359300</v>
+        <v>325700</v>
       </c>
       <c r="H12" s="3">
-        <v>346700</v>
+        <v>328300</v>
       </c>
       <c r="I12" s="3">
-        <v>315600</v>
+        <v>316600</v>
       </c>
       <c r="J12" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K12" s="3">
         <v>260400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>326600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>319100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>354700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>269600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>416400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>344700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>286800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>310200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>339700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>324400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>297600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>292300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>217900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1160,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,8 +1234,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1308,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1614900</v>
+        <v>1649200</v>
       </c>
       <c r="E17" s="3">
-        <v>1347400</v>
+        <v>1474800</v>
       </c>
       <c r="F17" s="3">
-        <v>1223900</v>
+        <v>1230500</v>
       </c>
       <c r="G17" s="3">
-        <v>1309700</v>
+        <v>1117800</v>
       </c>
       <c r="H17" s="3">
-        <v>1345000</v>
+        <v>1198000</v>
       </c>
       <c r="I17" s="3">
-        <v>1275300</v>
+        <v>1228300</v>
       </c>
       <c r="J17" s="3">
+        <v>1164600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1138400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1386600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1325300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1278100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1174100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1408200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1198700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1206500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1171600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1228500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1180800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1145600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1139300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1066900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>116400</v>
+        <v>-162100</v>
       </c>
       <c r="E18" s="3">
-        <v>46900</v>
+        <v>106300</v>
       </c>
       <c r="F18" s="3">
-        <v>472600</v>
+        <v>42800</v>
       </c>
       <c r="G18" s="3">
-        <v>-50500</v>
+        <v>431600</v>
       </c>
       <c r="H18" s="3">
-        <v>201400</v>
+        <v>-48100</v>
       </c>
       <c r="I18" s="3">
-        <v>16700</v>
+        <v>183900</v>
       </c>
       <c r="J18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K18" s="3">
         <v>274000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>459600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>376400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>236600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>279100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>258200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>187100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>275800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>171500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>136800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>168900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,150 +1511,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>202900</v>
+        <v>-90200</v>
       </c>
       <c r="E21" s="3">
-        <v>131500</v>
+        <v>185300</v>
       </c>
       <c r="F21" s="3">
-        <v>556500</v>
+        <v>120100</v>
       </c>
       <c r="G21" s="3">
-        <v>31200</v>
+        <v>508200</v>
       </c>
       <c r="H21" s="3">
-        <v>282300</v>
+        <v>26500</v>
       </c>
       <c r="I21" s="3">
-        <v>93500</v>
+        <v>257800</v>
       </c>
       <c r="J21" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K21" s="3">
         <v>350800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>535800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>461800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>138000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>352900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>153200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>327000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>255900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>335700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>231200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>169200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>194900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>63100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>222500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1691,150 +1731,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>118500</v>
+        <v>-161900</v>
       </c>
       <c r="E23" s="3">
-        <v>47500</v>
+        <v>108200</v>
       </c>
       <c r="F23" s="3">
-        <v>475800</v>
+        <v>43300</v>
       </c>
       <c r="G23" s="3">
-        <v>-49500</v>
+        <v>434500</v>
       </c>
       <c r="H23" s="3">
-        <v>204100</v>
+        <v>-47200</v>
       </c>
       <c r="I23" s="3">
-        <v>16900</v>
+        <v>186400</v>
       </c>
       <c r="J23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K23" s="3">
         <v>276800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>460400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>383200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>247000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>288200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>263700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>193300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>274700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>171600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>111400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>136700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>168100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>-53800</v>
       </c>
       <c r="E24" s="3">
-        <v>11300</v>
+        <v>6600</v>
       </c>
       <c r="F24" s="3">
-        <v>115000</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
-        <v>-20800</v>
+        <v>105000</v>
       </c>
       <c r="H24" s="3">
-        <v>35800</v>
+        <v>-19600</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>32700</v>
       </c>
       <c r="J24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K24" s="3">
         <v>65600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-40700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>69600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>78400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-6200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>67300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>111300</v>
+        <v>-108100</v>
       </c>
       <c r="E26" s="3">
-        <v>36100</v>
+        <v>101600</v>
       </c>
       <c r="F26" s="3">
-        <v>360900</v>
+        <v>33000</v>
       </c>
       <c r="G26" s="3">
-        <v>-28700</v>
+        <v>329600</v>
       </c>
       <c r="H26" s="3">
-        <v>168300</v>
+        <v>-27600</v>
       </c>
       <c r="I26" s="3">
-        <v>11700</v>
+        <v>153700</v>
       </c>
       <c r="J26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K26" s="3">
         <v>211100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>428000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>423800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>202400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>218600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>191700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>142600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>88400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>95600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>120900</v>
+        <v>-96600</v>
       </c>
       <c r="E27" s="3">
-        <v>34300</v>
+        <v>110400</v>
       </c>
       <c r="F27" s="3">
-        <v>359600</v>
+        <v>31300</v>
       </c>
       <c r="G27" s="3">
-        <v>-26000</v>
+        <v>328400</v>
       </c>
       <c r="H27" s="3">
-        <v>165200</v>
+        <v>-25100</v>
       </c>
       <c r="I27" s="3">
-        <v>11700</v>
+        <v>150900</v>
       </c>
       <c r="J27" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K27" s="3">
         <v>208300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>427400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>421400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>198500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>225000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>189000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>214600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>93200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2188,8 +2249,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1000</v>
+        <v>-2900</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>120900</v>
+        <v>-96600</v>
       </c>
       <c r="E33" s="3">
-        <v>34300</v>
+        <v>110400</v>
       </c>
       <c r="F33" s="3">
-        <v>359600</v>
+        <v>31300</v>
       </c>
       <c r="G33" s="3">
-        <v>-26000</v>
+        <v>328400</v>
       </c>
       <c r="H33" s="3">
-        <v>165200</v>
+        <v>-25100</v>
       </c>
       <c r="I33" s="3">
-        <v>11700</v>
+        <v>150900</v>
       </c>
       <c r="J33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K33" s="3">
         <v>208300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>427400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>421400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>198500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>225000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>189000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>111900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>88600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>93200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>120900</v>
+        <v>-96600</v>
       </c>
       <c r="E35" s="3">
-        <v>34300</v>
+        <v>110400</v>
       </c>
       <c r="F35" s="3">
-        <v>359600</v>
+        <v>31300</v>
       </c>
       <c r="G35" s="3">
-        <v>-26000</v>
+        <v>328400</v>
       </c>
       <c r="H35" s="3">
-        <v>165200</v>
+        <v>-25100</v>
       </c>
       <c r="I35" s="3">
-        <v>11700</v>
+        <v>150900</v>
       </c>
       <c r="J35" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K35" s="3">
         <v>208300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>427400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>421400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>198500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>225000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>189000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>111900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>88600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>93200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,647 +2830,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2204300</v>
+        <v>2412000</v>
       </c>
       <c r="E41" s="3">
-        <v>2414000</v>
+        <v>2013100</v>
       </c>
       <c r="F41" s="3">
-        <v>1817600</v>
+        <v>2204600</v>
       </c>
       <c r="G41" s="3">
-        <v>1765600</v>
+        <v>1659900</v>
       </c>
       <c r="H41" s="3">
-        <v>1652900</v>
+        <v>3550100</v>
       </c>
       <c r="I41" s="3">
-        <v>1945000</v>
+        <v>1509500</v>
       </c>
       <c r="J41" s="3">
+        <v>1776300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1930400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2239900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1936200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1979500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2065500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2752600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2347000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2711100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2542800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2445500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1727000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1595400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1466000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1656700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1529400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7900</v>
+        <v>3400</v>
       </c>
       <c r="E42" s="3">
-        <v>6200</v>
+        <v>7200</v>
       </c>
       <c r="F42" s="3">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="G42" s="3">
-        <v>358400</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3">
-        <v>5600</v>
+        <v>327400</v>
       </c>
       <c r="I42" s="3">
-        <v>8100</v>
+        <v>5100</v>
       </c>
       <c r="J42" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K42" s="3">
         <v>5700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>62800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>72000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>173900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>169000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>168700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>447200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>359400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>399800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>380300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>335200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1830500</v>
+        <v>1619900</v>
       </c>
       <c r="E43" s="3">
-        <v>1489400</v>
+        <v>1671700</v>
       </c>
       <c r="F43" s="3">
-        <v>2015900</v>
+        <v>1360200</v>
       </c>
       <c r="G43" s="3">
-        <v>1367400</v>
+        <v>1841100</v>
       </c>
       <c r="H43" s="3">
-        <v>1722900</v>
+        <v>2497600</v>
       </c>
       <c r="I43" s="3">
-        <v>1561200</v>
+        <v>1573400</v>
       </c>
       <c r="J43" s="3">
+        <v>1425800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1569400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1586000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1791700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1507800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1544100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1505300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1566000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1386600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1352300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1369300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1608700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1562400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1480200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1370400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1630200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>789100</v>
+        <v>771300</v>
       </c>
       <c r="E44" s="3">
-        <v>768100</v>
+        <v>720700</v>
       </c>
       <c r="F44" s="3">
-        <v>766400</v>
+        <v>701400</v>
       </c>
       <c r="G44" s="3">
-        <v>726100</v>
+        <v>699900</v>
       </c>
       <c r="H44" s="3">
-        <v>673400</v>
+        <v>1326100</v>
       </c>
       <c r="I44" s="3">
-        <v>639200</v>
+        <v>615000</v>
       </c>
       <c r="J44" s="3">
+        <v>583700</v>
+      </c>
+      <c r="K44" s="3">
         <v>605000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>579100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>605200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>598500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>585800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>652400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>624300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>659800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>640100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>731600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>723500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>747100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>763400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>735100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>736700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>175800</v>
+        <v>183700</v>
       </c>
       <c r="E45" s="3">
-        <v>190600</v>
+        <v>160500</v>
       </c>
       <c r="F45" s="3">
-        <v>194000</v>
+        <v>174100</v>
       </c>
       <c r="G45" s="3">
-        <v>203900</v>
+        <v>177200</v>
       </c>
       <c r="H45" s="3">
-        <v>172800</v>
+        <v>186300</v>
       </c>
       <c r="I45" s="3">
-        <v>150100</v>
+        <v>157800</v>
       </c>
       <c r="J45" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K45" s="3">
         <v>165100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>174900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>195700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>211000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>414900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>298400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>291600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>129400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>127600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>161000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>151900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5007600</v>
+        <v>4990300</v>
       </c>
       <c r="E46" s="3">
-        <v>4868200</v>
+        <v>4573200</v>
       </c>
       <c r="F46" s="3">
-        <v>4798200</v>
+        <v>4445900</v>
       </c>
       <c r="G46" s="3">
-        <v>4421500</v>
+        <v>4381900</v>
       </c>
       <c r="H46" s="3">
-        <v>4227600</v>
+        <v>4037900</v>
       </c>
       <c r="I46" s="3">
-        <v>4303500</v>
+        <v>3860900</v>
       </c>
       <c r="J46" s="3">
+        <v>3930200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4275600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4593600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4556300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4341400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4469300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5397700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4909400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5229800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4995800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4844600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4634000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4403200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4270500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4294500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4331600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>358000</v>
+        <v>343000</v>
       </c>
       <c r="E47" s="3">
-        <v>367700</v>
+        <v>327000</v>
       </c>
       <c r="F47" s="3">
-        <v>345200</v>
+        <v>335800</v>
       </c>
       <c r="G47" s="3">
-        <v>373800</v>
+        <v>315200</v>
       </c>
       <c r="H47" s="3">
-        <v>356600</v>
+        <v>341300</v>
       </c>
       <c r="I47" s="3">
-        <v>366200</v>
+        <v>325700</v>
       </c>
       <c r="J47" s="3">
+        <v>334400</v>
+      </c>
+      <c r="K47" s="3">
         <v>360900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>350500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>433800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>457400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>458600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>509400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>457600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>502800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>464700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>432000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>467400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>529000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>514000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>483100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>500900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1385400</v>
+        <v>1323700</v>
       </c>
       <c r="E48" s="3">
-        <v>1359200</v>
+        <v>1265200</v>
       </c>
       <c r="F48" s="3">
-        <v>1356900</v>
+        <v>1241300</v>
       </c>
       <c r="G48" s="3">
-        <v>1372800</v>
+        <v>1239200</v>
       </c>
       <c r="H48" s="3">
-        <v>1223900</v>
+        <v>2507300</v>
       </c>
       <c r="I48" s="3">
-        <v>1220700</v>
+        <v>1117700</v>
       </c>
       <c r="J48" s="3">
+        <v>1114800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1231000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1274300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1266900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1242200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1264400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1010700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>891200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>872700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>888800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>931700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>937300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>940900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>938700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>918700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>907000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2421400</v>
+        <v>2237400</v>
       </c>
       <c r="E49" s="3">
-        <v>2401100</v>
+        <v>2211300</v>
       </c>
       <c r="F49" s="3">
-        <v>2409800</v>
+        <v>2192800</v>
       </c>
       <c r="G49" s="3">
-        <v>2392000</v>
+        <v>2200800</v>
       </c>
       <c r="H49" s="3">
-        <v>2287000</v>
+        <v>3013500</v>
       </c>
       <c r="I49" s="3">
-        <v>2336300</v>
+        <v>2088600</v>
       </c>
       <c r="J49" s="3">
+        <v>2133600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2307000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2420800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2621800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2595600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2573300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2597600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2591200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2612200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2520100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2462500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2589500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2588300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2594700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2541000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2590500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>785200</v>
+        <v>759800</v>
       </c>
       <c r="E52" s="3">
-        <v>729000</v>
+        <v>717000</v>
       </c>
       <c r="F52" s="3">
-        <v>723200</v>
+        <v>665700</v>
       </c>
       <c r="G52" s="3">
-        <v>737800</v>
+        <v>660400</v>
       </c>
       <c r="H52" s="3">
-        <v>678400</v>
+        <v>678800</v>
       </c>
       <c r="I52" s="3">
-        <v>700900</v>
+        <v>619600</v>
       </c>
       <c r="J52" s="3">
+        <v>640100</v>
+      </c>
+      <c r="K52" s="3">
         <v>699300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>718400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>699300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>646700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>634500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>781900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>835600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>817500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>826100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>812500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>847300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>891200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>906900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>905700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>898500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9957500</v>
+        <v>9654300</v>
       </c>
       <c r="E54" s="3">
-        <v>9725100</v>
+        <v>9093700</v>
       </c>
       <c r="F54" s="3">
-        <v>9633300</v>
+        <v>8881500</v>
       </c>
       <c r="G54" s="3">
-        <v>9297800</v>
+        <v>8797600</v>
       </c>
       <c r="H54" s="3">
-        <v>8773600</v>
+        <v>8478800</v>
       </c>
       <c r="I54" s="3">
-        <v>8927700</v>
+        <v>8012400</v>
       </c>
       <c r="J54" s="3">
+        <v>8153200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8873700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9357500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9578100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9283300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9400100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10297300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9685000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10035000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9695500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9483200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9475500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9352600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9224800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9142900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9228400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3792,434 +3922,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>773200</v>
+        <v>841800</v>
       </c>
       <c r="E57" s="3">
-        <v>650600</v>
+        <v>706100</v>
       </c>
       <c r="F57" s="3">
-        <v>689000</v>
+        <v>594200</v>
       </c>
       <c r="G57" s="3">
-        <v>241400</v>
+        <v>629200</v>
       </c>
       <c r="H57" s="3">
-        <v>598700</v>
+        <v>957000</v>
       </c>
       <c r="I57" s="3">
-        <v>664500</v>
+        <v>546800</v>
       </c>
       <c r="J57" s="3">
+        <v>606800</v>
+      </c>
+      <c r="K57" s="3">
         <v>527700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>677300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>549100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>485900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>534200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>745000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>485200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>484100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>478500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>615600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>522700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>509300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>502600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>627600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>586800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>341200</v>
+        <v>318300</v>
       </c>
       <c r="E58" s="3">
-        <v>341100</v>
+        <v>311600</v>
       </c>
       <c r="F58" s="3">
-        <v>364800</v>
+        <v>311500</v>
       </c>
       <c r="G58" s="3">
-        <v>341100</v>
+        <v>333200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>311500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>298500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>308300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>537400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>555900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>366400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>470800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>377500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>371500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>263600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>148300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>627600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>556000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>554900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>443500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>65600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1487200</v>
+        <v>1280700</v>
       </c>
       <c r="E59" s="3">
-        <v>1403700</v>
+        <v>1358200</v>
       </c>
       <c r="F59" s="3">
-        <v>1316900</v>
+        <v>1281900</v>
       </c>
       <c r="G59" s="3">
-        <v>1601400</v>
+        <v>1202700</v>
       </c>
       <c r="H59" s="3">
-        <v>1034200</v>
+        <v>2117700</v>
       </c>
       <c r="I59" s="3">
-        <v>1069100</v>
+        <v>944500</v>
       </c>
       <c r="J59" s="3">
+        <v>976300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1148600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1234200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1425100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1469200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1439200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1626200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1724200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1627300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1525800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1420800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1003500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>957600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>954900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>913100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>880900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2601600</v>
+        <v>2440900</v>
       </c>
       <c r="E60" s="3">
-        <v>2395500</v>
+        <v>2375900</v>
       </c>
       <c r="F60" s="3">
-        <v>2370800</v>
+        <v>2187700</v>
       </c>
       <c r="G60" s="3">
-        <v>2183800</v>
+        <v>2165100</v>
       </c>
       <c r="H60" s="3">
-        <v>1632900</v>
+        <v>1994400</v>
       </c>
       <c r="I60" s="3">
-        <v>1733600</v>
+        <v>1491200</v>
       </c>
       <c r="J60" s="3">
+        <v>1583200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1974900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2219800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2511700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2511000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2339800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2842000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2586900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2482900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2267900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2184700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2153800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2022900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2012400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1984100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1533300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>425900</v>
+        <v>739200</v>
       </c>
       <c r="E61" s="3">
-        <v>425800</v>
+        <v>388900</v>
       </c>
       <c r="F61" s="3">
-        <v>425800</v>
+        <v>388900</v>
       </c>
       <c r="G61" s="3">
-        <v>425700</v>
+        <v>388800</v>
       </c>
       <c r="H61" s="3">
-        <v>766700</v>
+        <v>388800</v>
       </c>
       <c r="I61" s="3">
-        <v>766600</v>
+        <v>700200</v>
       </c>
       <c r="J61" s="3">
+        <v>700100</v>
+      </c>
+      <c r="K61" s="3">
         <v>468700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>484100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>504900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>823600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>864000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>848600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1151600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1481900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1416900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1435100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1434300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1477400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1450000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1904900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>458700</v>
+        <v>463900</v>
       </c>
       <c r="E62" s="3">
-        <v>460900</v>
+        <v>418900</v>
       </c>
       <c r="F62" s="3">
-        <v>461800</v>
+        <v>420900</v>
       </c>
       <c r="G62" s="3">
-        <v>478900</v>
+        <v>421800</v>
       </c>
       <c r="H62" s="3">
-        <v>426900</v>
+        <v>437300</v>
       </c>
       <c r="I62" s="3">
-        <v>432400</v>
+        <v>389800</v>
       </c>
       <c r="J62" s="3">
+        <v>394800</v>
+      </c>
+      <c r="K62" s="3">
         <v>430900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>463400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>471200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>442400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>446400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>325800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>356500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>328000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>315200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>330200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>363800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>362100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>356100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>363700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>369600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3689800</v>
+        <v>3820900</v>
       </c>
       <c r="E66" s="3">
-        <v>3495400</v>
+        <v>3369700</v>
       </c>
       <c r="F66" s="3">
-        <v>3469900</v>
+        <v>3192100</v>
       </c>
       <c r="G66" s="3">
-        <v>3299600</v>
+        <v>3168900</v>
       </c>
       <c r="H66" s="3">
-        <v>3039900</v>
+        <v>3013400</v>
       </c>
       <c r="I66" s="3">
-        <v>3142600</v>
+        <v>2776200</v>
       </c>
       <c r="J66" s="3">
+        <v>2870000</v>
+      </c>
+      <c r="K66" s="3">
         <v>3084900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3383200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3706000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3680500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3832200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4261100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4023600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4190300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4285600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4117300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4137900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3995100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4015200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3957200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3964100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4813,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4444700</v>
+        <v>3946300</v>
       </c>
       <c r="E72" s="3">
-        <v>4531300</v>
+        <v>4059100</v>
       </c>
       <c r="F72" s="3">
-        <v>4487000</v>
+        <v>4138200</v>
       </c>
       <c r="G72" s="3">
-        <v>4333000</v>
+        <v>4097800</v>
       </c>
       <c r="H72" s="3">
-        <v>4313100</v>
+        <v>3944900</v>
       </c>
       <c r="I72" s="3">
-        <v>4346700</v>
+        <v>3938900</v>
       </c>
       <c r="J72" s="3">
+        <v>3969600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4332900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4452200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4207300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4045400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3982400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4213900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3897700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3990100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3700800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3751300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3515100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3565200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3472600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3503500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3467100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5097,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6267700</v>
+        <v>5833300</v>
       </c>
       <c r="E76" s="3">
-        <v>6229800</v>
+        <v>5724000</v>
       </c>
       <c r="F76" s="3">
-        <v>6163400</v>
+        <v>5689300</v>
       </c>
       <c r="G76" s="3">
-        <v>5998200</v>
+        <v>5628700</v>
       </c>
       <c r="H76" s="3">
-        <v>5733700</v>
+        <v>5465500</v>
       </c>
       <c r="I76" s="3">
-        <v>5785100</v>
+        <v>5236300</v>
       </c>
       <c r="J76" s="3">
+        <v>5283200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5788900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5974300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5872100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5602800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5567900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6036200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5661400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5844700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5409900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5366000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5337600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5357500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5209700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5185700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5264400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>120900</v>
+        <v>-96600</v>
       </c>
       <c r="E81" s="3">
-        <v>34300</v>
+        <v>110400</v>
       </c>
       <c r="F81" s="3">
-        <v>359600</v>
+        <v>31300</v>
       </c>
       <c r="G81" s="3">
-        <v>-26000</v>
+        <v>328400</v>
       </c>
       <c r="H81" s="3">
-        <v>165200</v>
+        <v>-25100</v>
       </c>
       <c r="I81" s="3">
-        <v>11700</v>
+        <v>150900</v>
       </c>
       <c r="J81" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K81" s="3">
         <v>208300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>427400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>421400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>198500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>225000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>189000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>111900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>88600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>93200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5413,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>84400</v>
+        <v>71700</v>
       </c>
       <c r="E83" s="3">
-        <v>84000</v>
+        <v>77100</v>
       </c>
       <c r="F83" s="3">
-        <v>80700</v>
+        <v>76700</v>
       </c>
       <c r="G83" s="3">
-        <v>80800</v>
+        <v>73700</v>
       </c>
       <c r="H83" s="3">
-        <v>78200</v>
+        <v>73800</v>
       </c>
       <c r="I83" s="3">
-        <v>76600</v>
+        <v>71400</v>
       </c>
       <c r="J83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K83" s="3">
         <v>74000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>75700</v>
       </c>
       <c r="N83" s="3">
         <v>75700</v>
       </c>
       <c r="O83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="P83" s="3">
         <v>64700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>62500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>61000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>59700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>58100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>54400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>40600</v>
+        <v>346000</v>
       </c>
       <c r="E89" s="3">
-        <v>705300</v>
+        <v>37100</v>
       </c>
       <c r="F89" s="3">
-        <v>-121700</v>
+        <v>644100</v>
       </c>
       <c r="G89" s="3">
-        <v>441400</v>
+        <v>-111200</v>
       </c>
       <c r="H89" s="3">
-        <v>29500</v>
+        <v>403100</v>
       </c>
       <c r="I89" s="3">
-        <v>73300</v>
+        <v>26900</v>
       </c>
       <c r="J89" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K89" s="3">
         <v>85700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>648100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>189300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-37300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>415600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>99600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>349100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>112200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1002200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>236800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>147300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-33400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>295000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>140100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5937,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-32100</v>
+        <v>-54600</v>
       </c>
       <c r="E91" s="3">
-        <v>-52300</v>
+        <v>-29300</v>
       </c>
       <c r="F91" s="3">
-        <v>-103400</v>
+        <v>-47800</v>
       </c>
       <c r="G91" s="3">
-        <v>-39900</v>
+        <v>-94400</v>
       </c>
       <c r="H91" s="3">
-        <v>-14000</v>
+        <v>-36500</v>
       </c>
       <c r="I91" s="3">
-        <v>-34000</v>
+        <v>-12800</v>
       </c>
       <c r="J91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-105900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-94800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-91300</v>
+        <v>-79400</v>
       </c>
       <c r="E94" s="3">
-        <v>-68900</v>
+        <v>-83400</v>
       </c>
       <c r="F94" s="3">
-        <v>1100</v>
+        <v>-62900</v>
       </c>
       <c r="G94" s="3">
-        <v>-49600</v>
+        <v>1000</v>
       </c>
       <c r="H94" s="3">
-        <v>-116500</v>
+        <v>-45300</v>
       </c>
       <c r="I94" s="3">
-        <v>-41900</v>
+        <v>-106300</v>
       </c>
       <c r="J94" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-106600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-184500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-105300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>71000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>245700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-94400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-152100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-217000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6248,79 +6481,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-195700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-178700</v>
       </c>
       <c r="F96" s="3">
-        <v>-195700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-178700</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-195600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-195600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-208900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-210000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-189300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-208200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-181100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-207000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-177600</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6532,217 +6775,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-217500</v>
+        <v>34900</v>
       </c>
       <c r="E100" s="3">
-        <v>-46200</v>
+        <v>-198600</v>
       </c>
       <c r="F100" s="3">
-        <v>-192200</v>
+        <v>-42200</v>
       </c>
       <c r="G100" s="3">
-        <v>-19400</v>
+        <v>-175500</v>
       </c>
       <c r="H100" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-197800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-216600</v>
       </c>
-      <c r="I100" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-216600</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-228800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-246500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-149600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-313400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>86200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-506100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-270700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-477900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-111300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-105600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-183800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>58500</v>
+        <v>97500</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>53400</v>
       </c>
       <c r="F101" s="3">
-        <v>8700</v>
+        <v>5600</v>
       </c>
       <c r="G101" s="3">
-        <v>96300</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
-        <v>11500</v>
+        <v>88000</v>
       </c>
       <c r="I101" s="3">
-        <v>7600</v>
+        <v>10500</v>
       </c>
       <c r="J101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-73300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>60400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>35400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-51500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>19600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>97700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-209700</v>
+        <v>398900</v>
       </c>
       <c r="E102" s="3">
-        <v>596400</v>
+        <v>-191500</v>
       </c>
       <c r="F102" s="3">
-        <v>-304200</v>
+        <v>544700</v>
       </c>
       <c r="G102" s="3">
-        <v>468800</v>
+        <v>-277800</v>
       </c>
       <c r="H102" s="3">
-        <v>-292100</v>
+        <v>428200</v>
       </c>
       <c r="I102" s="3">
-        <v>14600</v>
+        <v>-266700</v>
       </c>
       <c r="J102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-238300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>367500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-92800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-608500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>416200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-407900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>112300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>83700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>718500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>131700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>129400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-222400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>127300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-162900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ESALY</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,333 +665,346 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1487100</v>
+        <v>1350600</v>
       </c>
       <c r="E8" s="3">
-        <v>1581200</v>
+        <v>1399300</v>
       </c>
       <c r="F8" s="3">
-        <v>1273300</v>
+        <v>1487800</v>
       </c>
       <c r="G8" s="3">
-        <v>1549400</v>
+        <v>1198200</v>
       </c>
       <c r="H8" s="3">
-        <v>1149900</v>
+        <v>1457900</v>
       </c>
       <c r="I8" s="3">
-        <v>1412200</v>
+        <v>1082000</v>
       </c>
       <c r="J8" s="3">
+        <v>1328800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1179900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1412400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1846200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1701700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1335000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1410600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1687300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1483300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1456900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1393500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1447400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1294700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1282400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1235800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>395200</v>
+        <v>347500</v>
       </c>
       <c r="E9" s="3">
-        <v>344500</v>
+        <v>371900</v>
       </c>
       <c r="F9" s="3">
-        <v>316400</v>
+        <v>324100</v>
       </c>
       <c r="G9" s="3">
-        <v>305800</v>
+        <v>297800</v>
       </c>
       <c r="H9" s="3">
-        <v>320600</v>
+        <v>287700</v>
       </c>
       <c r="I9" s="3">
-        <v>315100</v>
+        <v>301600</v>
       </c>
       <c r="J9" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K9" s="3">
         <v>322700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>326500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>427400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>370300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>392900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>410900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>469300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>408600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>436700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>407400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>488500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>476900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>446600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>426100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>440600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1091900</v>
+        <v>1003200</v>
       </c>
       <c r="E10" s="3">
-        <v>1236700</v>
+        <v>1027400</v>
       </c>
       <c r="F10" s="3">
-        <v>956900</v>
+        <v>1163600</v>
       </c>
       <c r="G10" s="3">
-        <v>1243600</v>
+        <v>900400</v>
       </c>
       <c r="H10" s="3">
-        <v>829300</v>
+        <v>1170200</v>
       </c>
       <c r="I10" s="3">
-        <v>1097100</v>
+        <v>780400</v>
       </c>
       <c r="J10" s="3">
+        <v>1032300</v>
+      </c>
+      <c r="K10" s="3">
         <v>857100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1085900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1418800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>964700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1017800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1276400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1014000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1048300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>956800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1040100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>911500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>817800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>835800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>725900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>795200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>377400</v>
+        <v>282200</v>
       </c>
       <c r="E12" s="3">
-        <v>337800</v>
+        <v>354300</v>
       </c>
       <c r="F12" s="3">
-        <v>296900</v>
+        <v>317800</v>
       </c>
       <c r="G12" s="3">
-        <v>325700</v>
+        <v>279400</v>
       </c>
       <c r="H12" s="3">
-        <v>328300</v>
+        <v>306400</v>
       </c>
       <c r="I12" s="3">
-        <v>316600</v>
+        <v>308900</v>
       </c>
       <c r="J12" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K12" s="3">
         <v>288200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>260400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>326600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>319100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>354700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>269600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>416400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>344700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>286800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>310200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>339700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>324400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>297600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>292300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>217900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1649200</v>
+        <v>1296100</v>
       </c>
       <c r="E17" s="3">
-        <v>1474800</v>
+        <v>1551800</v>
       </c>
       <c r="F17" s="3">
-        <v>1230500</v>
+        <v>1387700</v>
       </c>
       <c r="G17" s="3">
-        <v>1117800</v>
+        <v>1157800</v>
       </c>
       <c r="H17" s="3">
-        <v>1198000</v>
+        <v>1052300</v>
       </c>
       <c r="I17" s="3">
-        <v>1228300</v>
+        <v>1127300</v>
       </c>
       <c r="J17" s="3">
+        <v>1155800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1164600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1138400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1386600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1325300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1278100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1174100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1408200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1198700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1206500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1171600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1228500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1180800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1145600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1139300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1066900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-162100</v>
+        <v>54500</v>
       </c>
       <c r="E18" s="3">
-        <v>106300</v>
+        <v>-152500</v>
       </c>
       <c r="F18" s="3">
-        <v>42800</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="3">
-        <v>431600</v>
+        <v>40300</v>
       </c>
       <c r="H18" s="3">
-        <v>-48100</v>
+        <v>405600</v>
       </c>
       <c r="I18" s="3">
-        <v>183900</v>
+        <v>-45300</v>
       </c>
       <c r="J18" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>274000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>459600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>376400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>236600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>279100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>258200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>187100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>275800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>171500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>113900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>136800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>168900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>1900</v>
-      </c>
       <c r="F20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>2900</v>
-      </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>2400</v>
-      </c>
       <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-90200</v>
+        <v>143100</v>
       </c>
       <c r="E21" s="3">
-        <v>185300</v>
+        <v>-84800</v>
       </c>
       <c r="F21" s="3">
-        <v>120100</v>
+        <v>174300</v>
       </c>
       <c r="G21" s="3">
-        <v>508200</v>
+        <v>113000</v>
       </c>
       <c r="H21" s="3">
-        <v>26500</v>
+        <v>477700</v>
       </c>
       <c r="I21" s="3">
-        <v>257800</v>
+        <v>21100</v>
       </c>
       <c r="J21" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K21" s="3">
         <v>85400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>350800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>535800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>461800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>138000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>322700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>352900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>153200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>327000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>255900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>335700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>231200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>169200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>194900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>63100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>222500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1734,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-161900</v>
+        <v>71300</v>
       </c>
       <c r="E23" s="3">
-        <v>108200</v>
+        <v>-152300</v>
       </c>
       <c r="F23" s="3">
-        <v>43300</v>
+        <v>101800</v>
       </c>
       <c r="G23" s="3">
-        <v>434500</v>
+        <v>40800</v>
       </c>
       <c r="H23" s="3">
-        <v>-47200</v>
+        <v>408400</v>
       </c>
       <c r="I23" s="3">
-        <v>186400</v>
+        <v>-44400</v>
       </c>
       <c r="J23" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>460400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>383200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>247000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>288200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>263700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>193300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>274700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>171600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>111400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>136700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>168100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-53800</v>
+        <v>-133800</v>
       </c>
       <c r="E24" s="3">
-        <v>6600</v>
+        <v>-50600</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>105000</v>
+        <v>9700</v>
       </c>
       <c r="H24" s="3">
-        <v>-19600</v>
+        <v>98700</v>
       </c>
       <c r="I24" s="3">
-        <v>32700</v>
+        <v>-18400</v>
       </c>
       <c r="J24" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-40700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>50700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>78400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>41100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>67300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1956,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-108100</v>
+        <v>205000</v>
       </c>
       <c r="E26" s="3">
-        <v>101600</v>
+        <v>-101700</v>
       </c>
       <c r="F26" s="3">
-        <v>33000</v>
+        <v>95600</v>
       </c>
       <c r="G26" s="3">
-        <v>329600</v>
+        <v>31100</v>
       </c>
       <c r="H26" s="3">
-        <v>-27600</v>
+        <v>309700</v>
       </c>
       <c r="I26" s="3">
-        <v>153700</v>
+        <v>-26000</v>
       </c>
       <c r="J26" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K26" s="3">
         <v>10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>211100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>428000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>423800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>202400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>218600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>191700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>142600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>88400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>95600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-96600</v>
+        <v>197200</v>
       </c>
       <c r="E27" s="3">
-        <v>110400</v>
+        <v>-90900</v>
       </c>
       <c r="F27" s="3">
-        <v>31300</v>
+        <v>103900</v>
       </c>
       <c r="G27" s="3">
-        <v>328400</v>
+        <v>29500</v>
       </c>
       <c r="H27" s="3">
-        <v>-25100</v>
+        <v>308700</v>
       </c>
       <c r="I27" s="3">
-        <v>150900</v>
+        <v>-23600</v>
       </c>
       <c r="J27" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K27" s="3">
         <v>10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>208300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>427400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>421400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>198500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>225000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>189000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>214600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>84000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>81500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>93200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2178,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2252,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2326,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2400,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-96600</v>
+        <v>197200</v>
       </c>
       <c r="E33" s="3">
-        <v>110400</v>
+        <v>-90900</v>
       </c>
       <c r="F33" s="3">
-        <v>31300</v>
+        <v>103900</v>
       </c>
       <c r="G33" s="3">
-        <v>328400</v>
+        <v>29500</v>
       </c>
       <c r="H33" s="3">
-        <v>-25100</v>
+        <v>308700</v>
       </c>
       <c r="I33" s="3">
-        <v>150900</v>
+        <v>-23600</v>
       </c>
       <c r="J33" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K33" s="3">
         <v>10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>208300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>427400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>421400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>198500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>225000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>189000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>111900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>84000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>81500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>93200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2622,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-96600</v>
+        <v>197200</v>
       </c>
       <c r="E35" s="3">
-        <v>110400</v>
+        <v>-90900</v>
       </c>
       <c r="F35" s="3">
-        <v>31300</v>
+        <v>103900</v>
       </c>
       <c r="G35" s="3">
-        <v>328400</v>
+        <v>29500</v>
       </c>
       <c r="H35" s="3">
-        <v>-25100</v>
+        <v>308700</v>
       </c>
       <c r="I35" s="3">
-        <v>150900</v>
+        <v>-23600</v>
       </c>
       <c r="J35" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K35" s="3">
         <v>10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>208300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>427400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>421400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>198500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>225000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>189000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>111900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>84000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>93200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2803,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2831,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2412000</v>
+        <v>2109700</v>
       </c>
       <c r="E41" s="3">
-        <v>2013100</v>
+        <v>1938000</v>
       </c>
       <c r="F41" s="3">
-        <v>2204600</v>
+        <v>1894200</v>
       </c>
       <c r="G41" s="3">
-        <v>1659900</v>
+        <v>2074400</v>
       </c>
       <c r="H41" s="3">
-        <v>3550100</v>
+        <v>1561900</v>
       </c>
       <c r="I41" s="3">
-        <v>1509500</v>
+        <v>1517200</v>
       </c>
       <c r="J41" s="3">
+        <v>1420400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1776300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1930400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2239900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1936200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1979500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2065500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2752600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2347000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2711100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2542800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2445500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1727000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1595400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1466000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1656700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1529400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3400</v>
+        <v>19400</v>
       </c>
       <c r="E42" s="3">
-        <v>7200</v>
+        <v>334800</v>
       </c>
       <c r="F42" s="3">
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="G42" s="3">
-        <v>3800</v>
+        <v>5300</v>
       </c>
       <c r="H42" s="3">
-        <v>327400</v>
+        <v>3600</v>
       </c>
       <c r="I42" s="3">
-        <v>5100</v>
+        <v>308000</v>
       </c>
       <c r="J42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K42" s="3">
         <v>7400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>72500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>72000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>173900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>169000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>168700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>447200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>359400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>399800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>380300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>335200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1619900</v>
+        <v>1458200</v>
       </c>
       <c r="E43" s="3">
-        <v>1671700</v>
+        <v>1524300</v>
       </c>
       <c r="F43" s="3">
-        <v>1360200</v>
+        <v>1573000</v>
       </c>
       <c r="G43" s="3">
-        <v>1841100</v>
+        <v>1279900</v>
       </c>
       <c r="H43" s="3">
-        <v>2497600</v>
+        <v>1732300</v>
       </c>
       <c r="I43" s="3">
-        <v>1573400</v>
+        <v>1175100</v>
       </c>
       <c r="J43" s="3">
+        <v>1480500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1425800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1569400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1586000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1791700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1507800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1544100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1505300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1566000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1386600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1352300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1369300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1608700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1562400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1480200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1370400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1630200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>771300</v>
+        <v>758700</v>
       </c>
       <c r="E44" s="3">
-        <v>720700</v>
+        <v>725700</v>
       </c>
       <c r="F44" s="3">
-        <v>701400</v>
+        <v>678100</v>
       </c>
       <c r="G44" s="3">
-        <v>699900</v>
+        <v>660000</v>
       </c>
       <c r="H44" s="3">
-        <v>1326100</v>
+        <v>658600</v>
       </c>
       <c r="I44" s="3">
-        <v>615000</v>
+        <v>623900</v>
       </c>
       <c r="J44" s="3">
+        <v>578700</v>
+      </c>
+      <c r="K44" s="3">
         <v>583700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>605000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>579100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>605200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>598500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>585800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>652400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>624300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>659800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>640100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>731600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>723500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>747100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>763400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>735100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>736700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>183700</v>
+        <v>205500</v>
       </c>
       <c r="E45" s="3">
-        <v>160500</v>
+        <v>172900</v>
       </c>
       <c r="F45" s="3">
-        <v>174100</v>
+        <v>151000</v>
       </c>
       <c r="G45" s="3">
-        <v>177200</v>
+        <v>163800</v>
       </c>
       <c r="H45" s="3">
-        <v>186300</v>
+        <v>166700</v>
       </c>
       <c r="I45" s="3">
-        <v>157800</v>
+        <v>175300</v>
       </c>
       <c r="J45" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K45" s="3">
         <v>137100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>165100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>174900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>195700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>211000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>414900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>298400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>291600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>129400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>127600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>138900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>161000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>151900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4990300</v>
+        <v>4551500</v>
       </c>
       <c r="E46" s="3">
-        <v>4573200</v>
+        <v>4695600</v>
       </c>
       <c r="F46" s="3">
-        <v>4445900</v>
+        <v>4303100</v>
       </c>
       <c r="G46" s="3">
-        <v>4381900</v>
+        <v>4183400</v>
       </c>
       <c r="H46" s="3">
-        <v>4037900</v>
+        <v>4123200</v>
       </c>
       <c r="I46" s="3">
-        <v>3860900</v>
+        <v>3799500</v>
       </c>
       <c r="J46" s="3">
+        <v>3632900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3930200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4275600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4593600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4556300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4341400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4469300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5397700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4909400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5229800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4995800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4844600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4634000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4403200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4270500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4294500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4331600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>343000</v>
+        <v>360700</v>
       </c>
       <c r="E47" s="3">
-        <v>327000</v>
+        <v>322800</v>
       </c>
       <c r="F47" s="3">
-        <v>335800</v>
+        <v>307700</v>
       </c>
       <c r="G47" s="3">
-        <v>315200</v>
+        <v>315900</v>
       </c>
       <c r="H47" s="3">
-        <v>341300</v>
+        <v>296600</v>
       </c>
       <c r="I47" s="3">
-        <v>325700</v>
+        <v>321200</v>
       </c>
       <c r="J47" s="3">
+        <v>306400</v>
+      </c>
+      <c r="K47" s="3">
         <v>334400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>360900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>350500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>433800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>457400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>458600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>509400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>457600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>502800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>464700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>432000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>467400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>529000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>514000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>483100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>500900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1323700</v>
+        <v>1267400</v>
       </c>
       <c r="E48" s="3">
-        <v>1265200</v>
+        <v>1245600</v>
       </c>
       <c r="F48" s="3">
-        <v>1241300</v>
+        <v>1190500</v>
       </c>
       <c r="G48" s="3">
-        <v>1239200</v>
+        <v>1168000</v>
       </c>
       <c r="H48" s="3">
-        <v>2507300</v>
+        <v>1166000</v>
       </c>
       <c r="I48" s="3">
-        <v>1117700</v>
+        <v>1179600</v>
       </c>
       <c r="J48" s="3">
+        <v>1051700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1114800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1231000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1274300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1266900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1242200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1264400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1010700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>891200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>872700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>888800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>931700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>937300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>940900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>938700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>918700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>907000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2237400</v>
+        <v>2255400</v>
       </c>
       <c r="E49" s="3">
-        <v>2211300</v>
+        <v>2105200</v>
       </c>
       <c r="F49" s="3">
-        <v>2192800</v>
+        <v>2080800</v>
       </c>
       <c r="G49" s="3">
-        <v>2200800</v>
+        <v>2063300</v>
       </c>
       <c r="H49" s="3">
-        <v>3013500</v>
+        <v>2070800</v>
       </c>
       <c r="I49" s="3">
-        <v>2088600</v>
+        <v>2039200</v>
       </c>
       <c r="J49" s="3">
+        <v>1965300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2133600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2307000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2420800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2621800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2595600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2573300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2597600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2591200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2612200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2520100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2462500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2589500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2588300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2594700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2541000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2590500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3571,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3645,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>759800</v>
+        <v>895100</v>
       </c>
       <c r="E52" s="3">
-        <v>717000</v>
+        <v>715000</v>
       </c>
       <c r="F52" s="3">
-        <v>665700</v>
+        <v>674700</v>
       </c>
       <c r="G52" s="3">
-        <v>660400</v>
+        <v>626400</v>
       </c>
       <c r="H52" s="3">
-        <v>678800</v>
+        <v>621400</v>
       </c>
       <c r="I52" s="3">
-        <v>619600</v>
+        <v>638700</v>
       </c>
       <c r="J52" s="3">
+        <v>583000</v>
+      </c>
+      <c r="K52" s="3">
         <v>640100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>699300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>718400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>699300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>646700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>634500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>781900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>835600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>817500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>826100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>812500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>847300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>891200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>906900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>905700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>898500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3793,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9654300</v>
+        <v>9330100</v>
       </c>
       <c r="E54" s="3">
-        <v>9093700</v>
+        <v>9084200</v>
       </c>
       <c r="F54" s="3">
-        <v>8881500</v>
+        <v>8556700</v>
       </c>
       <c r="G54" s="3">
-        <v>8797600</v>
+        <v>8357000</v>
       </c>
       <c r="H54" s="3">
-        <v>8478800</v>
+        <v>8278100</v>
       </c>
       <c r="I54" s="3">
-        <v>8012400</v>
+        <v>7978200</v>
       </c>
       <c r="J54" s="3">
+        <v>7539300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8153200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8873700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9357500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9578100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9283300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9400100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10297300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9685000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10035000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9695500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9483200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9475500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9352600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9224800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9142900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9228400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3895,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3923,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>841800</v>
+        <v>704500</v>
       </c>
       <c r="E57" s="3">
-        <v>706100</v>
+        <v>217200</v>
       </c>
       <c r="F57" s="3">
-        <v>594200</v>
+        <v>664400</v>
       </c>
       <c r="G57" s="3">
-        <v>629200</v>
+        <v>559100</v>
       </c>
       <c r="H57" s="3">
-        <v>957000</v>
+        <v>592100</v>
       </c>
       <c r="I57" s="3">
-        <v>546800</v>
+        <v>207400</v>
       </c>
       <c r="J57" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K57" s="3">
         <v>606800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>527700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>677300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>549100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>485900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>534200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>745000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>485200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>484100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>478500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>615600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>522700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>509300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>502600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>627600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>586800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>318300</v>
+        <v>73300</v>
       </c>
       <c r="E58" s="3">
-        <v>311600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>311500</v>
+        <v>293200</v>
       </c>
       <c r="G58" s="3">
-        <v>333200</v>
+        <v>293100</v>
       </c>
       <c r="H58" s="3">
-        <v>311500</v>
+        <v>313500</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>293100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>298500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>308300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>537400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>555900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>366400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>470800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>377500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>371500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>263600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>148300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>627600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>556000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>554900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>443500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>65600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1280700</v>
+        <v>1435100</v>
       </c>
       <c r="E59" s="3">
-        <v>1358200</v>
+        <v>2079500</v>
       </c>
       <c r="F59" s="3">
-        <v>1281900</v>
+        <v>1278000</v>
       </c>
       <c r="G59" s="3">
-        <v>1202700</v>
+        <v>1206200</v>
       </c>
       <c r="H59" s="3">
-        <v>2117700</v>
+        <v>1131700</v>
       </c>
       <c r="I59" s="3">
-        <v>944500</v>
+        <v>1376100</v>
       </c>
       <c r="J59" s="3">
+        <v>888700</v>
+      </c>
+      <c r="K59" s="3">
         <v>976300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1148600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1234200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1425100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1469200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1439200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1626200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1724200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1627300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1525800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1420800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1003500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>957600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>954900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>913100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>880900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2440900</v>
+        <v>2212900</v>
       </c>
       <c r="E60" s="3">
-        <v>2375900</v>
+        <v>2296700</v>
       </c>
       <c r="F60" s="3">
-        <v>2187700</v>
+        <v>2235600</v>
       </c>
       <c r="G60" s="3">
-        <v>2165100</v>
+        <v>2058500</v>
       </c>
       <c r="H60" s="3">
-        <v>1994400</v>
+        <v>2037300</v>
       </c>
       <c r="I60" s="3">
-        <v>1491200</v>
+        <v>1876600</v>
       </c>
       <c r="J60" s="3">
+        <v>1403200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1583200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1974900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2219800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2511700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2511000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2339800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2842000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2586900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2482900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2267900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2184700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2153800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2022900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2012400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1984100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1533300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>739200</v>
+        <v>622400</v>
       </c>
       <c r="E61" s="3">
-        <v>388900</v>
+        <v>695600</v>
       </c>
       <c r="F61" s="3">
-        <v>388900</v>
+        <v>365900</v>
       </c>
       <c r="G61" s="3">
-        <v>388800</v>
+        <v>365900</v>
       </c>
       <c r="H61" s="3">
-        <v>388800</v>
+        <v>365900</v>
       </c>
       <c r="I61" s="3">
-        <v>700200</v>
+        <v>365800</v>
       </c>
       <c r="J61" s="3">
+        <v>658800</v>
+      </c>
+      <c r="K61" s="3">
         <v>700100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>468700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>484100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>504900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>823600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>864000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>848600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1151600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1481900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1416900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1435100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1434300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1477400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1450000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1904900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>463900</v>
+        <v>423100</v>
       </c>
       <c r="E62" s="3">
-        <v>418900</v>
+        <v>436500</v>
       </c>
       <c r="F62" s="3">
-        <v>420900</v>
+        <v>394100</v>
       </c>
       <c r="G62" s="3">
-        <v>421800</v>
+        <v>396000</v>
       </c>
       <c r="H62" s="3">
-        <v>437300</v>
+        <v>396800</v>
       </c>
       <c r="I62" s="3">
-        <v>389800</v>
+        <v>411500</v>
       </c>
       <c r="J62" s="3">
+        <v>366800</v>
+      </c>
+      <c r="K62" s="3">
         <v>394800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>430900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>463400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>471200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>442400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>446400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>325800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>356500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>328000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>315200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>330200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>363800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>362100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>356100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>363700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>369600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4441,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4515,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3820900</v>
+        <v>3432800</v>
       </c>
       <c r="E66" s="3">
-        <v>3369700</v>
+        <v>3595300</v>
       </c>
       <c r="F66" s="3">
-        <v>3192100</v>
+        <v>3170700</v>
       </c>
       <c r="G66" s="3">
-        <v>3168900</v>
+        <v>3003700</v>
       </c>
       <c r="H66" s="3">
-        <v>3013400</v>
+        <v>2981800</v>
       </c>
       <c r="I66" s="3">
-        <v>2776200</v>
+        <v>2835400</v>
       </c>
       <c r="J66" s="3">
+        <v>2612200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2870000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3084900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3383200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3706000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3680500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3832200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4261100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4023600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4190300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4285600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4117300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4137900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3995100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4015200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3957200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3964100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4691,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4765,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4839,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4913,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4987,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3946300</v>
+        <v>3762600</v>
       </c>
       <c r="E72" s="3">
-        <v>4059100</v>
+        <v>3713300</v>
       </c>
       <c r="F72" s="3">
-        <v>4138200</v>
+        <v>3819400</v>
       </c>
       <c r="G72" s="3">
-        <v>4097800</v>
+        <v>3893800</v>
       </c>
       <c r="H72" s="3">
-        <v>3944900</v>
+        <v>3855800</v>
       </c>
       <c r="I72" s="3">
-        <v>3938900</v>
+        <v>3711900</v>
       </c>
       <c r="J72" s="3">
+        <v>3706300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3969600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4332900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4452200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4207300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4045400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3982400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4213900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3897700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3990100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3700800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3751300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3515100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3565200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3472600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3503500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3467100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5135,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5209,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5283,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>5833300</v>
+        <v>5897300</v>
       </c>
       <c r="E76" s="3">
-        <v>5724000</v>
+        <v>5488900</v>
       </c>
       <c r="F76" s="3">
-        <v>5689300</v>
+        <v>5386000</v>
       </c>
       <c r="G76" s="3">
-        <v>5628700</v>
+        <v>5353400</v>
       </c>
       <c r="H76" s="3">
-        <v>5465500</v>
+        <v>5296300</v>
       </c>
       <c r="I76" s="3">
-        <v>5236300</v>
+        <v>5142700</v>
       </c>
       <c r="J76" s="3">
+        <v>4927100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5283200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5788900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5974300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5872100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5602800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5567900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6036200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5661400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5844700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5409900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5366000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5337600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5357500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5209700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5185700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5264400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5431,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-96600</v>
+        <v>197200</v>
       </c>
       <c r="E81" s="3">
-        <v>110400</v>
+        <v>-90900</v>
       </c>
       <c r="F81" s="3">
-        <v>31300</v>
+        <v>103900</v>
       </c>
       <c r="G81" s="3">
-        <v>328400</v>
+        <v>29500</v>
       </c>
       <c r="H81" s="3">
-        <v>-25100</v>
+        <v>308700</v>
       </c>
       <c r="I81" s="3">
-        <v>150900</v>
+        <v>-23600</v>
       </c>
       <c r="J81" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K81" s="3">
         <v>10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>208300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>427400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>421400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>198500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>225000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>189000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>111900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>84000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>81500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>93200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5612,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="E83" s="3">
-        <v>77100</v>
+        <v>67500</v>
       </c>
       <c r="F83" s="3">
-        <v>76700</v>
+        <v>72500</v>
       </c>
       <c r="G83" s="3">
-        <v>73700</v>
+        <v>72200</v>
       </c>
       <c r="H83" s="3">
-        <v>73800</v>
+        <v>69300</v>
       </c>
       <c r="I83" s="3">
-        <v>71400</v>
+        <v>69400</v>
       </c>
       <c r="J83" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>75700</v>
       </c>
       <c r="O83" s="3">
         <v>75700</v>
       </c>
       <c r="P83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>64700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>60600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>63300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>62500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>61000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>59700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>58100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>57700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>54400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5760,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5834,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5908,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5982,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6056,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>346000</v>
+        <v>28900</v>
       </c>
       <c r="E89" s="3">
-        <v>37100</v>
+        <v>325500</v>
       </c>
       <c r="F89" s="3">
-        <v>644100</v>
+        <v>34900</v>
       </c>
       <c r="G89" s="3">
-        <v>-111200</v>
+        <v>606100</v>
       </c>
       <c r="H89" s="3">
-        <v>403100</v>
+        <v>-104600</v>
       </c>
       <c r="I89" s="3">
-        <v>26900</v>
+        <v>379300</v>
       </c>
       <c r="J89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K89" s="3">
         <v>67000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>648100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>189300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-37300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>415600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>99600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>349100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>112200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1002200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>236800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>147300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-33400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>295000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>140100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6158,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-54600</v>
+        <v>-85100</v>
       </c>
       <c r="E91" s="3">
-        <v>-29300</v>
+        <v>-51400</v>
       </c>
       <c r="F91" s="3">
-        <v>-47800</v>
+        <v>-27600</v>
       </c>
       <c r="G91" s="3">
-        <v>-94400</v>
+        <v>-45000</v>
       </c>
       <c r="H91" s="3">
-        <v>-36500</v>
+        <v>-88800</v>
       </c>
       <c r="I91" s="3">
-        <v>-12800</v>
+        <v>-34300</v>
       </c>
       <c r="J91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-41600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-94800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6306,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6380,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-79400</v>
+        <v>-123400</v>
       </c>
       <c r="E94" s="3">
-        <v>-83400</v>
+        <v>-74700</v>
       </c>
       <c r="F94" s="3">
-        <v>-62900</v>
+        <v>-78500</v>
       </c>
       <c r="G94" s="3">
-        <v>1000</v>
+        <v>-59200</v>
       </c>
       <c r="H94" s="3">
-        <v>-45300</v>
+        <v>900</v>
       </c>
       <c r="I94" s="3">
-        <v>-106300</v>
+        <v>-36800</v>
       </c>
       <c r="J94" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-38300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-106600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-184500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-105300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>71000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>245700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-94400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-152100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-217000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6482,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-168200</v>
       </c>
       <c r="E96" s="3">
-        <v>-178700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-168200</v>
       </c>
       <c r="G96" s="3">
-        <v>-178700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-168100</v>
       </c>
       <c r="I96" s="3">
-        <v>-178700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-168100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-195600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-208900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-210000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-189300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-208200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-181100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-207000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-177600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6630,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6704,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6778,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>34900</v>
+        <v>-185000</v>
       </c>
       <c r="E100" s="3">
-        <v>-198600</v>
+        <v>32800</v>
       </c>
       <c r="F100" s="3">
-        <v>-42200</v>
+        <v>-186900</v>
       </c>
       <c r="G100" s="3">
-        <v>-175500</v>
+        <v>-39700</v>
       </c>
       <c r="H100" s="3">
-        <v>-17700</v>
+        <v>-165200</v>
       </c>
       <c r="I100" s="3">
-        <v>-197800</v>
+        <v>-16600</v>
       </c>
       <c r="J100" s="3">
+        <v>-186100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-216600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-228800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-246500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-149600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-313400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>86200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-506100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-270700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-49100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-477900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-111300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-105600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-183800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>97500</v>
+        <v>119500</v>
       </c>
       <c r="E101" s="3">
-        <v>53400</v>
+        <v>91700</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>50300</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>88000</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
-        <v>10500</v>
+        <v>82800</v>
       </c>
       <c r="J101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K101" s="3">
         <v>6900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-73300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-72400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>60400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>35400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-51500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>19600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>97700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>398900</v>
+        <v>-159900</v>
       </c>
       <c r="E102" s="3">
-        <v>-191500</v>
+        <v>375400</v>
       </c>
       <c r="F102" s="3">
-        <v>544700</v>
+        <v>-180200</v>
       </c>
       <c r="G102" s="3">
-        <v>-277800</v>
+        <v>512500</v>
       </c>
       <c r="H102" s="3">
-        <v>428200</v>
+        <v>-261400</v>
       </c>
       <c r="I102" s="3">
-        <v>-266700</v>
+        <v>402900</v>
       </c>
       <c r="J102" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="K102" s="3">
         <v>13300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-238300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>367500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-92800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-608500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>416200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-407900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>112300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>83700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>718500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>131700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>129400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-222400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>127300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-162900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>ESALY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1350600</v>
+        <v>1236200</v>
       </c>
       <c r="E8" s="3">
-        <v>1399300</v>
+        <v>1306400</v>
       </c>
       <c r="F8" s="3">
-        <v>1487800</v>
+        <v>1353500</v>
       </c>
       <c r="G8" s="3">
-        <v>1198200</v>
+        <v>1439100</v>
       </c>
       <c r="H8" s="3">
-        <v>1457900</v>
+        <v>1158900</v>
       </c>
       <c r="I8" s="3">
-        <v>1082000</v>
+        <v>1410200</v>
       </c>
       <c r="J8" s="3">
+        <v>1046600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1328800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1179900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1412400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1846200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1701700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1335000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1410600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1687300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1483300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1456900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1393500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1447400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1294700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1282400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1152000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1235800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>347500</v>
+        <v>320000</v>
       </c>
       <c r="E9" s="3">
-        <v>371900</v>
+        <v>336100</v>
       </c>
       <c r="F9" s="3">
-        <v>324100</v>
+        <v>359700</v>
       </c>
       <c r="G9" s="3">
-        <v>297800</v>
+        <v>313500</v>
       </c>
       <c r="H9" s="3">
-        <v>287700</v>
+        <v>288000</v>
       </c>
       <c r="I9" s="3">
-        <v>301600</v>
+        <v>278300</v>
       </c>
       <c r="J9" s="3">
+        <v>291700</v>
+      </c>
+      <c r="K9" s="3">
         <v>296500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>322700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>326500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>427400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>370300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>392900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>410900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>469300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>408600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>436700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>407400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>488500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>476900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>446600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>426100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>440600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1003200</v>
+        <v>916300</v>
       </c>
       <c r="E10" s="3">
-        <v>1027400</v>
+        <v>970300</v>
       </c>
       <c r="F10" s="3">
-        <v>1163600</v>
+        <v>993800</v>
       </c>
       <c r="G10" s="3">
-        <v>900400</v>
+        <v>1125500</v>
       </c>
       <c r="H10" s="3">
-        <v>1170200</v>
+        <v>870900</v>
       </c>
       <c r="I10" s="3">
-        <v>780400</v>
+        <v>1131900</v>
       </c>
       <c r="J10" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1032300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>857100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1085900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1418800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>964700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1017800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1276400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1014000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1048300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>956800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1040100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>911500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>817800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>835800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>725900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>795200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>282200</v>
+        <v>305000</v>
       </c>
       <c r="E12" s="3">
-        <v>354300</v>
+        <v>273000</v>
       </c>
       <c r="F12" s="3">
-        <v>317800</v>
+        <v>342700</v>
       </c>
       <c r="G12" s="3">
-        <v>279400</v>
+        <v>307400</v>
       </c>
       <c r="H12" s="3">
-        <v>306400</v>
+        <v>270300</v>
       </c>
       <c r="I12" s="3">
-        <v>308900</v>
+        <v>296300</v>
       </c>
       <c r="J12" s="3">
+        <v>298800</v>
+      </c>
+      <c r="K12" s="3">
         <v>297900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>288200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>260400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>326600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>319100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>354700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>269600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>416400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>344700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>286800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>310200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>339700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>324400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>297600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>292300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>217900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1296100</v>
+        <v>1251700</v>
       </c>
       <c r="E17" s="3">
-        <v>1551800</v>
+        <v>1253700</v>
       </c>
       <c r="F17" s="3">
-        <v>1387700</v>
+        <v>1501000</v>
       </c>
       <c r="G17" s="3">
-        <v>1157800</v>
+        <v>1342300</v>
       </c>
       <c r="H17" s="3">
-        <v>1052300</v>
+        <v>1120800</v>
       </c>
       <c r="I17" s="3">
-        <v>1127300</v>
+        <v>1017800</v>
       </c>
       <c r="J17" s="3">
+        <v>1090400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1155800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1164600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1138400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1386600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1325300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1278100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1174100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1408200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1198700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1206500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1171600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1228500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1180800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1145600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1139300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1066900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>54500</v>
+        <v>-15500</v>
       </c>
       <c r="E18" s="3">
-        <v>-152500</v>
+        <v>52700</v>
       </c>
       <c r="F18" s="3">
-        <v>100000</v>
+        <v>-147500</v>
       </c>
       <c r="G18" s="3">
-        <v>40300</v>
+        <v>96800</v>
       </c>
       <c r="H18" s="3">
-        <v>405600</v>
+        <v>38200</v>
       </c>
       <c r="I18" s="3">
-        <v>-45300</v>
+        <v>392400</v>
       </c>
       <c r="J18" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K18" s="3">
         <v>173100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>274000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>459600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>376400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>236600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>279100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>82500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>258200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>187100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>275800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>171500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>113900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>136800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>12700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>168900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16800</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1800</v>
-      </c>
       <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
-        <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>143100</v>
+        <v>58900</v>
       </c>
       <c r="E21" s="3">
-        <v>-84800</v>
+        <v>138400</v>
       </c>
       <c r="F21" s="3">
-        <v>174300</v>
+        <v>-82100</v>
       </c>
       <c r="G21" s="3">
-        <v>113000</v>
+        <v>170800</v>
       </c>
       <c r="H21" s="3">
-        <v>477700</v>
+        <v>106200</v>
       </c>
       <c r="I21" s="3">
-        <v>21100</v>
+        <v>462100</v>
       </c>
       <c r="J21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K21" s="3">
         <v>242600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>350800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>535800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>461800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>138000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>352900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>153200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>327000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>255900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>335700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>231200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>169200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>194900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>63100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>222500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>71300</v>
+        <v>-11300</v>
       </c>
       <c r="E23" s="3">
-        <v>-152300</v>
+        <v>68900</v>
       </c>
       <c r="F23" s="3">
-        <v>101800</v>
+        <v>-147300</v>
       </c>
       <c r="G23" s="3">
-        <v>40800</v>
+        <v>98500</v>
       </c>
       <c r="H23" s="3">
-        <v>408400</v>
+        <v>38600</v>
       </c>
       <c r="I23" s="3">
-        <v>-44400</v>
+        <v>395000</v>
       </c>
       <c r="J23" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K23" s="3">
         <v>175400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>460400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>383200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>247000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>288200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>92500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>263700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>193300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>274700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>171600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>111400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>136700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>168100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-133800</v>
+        <v>-38400</v>
       </c>
       <c r="E24" s="3">
-        <v>-50600</v>
+        <v>-129400</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>-49000</v>
       </c>
       <c r="G24" s="3">
-        <v>9700</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
-        <v>98700</v>
+        <v>9200</v>
       </c>
       <c r="I24" s="3">
-        <v>-18400</v>
+        <v>95400</v>
       </c>
       <c r="J24" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K24" s="3">
         <v>30700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-40700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>50700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>78400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>22900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>41100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>67300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>205000</v>
+        <v>27200</v>
       </c>
       <c r="E26" s="3">
-        <v>-101700</v>
+        <v>198300</v>
       </c>
       <c r="F26" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>92500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>299600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>144600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>211100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>428000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>423800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>48400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>202400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>218600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>69900</v>
+      </c>
+      <c r="T26" s="3">
+        <v>191700</v>
+      </c>
+      <c r="U26" s="3">
+        <v>142600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>214800</v>
+      </c>
+      <c r="W26" s="3">
+        <v>93100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>88400</v>
+      </c>
+      <c r="Y26" s="3">
         <v>95600</v>
       </c>
-      <c r="G26" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>309700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>144600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>211100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>428000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>423800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>48400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>202400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>218600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>69900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>191700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>142600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>214800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>93100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>88400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>95600</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>100700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>197200</v>
+        <v>25300</v>
       </c>
       <c r="E27" s="3">
-        <v>-90900</v>
+        <v>190700</v>
       </c>
       <c r="F27" s="3">
-        <v>103900</v>
+        <v>-87900</v>
       </c>
       <c r="G27" s="3">
-        <v>29500</v>
+        <v>100500</v>
       </c>
       <c r="H27" s="3">
-        <v>308700</v>
+        <v>27900</v>
       </c>
       <c r="I27" s="3">
-        <v>-23600</v>
+        <v>298600</v>
       </c>
       <c r="J27" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K27" s="3">
         <v>142000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>208300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>427400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>421400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>198500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>225000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>69100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>189000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>214600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>84000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>81500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>93200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16800</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>197200</v>
+        <v>25300</v>
       </c>
       <c r="E33" s="3">
-        <v>-90900</v>
+        <v>190700</v>
       </c>
       <c r="F33" s="3">
-        <v>103900</v>
+        <v>-87900</v>
       </c>
       <c r="G33" s="3">
-        <v>29500</v>
+        <v>100500</v>
       </c>
       <c r="H33" s="3">
-        <v>308700</v>
+        <v>27900</v>
       </c>
       <c r="I33" s="3">
-        <v>-23600</v>
+        <v>298600</v>
       </c>
       <c r="J33" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>208300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>427400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>421400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>198500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>225000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>69100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>189000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>111900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>84000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>81500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>88600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>93200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>197200</v>
+        <v>25300</v>
       </c>
       <c r="E35" s="3">
-        <v>-90900</v>
+        <v>190700</v>
       </c>
       <c r="F35" s="3">
-        <v>103900</v>
+        <v>-87900</v>
       </c>
       <c r="G35" s="3">
-        <v>29500</v>
+        <v>100500</v>
       </c>
       <c r="H35" s="3">
-        <v>308700</v>
+        <v>27900</v>
       </c>
       <c r="I35" s="3">
-        <v>-23600</v>
+        <v>298600</v>
       </c>
       <c r="J35" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>208300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>427400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>421400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>198500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>225000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>69100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>189000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>111900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>84000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>81500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>88600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>93200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2109700</v>
+        <v>1875500</v>
       </c>
       <c r="E41" s="3">
-        <v>1938000</v>
+        <v>2040600</v>
       </c>
       <c r="F41" s="3">
-        <v>1894200</v>
+        <v>1874500</v>
       </c>
       <c r="G41" s="3">
-        <v>2074400</v>
+        <v>1832200</v>
       </c>
       <c r="H41" s="3">
-        <v>1561900</v>
+        <v>2006500</v>
       </c>
       <c r="I41" s="3">
-        <v>1517200</v>
+        <v>1510800</v>
       </c>
       <c r="J41" s="3">
+        <v>1467500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1420400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1776300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1930400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2239900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1936200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1979500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2065500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2752600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2347000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2711100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2542800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2445500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1727000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1595400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1466000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1656700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1529400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>19400</v>
+        <v>7100</v>
       </c>
       <c r="E42" s="3">
-        <v>334800</v>
+        <v>18700</v>
       </c>
       <c r="F42" s="3">
-        <v>6800</v>
+        <v>323800</v>
       </c>
       <c r="G42" s="3">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>3600</v>
+        <v>5100</v>
       </c>
       <c r="I42" s="3">
-        <v>308000</v>
+        <v>3500</v>
       </c>
       <c r="J42" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>59900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>72500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>72000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>173900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>169000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>168700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>447200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>359400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>399800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>380300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>335200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1458200</v>
+        <v>1262700</v>
       </c>
       <c r="E43" s="3">
-        <v>1524300</v>
+        <v>1410500</v>
       </c>
       <c r="F43" s="3">
-        <v>1573000</v>
+        <v>1474400</v>
       </c>
       <c r="G43" s="3">
-        <v>1279900</v>
+        <v>1521500</v>
       </c>
       <c r="H43" s="3">
-        <v>1732300</v>
+        <v>1238000</v>
       </c>
       <c r="I43" s="3">
-        <v>1175100</v>
+        <v>1675600</v>
       </c>
       <c r="J43" s="3">
+        <v>1136600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1480500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1425800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1569400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1586000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1791700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1507800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1544100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1505300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1566000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1386600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1352300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1369300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1608700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1562400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1480200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1370400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1630200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>758700</v>
+        <v>811200</v>
       </c>
       <c r="E44" s="3">
-        <v>725700</v>
+        <v>733900</v>
       </c>
       <c r="F44" s="3">
-        <v>678100</v>
+        <v>702000</v>
       </c>
       <c r="G44" s="3">
-        <v>660000</v>
+        <v>655900</v>
       </c>
       <c r="H44" s="3">
-        <v>658600</v>
+        <v>638400</v>
       </c>
       <c r="I44" s="3">
-        <v>623900</v>
+        <v>637100</v>
       </c>
       <c r="J44" s="3">
+        <v>603500</v>
+      </c>
+      <c r="K44" s="3">
         <v>578700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>583700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>605000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>579100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>605200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>598500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>585800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>652400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>624300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>659800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>640100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>731600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>723500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>747100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>763400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>735100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>736700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>205500</v>
+        <v>193900</v>
       </c>
       <c r="E45" s="3">
-        <v>172900</v>
+        <v>198800</v>
       </c>
       <c r="F45" s="3">
-        <v>151000</v>
+        <v>167200</v>
       </c>
       <c r="G45" s="3">
-        <v>163800</v>
+        <v>146100</v>
       </c>
       <c r="H45" s="3">
-        <v>166700</v>
+        <v>158400</v>
       </c>
       <c r="I45" s="3">
-        <v>175300</v>
+        <v>161300</v>
       </c>
       <c r="J45" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K45" s="3">
         <v>148500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>165100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>174900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>195700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>211000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>414900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>298400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>291600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>129400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>127600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>138900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>161000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>151900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4551500</v>
+        <v>4150300</v>
       </c>
       <c r="E46" s="3">
-        <v>4695600</v>
+        <v>4402500</v>
       </c>
       <c r="F46" s="3">
-        <v>4303100</v>
+        <v>4541900</v>
       </c>
       <c r="G46" s="3">
-        <v>4183400</v>
+        <v>4162200</v>
       </c>
       <c r="H46" s="3">
-        <v>4123200</v>
+        <v>4046400</v>
       </c>
       <c r="I46" s="3">
-        <v>3799500</v>
+        <v>3988200</v>
       </c>
       <c r="J46" s="3">
+        <v>3675100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3632900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3930200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4275600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4593600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4556300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4341400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4469300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5397700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4909400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5229800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4995800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4844600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4634000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4403200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4270500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4294500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4331600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>360700</v>
+        <v>341700</v>
       </c>
       <c r="E47" s="3">
-        <v>322800</v>
+        <v>348900</v>
       </c>
       <c r="F47" s="3">
-        <v>307700</v>
+        <v>312200</v>
       </c>
       <c r="G47" s="3">
-        <v>315900</v>
+        <v>297600</v>
       </c>
       <c r="H47" s="3">
-        <v>296600</v>
+        <v>305600</v>
       </c>
       <c r="I47" s="3">
-        <v>321200</v>
+        <v>286900</v>
       </c>
       <c r="J47" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K47" s="3">
         <v>306400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>360900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>350500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>433800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>457400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>458600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>509400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>457600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>502800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>464700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>432000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>467400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>529000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>514000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>483100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>500900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1267400</v>
+        <v>1245600</v>
       </c>
       <c r="E48" s="3">
-        <v>1245600</v>
+        <v>1225900</v>
       </c>
       <c r="F48" s="3">
-        <v>1190500</v>
+        <v>1204800</v>
       </c>
       <c r="G48" s="3">
-        <v>1168000</v>
+        <v>1151500</v>
       </c>
       <c r="H48" s="3">
-        <v>1166000</v>
+        <v>1129800</v>
       </c>
       <c r="I48" s="3">
-        <v>1179600</v>
+        <v>1127800</v>
       </c>
       <c r="J48" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1051700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1114800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1231000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1274300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1266900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1242200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1264400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1010700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>891200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>872700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>888800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>931700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>937300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>940900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>938700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>918700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>907000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2255400</v>
+        <v>2268600</v>
       </c>
       <c r="E49" s="3">
-        <v>2105200</v>
+        <v>2181600</v>
       </c>
       <c r="F49" s="3">
-        <v>2080800</v>
+        <v>2036300</v>
       </c>
       <c r="G49" s="3">
-        <v>2063300</v>
+        <v>2012600</v>
       </c>
       <c r="H49" s="3">
-        <v>2070800</v>
+        <v>1995700</v>
       </c>
       <c r="I49" s="3">
-        <v>2039200</v>
+        <v>2003000</v>
       </c>
       <c r="J49" s="3">
+        <v>1972500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1965300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2133600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2307000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2420800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2621800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2595600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2573300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2597600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2591200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2612200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2520100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2462500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2589500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2588300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2594700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2541000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2590500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>895100</v>
+        <v>936100</v>
       </c>
       <c r="E52" s="3">
-        <v>715000</v>
+        <v>865800</v>
       </c>
       <c r="F52" s="3">
-        <v>674700</v>
+        <v>691600</v>
       </c>
       <c r="G52" s="3">
-        <v>626400</v>
+        <v>652600</v>
       </c>
       <c r="H52" s="3">
-        <v>621400</v>
+        <v>605900</v>
       </c>
       <c r="I52" s="3">
-        <v>638700</v>
+        <v>601100</v>
       </c>
       <c r="J52" s="3">
+        <v>617800</v>
+      </c>
+      <c r="K52" s="3">
         <v>583000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>640100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>699300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>718400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>699300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>646700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>634500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>781900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>835600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>817500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>826100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>812500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>847300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>891200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>906900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>905700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>898500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>9330100</v>
+        <v>8942500</v>
       </c>
       <c r="E54" s="3">
-        <v>9084200</v>
+        <v>9024700</v>
       </c>
       <c r="F54" s="3">
-        <v>8556700</v>
+        <v>8786700</v>
       </c>
       <c r="G54" s="3">
-        <v>8357000</v>
+        <v>8276600</v>
       </c>
       <c r="H54" s="3">
-        <v>8278100</v>
+        <v>8083400</v>
       </c>
       <c r="I54" s="3">
-        <v>7978200</v>
+        <v>8007000</v>
       </c>
       <c r="J54" s="3">
+        <v>7716900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7539300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8153200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8873700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9357500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9578100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9283300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9400100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10297300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9685000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10035000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9695500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9483200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9475500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9352600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9224800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9142900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9228400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>704500</v>
+        <v>544700</v>
       </c>
       <c r="E57" s="3">
-        <v>217200</v>
+        <v>681400</v>
       </c>
       <c r="F57" s="3">
-        <v>664400</v>
+        <v>210100</v>
       </c>
       <c r="G57" s="3">
-        <v>559100</v>
+        <v>642700</v>
       </c>
       <c r="H57" s="3">
-        <v>592100</v>
+        <v>540800</v>
       </c>
       <c r="I57" s="3">
-        <v>207400</v>
+        <v>572700</v>
       </c>
       <c r="J57" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K57" s="3">
         <v>514500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>606800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>527700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>677300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>549100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>485900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>534200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>745000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>485200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>484100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>478500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>615600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>522700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>509300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>502600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>627600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>586800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>73300</v>
+        <v>70900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>70900</v>
       </c>
       <c r="F58" s="3">
-        <v>293200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>293100</v>
+        <v>283600</v>
       </c>
       <c r="H58" s="3">
-        <v>313500</v>
+        <v>283600</v>
       </c>
       <c r="I58" s="3">
-        <v>293100</v>
+        <v>303200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>283500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>298500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>308300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>537400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>555900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>366400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>470800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>377500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>371500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>263600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>148300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>627600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>556000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>554900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>443500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>65600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1435100</v>
+        <v>1274200</v>
       </c>
       <c r="E59" s="3">
-        <v>2079500</v>
+        <v>1388200</v>
       </c>
       <c r="F59" s="3">
-        <v>1278000</v>
+        <v>2011400</v>
       </c>
       <c r="G59" s="3">
-        <v>1206200</v>
+        <v>1236200</v>
       </c>
       <c r="H59" s="3">
-        <v>1131700</v>
+        <v>1166700</v>
       </c>
       <c r="I59" s="3">
-        <v>1376100</v>
+        <v>1094600</v>
       </c>
       <c r="J59" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="K59" s="3">
         <v>888700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>976300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1148600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1234200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1425100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1469200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1439200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1626200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1724200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1627300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1525800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1420800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1003500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>957600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>954900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>913100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>880900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2212900</v>
+        <v>1889700</v>
       </c>
       <c r="E60" s="3">
-        <v>2296700</v>
+        <v>2140400</v>
       </c>
       <c r="F60" s="3">
-        <v>2235600</v>
+        <v>2221500</v>
       </c>
       <c r="G60" s="3">
-        <v>2058500</v>
+        <v>2162400</v>
       </c>
       <c r="H60" s="3">
-        <v>2037300</v>
+        <v>1991100</v>
       </c>
       <c r="I60" s="3">
-        <v>1876600</v>
+        <v>1970600</v>
       </c>
       <c r="J60" s="3">
+        <v>1815200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1403200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1583200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1974900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2219800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2511700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2511000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2339800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2842000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2586900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2482900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2267900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2184700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2153800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2022900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2012400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1984100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1533300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>622400</v>
+        <v>602000</v>
       </c>
       <c r="E61" s="3">
-        <v>695600</v>
+        <v>602000</v>
       </c>
       <c r="F61" s="3">
-        <v>365900</v>
+        <v>672800</v>
       </c>
       <c r="G61" s="3">
-        <v>365900</v>
+        <v>354000</v>
       </c>
       <c r="H61" s="3">
-        <v>365900</v>
+        <v>353900</v>
       </c>
       <c r="I61" s="3">
-        <v>365800</v>
+        <v>353900</v>
       </c>
       <c r="J61" s="3">
+        <v>353800</v>
+      </c>
+      <c r="K61" s="3">
         <v>658800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>468700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>484100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>504900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>823600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>864000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>848600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1151600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1481900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1416900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1435100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1434300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1477400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1450000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1904900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>423100</v>
+        <v>419200</v>
       </c>
       <c r="E62" s="3">
-        <v>436500</v>
+        <v>409300</v>
       </c>
       <c r="F62" s="3">
-        <v>394100</v>
+        <v>422200</v>
       </c>
       <c r="G62" s="3">
-        <v>396000</v>
+        <v>381200</v>
       </c>
       <c r="H62" s="3">
-        <v>396800</v>
+        <v>383100</v>
       </c>
       <c r="I62" s="3">
-        <v>411500</v>
+        <v>383900</v>
       </c>
       <c r="J62" s="3">
+        <v>398000</v>
+      </c>
+      <c r="K62" s="3">
         <v>366800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>394800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>430900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>463400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>471200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>442400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>446400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>325800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>356500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>328000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>315200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>330200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>363800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>362100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>356100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>363700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>369600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3432800</v>
+        <v>3071000</v>
       </c>
       <c r="E66" s="3">
-        <v>3595300</v>
+        <v>3320400</v>
       </c>
       <c r="F66" s="3">
-        <v>3170700</v>
+        <v>3477600</v>
       </c>
       <c r="G66" s="3">
-        <v>3003700</v>
+        <v>3066900</v>
       </c>
       <c r="H66" s="3">
-        <v>2981800</v>
+        <v>2905300</v>
       </c>
       <c r="I66" s="3">
-        <v>2835400</v>
+        <v>2884100</v>
       </c>
       <c r="J66" s="3">
+        <v>2742600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2612200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2870000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3084900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3383200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3706000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3680500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3832200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4261100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4023600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4190300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4285600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4117300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4137900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3995100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4015200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3957200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3964100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3762600</v>
+        <v>3673900</v>
       </c>
       <c r="E72" s="3">
-        <v>3713300</v>
+        <v>3639400</v>
       </c>
       <c r="F72" s="3">
-        <v>3819400</v>
+        <v>3591700</v>
       </c>
       <c r="G72" s="3">
-        <v>3893800</v>
+        <v>3694400</v>
       </c>
       <c r="H72" s="3">
-        <v>3855800</v>
+        <v>3766300</v>
       </c>
       <c r="I72" s="3">
-        <v>3711900</v>
+        <v>3729600</v>
       </c>
       <c r="J72" s="3">
+        <v>3590400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3706300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3969600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4332900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4452200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4207300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4045400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3982400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4213900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3897700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3990100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3700800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3751300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3515100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3565200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3472600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3503500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3467100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>5897300</v>
+        <v>5871400</v>
       </c>
       <c r="E76" s="3">
-        <v>5488900</v>
+        <v>5704200</v>
       </c>
       <c r="F76" s="3">
-        <v>5386000</v>
+        <v>5309100</v>
       </c>
       <c r="G76" s="3">
-        <v>5353400</v>
+        <v>5209600</v>
       </c>
       <c r="H76" s="3">
-        <v>5296300</v>
+        <v>5178100</v>
       </c>
       <c r="I76" s="3">
-        <v>5142700</v>
+        <v>5122900</v>
       </c>
       <c r="J76" s="3">
+        <v>4974400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4927100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5283200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5788900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5974300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5872100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5602800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5567900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6036200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5661400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5844700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5409900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5366000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5337600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5357500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5209700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5185700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5264400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>197200</v>
+        <v>25300</v>
       </c>
       <c r="E81" s="3">
-        <v>-90900</v>
+        <v>190700</v>
       </c>
       <c r="F81" s="3">
-        <v>103900</v>
+        <v>-87900</v>
       </c>
       <c r="G81" s="3">
-        <v>29500</v>
+        <v>100500</v>
       </c>
       <c r="H81" s="3">
-        <v>308700</v>
+        <v>27900</v>
       </c>
       <c r="I81" s="3">
-        <v>-23600</v>
+        <v>298600</v>
       </c>
       <c r="J81" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>208300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>427400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>421400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>198500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>225000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>69100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>189000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>111900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>84000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>81500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>88600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>93200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>71900</v>
+        <v>70100</v>
       </c>
       <c r="E83" s="3">
-        <v>67500</v>
+        <v>69500</v>
       </c>
       <c r="F83" s="3">
-        <v>72500</v>
+        <v>65300</v>
       </c>
       <c r="G83" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="H83" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="I83" s="3">
-        <v>69400</v>
+        <v>67000</v>
       </c>
       <c r="J83" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K83" s="3">
         <v>67200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>75700</v>
       </c>
       <c r="P83" s="3">
         <v>75700</v>
       </c>
       <c r="Q83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="R83" s="3">
         <v>64700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>60600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>63300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>62500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>61000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>59700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>58100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>57700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>54400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>28900</v>
+        <v>-161600</v>
       </c>
       <c r="E89" s="3">
-        <v>325500</v>
+        <v>28000</v>
       </c>
       <c r="F89" s="3">
-        <v>34900</v>
+        <v>314900</v>
       </c>
       <c r="G89" s="3">
-        <v>606100</v>
+        <v>33800</v>
       </c>
       <c r="H89" s="3">
-        <v>-104600</v>
+        <v>586200</v>
       </c>
       <c r="I89" s="3">
-        <v>379300</v>
+        <v>-101200</v>
       </c>
       <c r="J89" s="3">
+        <v>366900</v>
+      </c>
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>648100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>189300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>415600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>99600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>349100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>112200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1002200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>236800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>147300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-33400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>295000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>140100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-85100</v>
+        <v>-18100</v>
       </c>
       <c r="E91" s="3">
-        <v>-51400</v>
+        <v>-82300</v>
       </c>
       <c r="F91" s="3">
-        <v>-27600</v>
+        <v>-49700</v>
       </c>
       <c r="G91" s="3">
-        <v>-45000</v>
+        <v>-26700</v>
       </c>
       <c r="H91" s="3">
-        <v>-88800</v>
+        <v>-43500</v>
       </c>
       <c r="I91" s="3">
-        <v>-34300</v>
+        <v>-85900</v>
       </c>
       <c r="J91" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-41600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-105900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-94800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-123400</v>
+        <v>3000</v>
       </c>
       <c r="E94" s="3">
-        <v>-74700</v>
+        <v>-119300</v>
       </c>
       <c r="F94" s="3">
-        <v>-78500</v>
+        <v>-72200</v>
       </c>
       <c r="G94" s="3">
-        <v>-59200</v>
+        <v>-79500</v>
       </c>
       <c r="H94" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-36800</v>
-      </c>
       <c r="J94" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-106600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-184500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-105300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>71000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>245700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-94400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-152100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-217000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-168200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-162700</v>
       </c>
       <c r="F96" s="3">
-        <v>-168200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-162600</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-168100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-168100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-195600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-208900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-189300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-208200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-181100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-207000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-177600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-185000</v>
+        <v>-18200</v>
       </c>
       <c r="E100" s="3">
-        <v>32800</v>
+        <v>-179000</v>
       </c>
       <c r="F100" s="3">
-        <v>-186900</v>
+        <v>31700</v>
       </c>
       <c r="G100" s="3">
-        <v>-39700</v>
+        <v>-180800</v>
       </c>
       <c r="H100" s="3">
-        <v>-165200</v>
+        <v>-38400</v>
       </c>
       <c r="I100" s="3">
-        <v>-16600</v>
+        <v>-159800</v>
       </c>
       <c r="J100" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-186100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-216600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-228800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-246500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-149600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-313400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>86200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-506100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-270700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-49100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-477900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-111300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-183800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>119500</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>91700</v>
+        <v>115600</v>
       </c>
       <c r="F101" s="3">
-        <v>50300</v>
+        <v>88700</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>48600</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="I101" s="3">
-        <v>82800</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K101" s="3">
         <v>9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>57300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-73300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-72400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>60400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>35400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-51500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>19600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-16500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>97700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-159900</v>
+        <v>-165100</v>
       </c>
       <c r="E102" s="3">
-        <v>375400</v>
+        <v>-154700</v>
       </c>
       <c r="F102" s="3">
-        <v>-180200</v>
+        <v>363100</v>
       </c>
       <c r="G102" s="3">
-        <v>512500</v>
+        <v>-174300</v>
       </c>
       <c r="H102" s="3">
-        <v>-261400</v>
+        <v>495700</v>
       </c>
       <c r="I102" s="3">
-        <v>402900</v>
+        <v>-252800</v>
       </c>
       <c r="J102" s="3">
+        <v>389700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-251000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-238300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>367500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-92800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-608500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>416200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-407900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>112300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>83700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>718500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>131700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>129400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-222400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>127300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-162900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ESALY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>ESALY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1236200</v>
+        <v>1378700</v>
       </c>
       <c r="E8" s="3">
-        <v>1306400</v>
+        <v>1281600</v>
       </c>
       <c r="F8" s="3">
-        <v>1353500</v>
+        <v>1354300</v>
       </c>
       <c r="G8" s="3">
-        <v>1439100</v>
+        <v>1403100</v>
       </c>
       <c r="H8" s="3">
-        <v>1158900</v>
+        <v>1491800</v>
       </c>
       <c r="I8" s="3">
-        <v>1410200</v>
+        <v>1201400</v>
       </c>
       <c r="J8" s="3">
+        <v>1461900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1046600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1328800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1179900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1412400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1846200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1701700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1410600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1687300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1483300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1456900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1393500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1447400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1294700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1282400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1152000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1235800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1179400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>320000</v>
+        <v>343500</v>
       </c>
       <c r="E9" s="3">
-        <v>336100</v>
+        <v>331700</v>
       </c>
       <c r="F9" s="3">
-        <v>359700</v>
+        <v>348400</v>
       </c>
       <c r="G9" s="3">
-        <v>313500</v>
+        <v>372900</v>
       </c>
       <c r="H9" s="3">
-        <v>288000</v>
+        <v>325000</v>
       </c>
       <c r="I9" s="3">
-        <v>278300</v>
+        <v>298600</v>
       </c>
       <c r="J9" s="3">
+        <v>288500</v>
+      </c>
+      <c r="K9" s="3">
         <v>291700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>296500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>322700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>326500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>427400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>370300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>392900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>410900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>469300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>408600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>436700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>407400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>488500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>476900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>446600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>426100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>440600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>429000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>916300</v>
+        <v>1035200</v>
       </c>
       <c r="E10" s="3">
-        <v>970300</v>
+        <v>949900</v>
       </c>
       <c r="F10" s="3">
-        <v>993800</v>
+        <v>1005900</v>
       </c>
       <c r="G10" s="3">
-        <v>1125500</v>
+        <v>1030200</v>
       </c>
       <c r="H10" s="3">
-        <v>870900</v>
+        <v>1166800</v>
       </c>
       <c r="I10" s="3">
-        <v>1131900</v>
+        <v>902900</v>
       </c>
       <c r="J10" s="3">
+        <v>1173400</v>
+      </c>
+      <c r="K10" s="3">
         <v>754800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1032300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>857100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1085900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1418800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>964700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1017800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1276400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1014000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1048300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>956800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1040100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>911500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>817800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>835800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>725900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>795200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>750400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>305000</v>
+        <v>293200</v>
       </c>
       <c r="E12" s="3">
-        <v>273000</v>
+        <v>316200</v>
       </c>
       <c r="F12" s="3">
-        <v>342700</v>
+        <v>283000</v>
       </c>
       <c r="G12" s="3">
-        <v>307400</v>
+        <v>355300</v>
       </c>
       <c r="H12" s="3">
-        <v>270300</v>
+        <v>318700</v>
       </c>
       <c r="I12" s="3">
-        <v>296300</v>
+        <v>280200</v>
       </c>
       <c r="J12" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K12" s="3">
         <v>298800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>297900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>288200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>260400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>326600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>319100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>354700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>269600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>416400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>344700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>286800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>310200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>339700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>324400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>297600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>292300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>217900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>91</v>
@@ -1235,8 +1254,8 @@
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1251700</v>
+        <v>1315700</v>
       </c>
       <c r="E17" s="3">
-        <v>1253700</v>
+        <v>1297600</v>
       </c>
       <c r="F17" s="3">
-        <v>1501000</v>
+        <v>1299700</v>
       </c>
       <c r="G17" s="3">
-        <v>1342300</v>
+        <v>1556000</v>
       </c>
       <c r="H17" s="3">
-        <v>1120800</v>
+        <v>1391700</v>
       </c>
       <c r="I17" s="3">
-        <v>1017800</v>
+        <v>1161900</v>
       </c>
       <c r="J17" s="3">
+        <v>1055100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1090400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1155800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1164600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1138400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1386600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1325300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1278100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1174100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1408200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1198700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1206500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1171600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1228500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1180800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1145600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1139300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1066900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1066100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-15500</v>
+        <v>63000</v>
       </c>
       <c r="E18" s="3">
-        <v>52700</v>
+        <v>-16000</v>
       </c>
       <c r="F18" s="3">
-        <v>-147500</v>
+        <v>54600</v>
       </c>
       <c r="G18" s="3">
-        <v>96800</v>
+        <v>-152900</v>
       </c>
       <c r="H18" s="3">
-        <v>38200</v>
+        <v>100200</v>
       </c>
       <c r="I18" s="3">
-        <v>392400</v>
+        <v>39600</v>
       </c>
       <c r="J18" s="3">
+        <v>406700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-43800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>274000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>459600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>376400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>236600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>279100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>258200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>187100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>275800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>171500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>113900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>136800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>12700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>168900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="3">
-        <v>16200</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1700</v>
-      </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>2700</v>
-      </c>
       <c r="J20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>58900</v>
+        <v>144100</v>
       </c>
       <c r="E21" s="3">
-        <v>138400</v>
+        <v>61000</v>
       </c>
       <c r="F21" s="3">
-        <v>-82100</v>
+        <v>143500</v>
       </c>
       <c r="G21" s="3">
-        <v>170800</v>
+        <v>-81400</v>
       </c>
       <c r="H21" s="3">
-        <v>106200</v>
+        <v>173300</v>
       </c>
       <c r="I21" s="3">
-        <v>462100</v>
+        <v>110100</v>
       </c>
       <c r="J21" s="3">
+        <v>479000</v>
+      </c>
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>242600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>350800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>535800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>461800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>138000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>352900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>153200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>327000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>255900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>335700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>231200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>169200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>194900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>63100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>222500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>161500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-11300</v>
+        <v>69500</v>
       </c>
       <c r="E23" s="3">
-        <v>68900</v>
+        <v>-11700</v>
       </c>
       <c r="F23" s="3">
-        <v>-147300</v>
+        <v>71500</v>
       </c>
       <c r="G23" s="3">
-        <v>98500</v>
+        <v>-152700</v>
       </c>
       <c r="H23" s="3">
-        <v>38600</v>
+        <v>101900</v>
       </c>
       <c r="I23" s="3">
-        <v>395000</v>
+        <v>40100</v>
       </c>
       <c r="J23" s="3">
+        <v>409500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-43000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>276800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>460400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>383200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>62400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>247000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>288200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>92500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>263700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>193300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>274700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>171600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>111400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>136700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>168100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>109200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-38400</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
-        <v>-129400</v>
+        <v>-39800</v>
       </c>
       <c r="F24" s="3">
-        <v>-49000</v>
+        <v>-134100</v>
       </c>
       <c r="G24" s="3">
-        <v>6000</v>
+        <v>-50800</v>
       </c>
       <c r="H24" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
-        <v>95400</v>
+        <v>9600</v>
       </c>
       <c r="J24" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-17800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-40700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>69600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>78400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>41100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>67300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>27200</v>
+        <v>67100</v>
       </c>
       <c r="E26" s="3">
-        <v>198300</v>
+        <v>28200</v>
       </c>
       <c r="F26" s="3">
-        <v>-98300</v>
+        <v>205600</v>
       </c>
       <c r="G26" s="3">
-        <v>92500</v>
+        <v>-102000</v>
       </c>
       <c r="H26" s="3">
-        <v>29400</v>
+        <v>95800</v>
       </c>
       <c r="I26" s="3">
-        <v>299600</v>
+        <v>30500</v>
       </c>
       <c r="J26" s="3">
+        <v>310600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>428000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>423800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>202400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>218600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>191700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>142600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>214800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>93100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>88400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>95600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>100700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>25300</v>
+        <v>63500</v>
       </c>
       <c r="E27" s="3">
-        <v>190700</v>
+        <v>26200</v>
       </c>
       <c r="F27" s="3">
-        <v>-87900</v>
+        <v>197700</v>
       </c>
       <c r="G27" s="3">
-        <v>100500</v>
+        <v>-91200</v>
       </c>
       <c r="H27" s="3">
-        <v>27900</v>
+        <v>104100</v>
       </c>
       <c r="I27" s="3">
-        <v>298600</v>
+        <v>28900</v>
       </c>
       <c r="J27" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>427400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>421400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>198500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>225000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>69100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>189000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>214600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>84000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>88600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>93200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-6500</v>
       </c>
       <c r="E32" s="3">
-        <v>-16200</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>25300</v>
+        <v>63500</v>
       </c>
       <c r="E33" s="3">
-        <v>190700</v>
+        <v>26200</v>
       </c>
       <c r="F33" s="3">
-        <v>-87900</v>
+        <v>197700</v>
       </c>
       <c r="G33" s="3">
-        <v>100500</v>
+        <v>-91200</v>
       </c>
       <c r="H33" s="3">
-        <v>27900</v>
+        <v>104100</v>
       </c>
       <c r="I33" s="3">
-        <v>298600</v>
+        <v>28900</v>
       </c>
       <c r="J33" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>208300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>427400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>421400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>198500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>225000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>189000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>111900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>84000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>88600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>93200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>25300</v>
+        <v>63500</v>
       </c>
       <c r="E35" s="3">
-        <v>190700</v>
+        <v>26200</v>
       </c>
       <c r="F35" s="3">
-        <v>-87900</v>
+        <v>197700</v>
       </c>
       <c r="G35" s="3">
-        <v>100500</v>
+        <v>-91200</v>
       </c>
       <c r="H35" s="3">
-        <v>27900</v>
+        <v>104100</v>
       </c>
       <c r="I35" s="3">
-        <v>298600</v>
+        <v>28900</v>
       </c>
       <c r="J35" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>208300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>427400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>421400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>198500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>225000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>189000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>111900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>84000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>88600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>93200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1875500</v>
+        <v>1969800</v>
       </c>
       <c r="E41" s="3">
-        <v>2040600</v>
+        <v>1944300</v>
       </c>
       <c r="F41" s="3">
-        <v>1874500</v>
+        <v>2115400</v>
       </c>
       <c r="G41" s="3">
-        <v>1832200</v>
+        <v>1943300</v>
       </c>
       <c r="H41" s="3">
-        <v>2006500</v>
+        <v>1899400</v>
       </c>
       <c r="I41" s="3">
-        <v>1510800</v>
+        <v>2080100</v>
       </c>
       <c r="J41" s="3">
+        <v>1566200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1467500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1420400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1776300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1930400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2239900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1936200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1979500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2065500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2752600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2347000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2711100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2542800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2445500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1727000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1595400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1466000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1656700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1529400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1692300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E42" s="3">
-        <v>18700</v>
+        <v>7400</v>
       </c>
       <c r="F42" s="3">
-        <v>323800</v>
+        <v>19400</v>
       </c>
       <c r="G42" s="3">
-        <v>6500</v>
+        <v>335700</v>
       </c>
       <c r="H42" s="3">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="I42" s="3">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="J42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K42" s="3">
         <v>297900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>59900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>62800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>72500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>72000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>173900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>169000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>168700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>447200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>359400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>399800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>380300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>335200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>234600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1262700</v>
+        <v>1389100</v>
       </c>
       <c r="E43" s="3">
-        <v>1410500</v>
+        <v>1309000</v>
       </c>
       <c r="F43" s="3">
-        <v>1474400</v>
+        <v>1462200</v>
       </c>
       <c r="G43" s="3">
-        <v>1521500</v>
+        <v>1528400</v>
       </c>
       <c r="H43" s="3">
-        <v>1238000</v>
+        <v>1577300</v>
       </c>
       <c r="I43" s="3">
-        <v>1675600</v>
+        <v>1283400</v>
       </c>
       <c r="J43" s="3">
+        <v>1737100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1136600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1480500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1425800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1569400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1586000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1791700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1507800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1544100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1505300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1566000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1386600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1352300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1369300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1608700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1562400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1480200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1370400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1630200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1414300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>811200</v>
+        <v>888300</v>
       </c>
       <c r="E44" s="3">
-        <v>733900</v>
+        <v>840900</v>
       </c>
       <c r="F44" s="3">
-        <v>702000</v>
+        <v>760800</v>
       </c>
       <c r="G44" s="3">
-        <v>655900</v>
+        <v>727700</v>
       </c>
       <c r="H44" s="3">
-        <v>638400</v>
+        <v>680000</v>
       </c>
       <c r="I44" s="3">
-        <v>637100</v>
+        <v>661800</v>
       </c>
       <c r="J44" s="3">
+        <v>660400</v>
+      </c>
+      <c r="K44" s="3">
         <v>603500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>578700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>583700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>605000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>579100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>605200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>598500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>585800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>652400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>624300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>659800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>640100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>731600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>723500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>747100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>763400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>735100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>736700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>635500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>193900</v>
+        <v>229900</v>
       </c>
       <c r="E45" s="3">
-        <v>198800</v>
+        <v>201000</v>
       </c>
       <c r="F45" s="3">
+        <v>206100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>173300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>151400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>164200</v>
+      </c>
+      <c r="J45" s="3">
         <v>167200</v>
       </c>
-      <c r="G45" s="3">
-        <v>146100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>158400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>161300</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>169500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>148500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>165100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>174900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>195700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>211000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>414900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>298400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>291600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>129400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>127600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>138900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>161000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>151900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>100100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4150300</v>
+        <v>4484400</v>
       </c>
       <c r="E46" s="3">
-        <v>4402500</v>
+        <v>4302500</v>
       </c>
       <c r="F46" s="3">
-        <v>4541900</v>
+        <v>4564000</v>
       </c>
       <c r="G46" s="3">
-        <v>4162200</v>
+        <v>4708500</v>
       </c>
       <c r="H46" s="3">
-        <v>4046400</v>
+        <v>4314900</v>
       </c>
       <c r="I46" s="3">
-        <v>3988200</v>
+        <v>4194800</v>
       </c>
       <c r="J46" s="3">
+        <v>4134400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3675100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3632900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3930200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4275600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4593600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4556300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4341400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4469300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5397700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4909400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5229800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4995800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4844600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4634000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4403200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4270500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4294500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4331600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4149700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>341700</v>
+        <v>337100</v>
       </c>
       <c r="E47" s="3">
-        <v>348900</v>
+        <v>354300</v>
       </c>
       <c r="F47" s="3">
-        <v>312200</v>
+        <v>361700</v>
       </c>
       <c r="G47" s="3">
-        <v>297600</v>
+        <v>323600</v>
       </c>
       <c r="H47" s="3">
-        <v>305600</v>
+        <v>308500</v>
       </c>
       <c r="I47" s="3">
-        <v>286900</v>
+        <v>316800</v>
       </c>
       <c r="J47" s="3">
+        <v>297400</v>
+      </c>
+      <c r="K47" s="3">
         <v>310700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>306400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>360900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>350500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>433800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>457400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>458600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>509400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>457600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>502800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>464700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>432000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>467400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>529000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>514000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>483100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>500900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1245600</v>
+        <v>1213900</v>
       </c>
       <c r="E48" s="3">
-        <v>1225900</v>
+        <v>1291300</v>
       </c>
       <c r="F48" s="3">
-        <v>1204800</v>
+        <v>1270800</v>
       </c>
       <c r="G48" s="3">
-        <v>1151500</v>
+        <v>1249000</v>
       </c>
       <c r="H48" s="3">
-        <v>1129800</v>
+        <v>1193700</v>
       </c>
       <c r="I48" s="3">
-        <v>1127800</v>
+        <v>1171200</v>
       </c>
       <c r="J48" s="3">
+        <v>1169200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1141000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1051700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1114800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1231000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1274300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1266900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1242200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1264400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1010700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>891200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>872700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>888800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>931700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>937300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>940900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>938700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>918700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>907000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>862500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2268600</v>
+        <v>2180000</v>
       </c>
       <c r="E49" s="3">
-        <v>2181600</v>
+        <v>2351800</v>
       </c>
       <c r="F49" s="3">
-        <v>2036300</v>
+        <v>2261600</v>
       </c>
       <c r="G49" s="3">
-        <v>2012600</v>
+        <v>2111000</v>
       </c>
       <c r="H49" s="3">
-        <v>1995700</v>
+        <v>2086400</v>
       </c>
       <c r="I49" s="3">
-        <v>2003000</v>
+        <v>2068900</v>
       </c>
       <c r="J49" s="3">
+        <v>2076500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1972500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1965300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2133600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2307000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2420800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2621800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2595600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2573300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2597600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2591200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2612200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2520100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2462500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2589500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2588300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2594700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2541000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2590500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2298700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>936100</v>
+        <v>979900</v>
       </c>
       <c r="E52" s="3">
-        <v>865800</v>
+        <v>970400</v>
       </c>
       <c r="F52" s="3">
-        <v>691600</v>
+        <v>897500</v>
       </c>
       <c r="G52" s="3">
-        <v>652600</v>
+        <v>716900</v>
       </c>
       <c r="H52" s="3">
-        <v>605900</v>
+        <v>676500</v>
       </c>
       <c r="I52" s="3">
-        <v>601100</v>
+        <v>628100</v>
       </c>
       <c r="J52" s="3">
+        <v>623100</v>
+      </c>
+      <c r="K52" s="3">
         <v>617800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>583000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>640100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>699300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>718400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>699300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>646700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>634500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>781900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>835600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>817500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>826100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>812500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>847300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>891200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>906900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>905700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>898500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>878300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>8942500</v>
+        <v>9195400</v>
       </c>
       <c r="E54" s="3">
-        <v>9024700</v>
+        <v>9270400</v>
       </c>
       <c r="F54" s="3">
-        <v>8786700</v>
+        <v>9355600</v>
       </c>
       <c r="G54" s="3">
-        <v>8276600</v>
+        <v>9109000</v>
       </c>
       <c r="H54" s="3">
-        <v>8083400</v>
+        <v>8580100</v>
       </c>
       <c r="I54" s="3">
-        <v>8007000</v>
+        <v>8379800</v>
       </c>
       <c r="J54" s="3">
+        <v>8300700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7716900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7539300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8153200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8873700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9357500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9578100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9283300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9400100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10297300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9685000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10035000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9695500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9483200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9475500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9352600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9224800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9142900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9228400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8561300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>544700</v>
+        <v>506200</v>
       </c>
       <c r="E57" s="3">
-        <v>681400</v>
+        <v>564700</v>
       </c>
       <c r="F57" s="3">
-        <v>210100</v>
+        <v>706400</v>
       </c>
       <c r="G57" s="3">
-        <v>642700</v>
+        <v>217800</v>
       </c>
       <c r="H57" s="3">
-        <v>540800</v>
+        <v>666200</v>
       </c>
       <c r="I57" s="3">
-        <v>572700</v>
+        <v>560600</v>
       </c>
       <c r="J57" s="3">
+        <v>593700</v>
+      </c>
+      <c r="K57" s="3">
         <v>200600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>514500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>606800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>527700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>677300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>549100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>485900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>534200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>745000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>485200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>484100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>478500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>615600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>522700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>509300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>502600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>627600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>586800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>513400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>70900</v>
+        <v>479200</v>
       </c>
       <c r="E58" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>73500</v>
       </c>
       <c r="G58" s="3">
-        <v>283600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>283600</v>
+        <v>294000</v>
       </c>
       <c r="I58" s="3">
-        <v>303200</v>
+        <v>293900</v>
       </c>
       <c r="J58" s="3">
+        <v>314400</v>
+      </c>
+      <c r="K58" s="3">
         <v>283500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>298500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>308300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>537400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>555900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>366400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>470800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>377500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>371500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>263600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>148300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>627600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>556000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>554900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>443500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>65600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>34400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1274200</v>
+        <v>1320100</v>
       </c>
       <c r="E59" s="3">
-        <v>1388200</v>
+        <v>1320900</v>
       </c>
       <c r="F59" s="3">
-        <v>2011400</v>
+        <v>1439100</v>
       </c>
       <c r="G59" s="3">
-        <v>1236200</v>
+        <v>2085200</v>
       </c>
       <c r="H59" s="3">
-        <v>1166700</v>
+        <v>1281500</v>
       </c>
       <c r="I59" s="3">
-        <v>1094600</v>
+        <v>1209500</v>
       </c>
       <c r="J59" s="3">
+        <v>1134800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1331000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>888700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>976300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1148600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1234200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1425100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1469200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1439200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1626200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1724200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1627300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1525800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1420800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1003500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>957600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>954900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>913100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>880900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>787000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1889700</v>
+        <v>2305500</v>
       </c>
       <c r="E60" s="3">
-        <v>2140400</v>
+        <v>1959000</v>
       </c>
       <c r="F60" s="3">
-        <v>2221500</v>
+        <v>2218900</v>
       </c>
       <c r="G60" s="3">
-        <v>2162400</v>
+        <v>2303000</v>
       </c>
       <c r="H60" s="3">
-        <v>1991100</v>
+        <v>2241700</v>
       </c>
       <c r="I60" s="3">
-        <v>1970600</v>
+        <v>2064100</v>
       </c>
       <c r="J60" s="3">
+        <v>2042800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1815200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1403200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1583200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1974900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2219800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2511700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2511000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2339800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2842000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2586900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2482900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2267900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2184700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2153800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2022900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2012400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1984100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1533300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>602000</v>
+        <v>624200</v>
       </c>
       <c r="E61" s="3">
-        <v>602000</v>
+        <v>624100</v>
       </c>
       <c r="F61" s="3">
-        <v>672800</v>
+        <v>624100</v>
       </c>
       <c r="G61" s="3">
-        <v>354000</v>
+        <v>697500</v>
       </c>
       <c r="H61" s="3">
-        <v>353900</v>
+        <v>366900</v>
       </c>
       <c r="I61" s="3">
-        <v>353900</v>
+        <v>366900</v>
       </c>
       <c r="J61" s="3">
+        <v>366900</v>
+      </c>
+      <c r="K61" s="3">
         <v>353800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>658800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>468700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>484100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>504900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>823600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>864000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>848600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1151600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1481900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1416900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1435100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1434300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1477400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1450000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1904900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1863800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>419200</v>
+        <v>407200</v>
       </c>
       <c r="E62" s="3">
-        <v>409300</v>
+        <v>434600</v>
       </c>
       <c r="F62" s="3">
-        <v>422200</v>
+        <v>424300</v>
       </c>
       <c r="G62" s="3">
-        <v>381200</v>
+        <v>437700</v>
       </c>
       <c r="H62" s="3">
-        <v>383100</v>
+        <v>395200</v>
       </c>
       <c r="I62" s="3">
-        <v>383900</v>
+        <v>397100</v>
       </c>
       <c r="J62" s="3">
+        <v>397900</v>
+      </c>
+      <c r="K62" s="3">
         <v>398000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>366800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>394800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>430900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>463400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>471200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>442400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>446400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>325800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>356500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>328000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>315200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>330200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>363800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>362100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>356100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>363700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>369600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>351700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>3071000</v>
+        <v>3506200</v>
       </c>
       <c r="E66" s="3">
-        <v>3320400</v>
+        <v>3183700</v>
       </c>
       <c r="F66" s="3">
-        <v>3477600</v>
+        <v>3442200</v>
       </c>
       <c r="G66" s="3">
-        <v>3066900</v>
+        <v>3605100</v>
       </c>
       <c r="H66" s="3">
-        <v>2905300</v>
+        <v>3179400</v>
       </c>
       <c r="I66" s="3">
-        <v>2884100</v>
+        <v>3011800</v>
       </c>
       <c r="J66" s="3">
+        <v>2989900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2742600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2612200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2870000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3084900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3383200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3706000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3680500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3832200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4261100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4023600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4190300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4285600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4117300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4137900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3995100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4015200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3957200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3964100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3703300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3673900</v>
+        <v>3711400</v>
       </c>
       <c r="E72" s="3">
-        <v>3639400</v>
+        <v>3808700</v>
       </c>
       <c r="F72" s="3">
-        <v>3591700</v>
+        <v>3772800</v>
       </c>
       <c r="G72" s="3">
-        <v>3694400</v>
+        <v>3723400</v>
       </c>
       <c r="H72" s="3">
-        <v>3766300</v>
+        <v>3829800</v>
       </c>
       <c r="I72" s="3">
-        <v>3729600</v>
+        <v>3904400</v>
       </c>
       <c r="J72" s="3">
+        <v>3866300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3590400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3706300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3969600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4332900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4452200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4207300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4045400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3982400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4213900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3897700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3990100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3700800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3751300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3515100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3565200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3472600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3503500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3467100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3537900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>5871400</v>
+        <v>5689100</v>
       </c>
       <c r="E76" s="3">
-        <v>5704200</v>
+        <v>6086700</v>
       </c>
       <c r="F76" s="3">
-        <v>5309100</v>
+        <v>5913400</v>
       </c>
       <c r="G76" s="3">
-        <v>5209600</v>
+        <v>5503800</v>
       </c>
       <c r="H76" s="3">
-        <v>5178100</v>
+        <v>5400700</v>
       </c>
       <c r="I76" s="3">
-        <v>5122900</v>
+        <v>5368000</v>
       </c>
       <c r="J76" s="3">
+        <v>5310800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4974400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4927100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5283200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5788900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5974300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5872100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5602800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5567900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6036200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5661400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5844700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5409900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5366000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5337600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5357500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5209700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5185700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5264400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4858000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>25300</v>
+        <v>63500</v>
       </c>
       <c r="E81" s="3">
-        <v>190700</v>
+        <v>26200</v>
       </c>
       <c r="F81" s="3">
-        <v>-87900</v>
+        <v>197700</v>
       </c>
       <c r="G81" s="3">
-        <v>100500</v>
+        <v>-91200</v>
       </c>
       <c r="H81" s="3">
-        <v>27900</v>
+        <v>104100</v>
       </c>
       <c r="I81" s="3">
-        <v>298600</v>
+        <v>28900</v>
       </c>
       <c r="J81" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>208300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>427400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>421400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>198500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>225000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>189000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>111900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>84000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>88600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>93200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>70100</v>
+        <v>74600</v>
       </c>
       <c r="E83" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>72100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>67700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>72700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>72400</v>
+      </c>
+      <c r="J83" s="3">
         <v>69500</v>
       </c>
-      <c r="F83" s="3">
-        <v>65300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>70100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>69800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>67000</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>70000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>75700</v>
       </c>
       <c r="Q83" s="3">
         <v>75700</v>
       </c>
       <c r="R83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="S83" s="3">
         <v>64700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>63300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>62500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>61000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>59700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>57900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>58100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>57700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>54400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-161600</v>
+        <v>-50800</v>
       </c>
       <c r="E89" s="3">
-        <v>28000</v>
+        <v>-167500</v>
       </c>
       <c r="F89" s="3">
-        <v>314900</v>
+        <v>29000</v>
       </c>
       <c r="G89" s="3">
-        <v>33800</v>
+        <v>326400</v>
       </c>
       <c r="H89" s="3">
-        <v>586200</v>
+        <v>35000</v>
       </c>
       <c r="I89" s="3">
-        <v>-101200</v>
+        <v>607700</v>
       </c>
       <c r="J89" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="K89" s="3">
         <v>366900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>648100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>115000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-37300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>415600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>99600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>349100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>112200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1002200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>236800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>147300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-33400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>295000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>140100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>280100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18100</v>
+        <v>-39700</v>
       </c>
       <c r="E91" s="3">
-        <v>-82300</v>
+        <v>-18800</v>
       </c>
       <c r="F91" s="3">
-        <v>-49700</v>
+        <v>-85400</v>
       </c>
       <c r="G91" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-26700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-43500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-85900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-33200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-41600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-105900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-30500</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-94800</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-26700</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>3000</v>
+        <v>-27700</v>
       </c>
       <c r="E94" s="3">
-        <v>-119300</v>
+        <v>3100</v>
       </c>
       <c r="F94" s="3">
-        <v>-72200</v>
+        <v>-123700</v>
       </c>
       <c r="G94" s="3">
-        <v>-79500</v>
+        <v>-80000</v>
       </c>
       <c r="H94" s="3">
-        <v>-53700</v>
+        <v>-77200</v>
       </c>
       <c r="I94" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-106600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-184500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-105300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>71000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>245700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-94400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-152100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-217000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-91800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-168700</v>
       </c>
       <c r="E96" s="3">
-        <v>-162700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-168600</v>
       </c>
       <c r="G96" s="3">
-        <v>-162600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-168600</v>
       </c>
       <c r="I96" s="3">
-        <v>-162600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-168600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-168100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-195600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-208900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-210000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-189300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-208200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-181100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-207000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-177600</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-18200</v>
+        <v>218400</v>
       </c>
       <c r="E100" s="3">
-        <v>-179000</v>
+        <v>-18800</v>
       </c>
       <c r="F100" s="3">
-        <v>31700</v>
+        <v>-185500</v>
       </c>
       <c r="G100" s="3">
-        <v>-180800</v>
+        <v>32900</v>
       </c>
       <c r="H100" s="3">
-        <v>-38400</v>
+        <v>-187400</v>
       </c>
       <c r="I100" s="3">
-        <v>-159800</v>
+        <v>-39800</v>
       </c>
       <c r="J100" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-16100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-186100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-216600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-228800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-246500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-149600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-313400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>86200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-506100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-270700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-49100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-477900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-111300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-45200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-105600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-183800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>-114300</v>
       </c>
       <c r="E101" s="3">
-        <v>115600</v>
+        <v>12000</v>
       </c>
       <c r="F101" s="3">
-        <v>88700</v>
+        <v>119900</v>
       </c>
       <c r="G101" s="3">
-        <v>48600</v>
+        <v>92000</v>
       </c>
       <c r="H101" s="3">
-        <v>5100</v>
+        <v>50400</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K101" s="3">
         <v>80100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-41500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-73300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-72400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>60400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>35400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-51500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>19600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>97700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-27500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-165100</v>
+        <v>25500</v>
       </c>
       <c r="E102" s="3">
-        <v>-154700</v>
+        <v>-171200</v>
       </c>
       <c r="F102" s="3">
-        <v>363100</v>
+        <v>-160400</v>
       </c>
       <c r="G102" s="3">
-        <v>-174300</v>
+        <v>376400</v>
       </c>
       <c r="H102" s="3">
-        <v>495700</v>
+        <v>-180700</v>
       </c>
       <c r="I102" s="3">
-        <v>-252800</v>
+        <v>513900</v>
       </c>
       <c r="J102" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="K102" s="3">
         <v>389700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-251000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-238300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>367500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-92800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-608500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>416200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-407900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>112300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>83700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>718500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>131700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>129400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-222400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>127300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-162900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>160000</v>
       </c>
     </row>
